--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -14,6 +14,55 @@
   </bookViews>
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
+    <sheet name="0103040030_op-21.plm.plx.xlsx" sheetId="3" r:id="rId6"/>
+    <sheet name="0104020007_op-20.plm.plx.xlsx" sheetId="4" r:id="rId7"/>
+    <sheet name="0104020009_OP-20.plm.plx.xlsx" sheetId="5" r:id="rId8"/>
+    <sheet name="0104020009_OP-21.plm.plx.xlsx" sheetId="6" r:id="rId9"/>
+    <sheet name="0903010030_op-21.plm.plx.xlsx" sheetId="7" r:id="rId10"/>
+    <sheet name="0903020030_op-21.plm.plx.xlsx" sheetId="8" r:id="rId11"/>
+    <sheet name="0903030031_OP-21.plm.plx.xlsx" sheetId="9" r:id="rId12"/>
+    <sheet name="0903030032_OP-20.plm.plx.xlsx" sheetId="10" r:id="rId13"/>
+    <sheet name="0903030033_OP-21.plm.plx.xlsx" sheetId="11" r:id="rId14"/>
+    <sheet name="0903030035_OP-21.plm.plx.xlsx" sheetId="12" r:id="rId15"/>
+    <sheet name="0903040030_op-21.plm.plx.xlsx" sheetId="13" r:id="rId16"/>
+    <sheet name="0904010001_OP-20.plm.plx.xlsx" sheetId="14" r:id="rId17"/>
+    <sheet name="0904010001_OP-21.plm.plx.xlsx" sheetId="15" r:id="rId18"/>
+    <sheet name="0904010003_OP-20.plm.plx.xlsx" sheetId="16" r:id="rId19"/>
+    <sheet name="0904010003_OP-21.plm.plx.xlsx" sheetId="17" r:id="rId20"/>
+    <sheet name="0904010004_OP-20.plm.plx.xlsx" sheetId="18" r:id="rId21"/>
+    <sheet name="0904010004_OP-21.plm.plx.xlsx" sheetId="19" r:id="rId22"/>
+    <sheet name="0904010006_OP-20.plm.plx.xlsx" sheetId="20" r:id="rId23"/>
+    <sheet name="0904010010_OP-20.plm.plx.xlsx" sheetId="21" r:id="rId24"/>
+    <sheet name="0904010010_OP-21.plm.plx.xlsx" sheetId="22" r:id="rId25"/>
+    <sheet name="0904010011_OP-21.plm.plx.xlsx" sheetId="23" r:id="rId26"/>
+    <sheet name="0904010012_OP-21.plm.plx.xlsx" sheetId="24" r:id="rId27"/>
+    <sheet name="0904020001_OP-20.plm.plx.xlsx" sheetId="25" r:id="rId28"/>
+    <sheet name="0904020001_OP-21.plm.plx.xlsx" sheetId="26" r:id="rId29"/>
+    <sheet name="0904020002_OP-20.plm.plx.xlsx" sheetId="27" r:id="rId30"/>
+    <sheet name="0904020002_OP-21.plm.plx.xlsx" sheetId="28" r:id="rId31"/>
+    <sheet name="0904020003_OP-20.plm.plx.xlsx" sheetId="29" r:id="rId32"/>
+    <sheet name="0904020003_OP-21.plm.plx.xlsx" sheetId="30" r:id="rId33"/>
+    <sheet name="0904020004_OP-20.plm.plx.xlsx" sheetId="31" r:id="rId34"/>
+    <sheet name="0904020004_OP-21.plm.plx.xlsx" sheetId="32" r:id="rId35"/>
+    <sheet name="0904020005_OP-20.plm.plx.xlsx" sheetId="33" r:id="rId36"/>
+    <sheet name="0904020005_OP-21.plm.plx.xlsx" sheetId="34" r:id="rId37"/>
+    <sheet name="0904020006_OP-20.plm.plx.xlsx" sheetId="35" r:id="rId38"/>
+    <sheet name="0904020006_OP-21.plm.plx.xlsx" sheetId="36" r:id="rId39"/>
+    <sheet name="0904040001_OP-20.plm.plx.xlsx" sheetId="37" r:id="rId40"/>
+    <sheet name="0904040002_OP-20.plm.plx.xlsx" sheetId="38" r:id="rId41"/>
+    <sheet name="0904040002_OP-21.plm.plx.xlsx" sheetId="39" r:id="rId42"/>
+    <sheet name="0904040003_OP-21.plm.plx.xlsx" sheetId="40" r:id="rId43"/>
+    <sheet name="1003010031_op-21.plm.plx.xlsx" sheetId="41" r:id="rId44"/>
+    <sheet name="1005010034_OP-21.pli.plx.xlsx" sheetId="42" r:id="rId45"/>
+    <sheet name="1005030035_OP-21.pli.plx.xlsx" sheetId="43" r:id="rId46"/>
+    <sheet name="1503040000_op-21.plm.plx.xlsx" sheetId="44" r:id="rId47"/>
+    <sheet name="2703030030_op-21.plm.plx.xlsx" sheetId="45" r:id="rId48"/>
+    <sheet name="2703040030_op-21.plm.plx.xlsx" sheetId="46" r:id="rId49"/>
+    <sheet name="2704030006_op-20.plm.plx.xlsx" sheetId="47" r:id="rId50"/>
+    <sheet name="2704030006_OP-21.plm..plx.xlsx" sheetId="48" r:id="rId51"/>
+    <sheet name="2704040001_OP-20.plm.plx.xlsx" sheetId="49" r:id="rId52"/>
+    <sheet name="2704040004_OP-20.plm.plx.xlsx" sheetId="50" r:id="rId53"/>
+    <sheet name="2704040005_OP-21.plm.plx.xlsx" sheetId="51" r:id="rId54"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -541,6 +590,126 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -1102,4 +1271,472 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -14,6 +14,55 @@
   </bookViews>
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
+    <sheet name="0103040030_op-21.plm.plx.xlsx" sheetId="3" r:id="rId6"/>
+    <sheet name="0104020007_op-20.plm.plx.xlsx" sheetId="4" r:id="rId7"/>
+    <sheet name="0104020009_OP-20.plm.plx.xlsx" sheetId="5" r:id="rId8"/>
+    <sheet name="0104020009_OP-21.plm.plx.xlsx" sheetId="6" r:id="rId9"/>
+    <sheet name="0903010030_op-21.plm.plx.xlsx" sheetId="7" r:id="rId10"/>
+    <sheet name="0903020030_op-21.plm.plx.xlsx" sheetId="8" r:id="rId11"/>
+    <sheet name="0903030031_OP-21.plm.plx.xlsx" sheetId="9" r:id="rId12"/>
+    <sheet name="0903030032_OP-20.plm.plx.xlsx" sheetId="10" r:id="rId13"/>
+    <sheet name="0903030033_OP-21.plm.plx.xlsx" sheetId="11" r:id="rId14"/>
+    <sheet name="0903030035_OP-21.plm.plx.xlsx" sheetId="12" r:id="rId15"/>
+    <sheet name="0903040030_op-21.plm.plx.xlsx" sheetId="13" r:id="rId16"/>
+    <sheet name="0904010001_OP-20.plm.plx.xlsx" sheetId="14" r:id="rId17"/>
+    <sheet name="0904010001_OP-21.plm.plx.xlsx" sheetId="15" r:id="rId18"/>
+    <sheet name="0904010003_OP-20.plm.plx.xlsx" sheetId="16" r:id="rId19"/>
+    <sheet name="0904010003_OP-21.plm.plx.xlsx" sheetId="17" r:id="rId20"/>
+    <sheet name="0904010004_OP-20.plm.plx.xlsx" sheetId="18" r:id="rId21"/>
+    <sheet name="0904010004_OP-21.plm.plx.xlsx" sheetId="19" r:id="rId22"/>
+    <sheet name="0904010006_OP-20.plm.plx.xlsx" sheetId="20" r:id="rId23"/>
+    <sheet name="0904010010_OP-20.plm.plx.xlsx" sheetId="21" r:id="rId24"/>
+    <sheet name="0904010010_OP-21.plm.plx.xlsx" sheetId="22" r:id="rId25"/>
+    <sheet name="0904010011_OP-21.plm.plx.xlsx" sheetId="23" r:id="rId26"/>
+    <sheet name="0904010012_OP-21.plm.plx.xlsx" sheetId="24" r:id="rId27"/>
+    <sheet name="0904020001_OP-20.plm.plx.xlsx" sheetId="25" r:id="rId28"/>
+    <sheet name="0904020001_OP-21.plm.plx.xlsx" sheetId="26" r:id="rId29"/>
+    <sheet name="0904020002_OP-20.plm.plx.xlsx" sheetId="27" r:id="rId30"/>
+    <sheet name="0904020002_OP-21.plm.plx.xlsx" sheetId="28" r:id="rId31"/>
+    <sheet name="0904020003_OP-20.plm.plx.xlsx" sheetId="29" r:id="rId32"/>
+    <sheet name="0904020003_OP-21.plm.plx.xlsx" sheetId="30" r:id="rId33"/>
+    <sheet name="0904020004_OP-20.plm.plx.xlsx" sheetId="31" r:id="rId34"/>
+    <sheet name="0904020004_OP-21.plm.plx.xlsx" sheetId="32" r:id="rId35"/>
+    <sheet name="0904020005_OP-20.plm.plx.xlsx" sheetId="33" r:id="rId36"/>
+    <sheet name="0904020005_OP-21.plm.plx.xlsx" sheetId="34" r:id="rId37"/>
+    <sheet name="0904020006_OP-20.plm.plx.xlsx" sheetId="35" r:id="rId38"/>
+    <sheet name="0904020006_OP-21.plm.plx.xlsx" sheetId="36" r:id="rId39"/>
+    <sheet name="0904040001_OP-20.plm.plx.xlsx" sheetId="37" r:id="rId40"/>
+    <sheet name="0904040002_OP-20.plm.plx.xlsx" sheetId="38" r:id="rId41"/>
+    <sheet name="0904040002_OP-21.plm.plx.xlsx" sheetId="39" r:id="rId42"/>
+    <sheet name="0904040003_OP-21.plm.plx.xlsx" sheetId="40" r:id="rId43"/>
+    <sheet name="1003010031_op-21.plm.plx.xlsx" sheetId="41" r:id="rId44"/>
+    <sheet name="1005010034_OP-21.pli.plx.xlsx" sheetId="42" r:id="rId45"/>
+    <sheet name="1005030035_OP-21.pli.plx.xlsx" sheetId="43" r:id="rId46"/>
+    <sheet name="1503040000_op-21.plm.plx.xlsx" sheetId="44" r:id="rId47"/>
+    <sheet name="2703030030_op-21.plm.plx.xlsx" sheetId="45" r:id="rId48"/>
+    <sheet name="2703040030_op-21.plm.plx.xlsx" sheetId="46" r:id="rId49"/>
+    <sheet name="2704030006_op-20.plm.plx.xlsx" sheetId="47" r:id="rId50"/>
+    <sheet name="2704030006_OP-21.plm..plx.xlsx" sheetId="48" r:id="rId51"/>
+    <sheet name="2704040001_OP-20.plm.plx.xlsx" sheetId="49" r:id="rId52"/>
+    <sheet name="2704040004_OP-20.plm.plx.xlsx" sheetId="50" r:id="rId53"/>
+    <sheet name="2704040005_OP-21.plm.plx.xlsx" sheetId="51" r:id="rId54"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,13 +87,166 @@
     <t/>
   </si>
   <si>
-    <t>Curricula Name</t>
-  </si>
-  <si>
-    <t>Total credits</t>
-  </si>
-  <si>
-    <t>Number of disciplines</t>
+    <t>Название учебного плана</t>
+  </si>
+  <si>
+    <t>Всего ЗЕ</t>
+  </si>
+  <si>
+    <t>Кол-во дисциплин</t>
+  </si>
+  <si>
+    <t>(Расш.) Общее колв-о ЗЕ в УП</t>
+  </si>
+  <si>
+    <t>(Расш.) Кол-во дисциплин в УП</t>
+  </si>
+  <si>
+    <t>0103040030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0104020007_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0104020009_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0104020009_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903010030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903020030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903030031_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903030032_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903030033_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903030035_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903040030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010001_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010003_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010003_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010004_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010010_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010010_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010011_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010012_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020001_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020002_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020002_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020003_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020003_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020004_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020005_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020005_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020006_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904040001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904040002_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904040002_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904040003_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>1003010031_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>1005010034_OP-21.pli.plx.xlsx</t>
+  </si>
+  <si>
+    <t>1005030035_OP-21.pli.plx.xlsx</t>
+  </si>
+  <si>
+    <t>1503040000_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2703030030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2703040030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704030006_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704030006_OP-21.plm..plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704040001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704040004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704040005_OP-21.plm.plx.xlsx</t>
   </si>
 </sst>
 </file>
@@ -394,6 +596,126 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -412,8 +734,1315 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>244</v>
+      </c>
+      <c r="C2">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>261</v>
+      </c>
+      <c r="E2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>136</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>130</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>130</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>244</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>265</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>246</v>
+      </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>339</v>
+      </c>
+      <c r="E7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>244</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>252</v>
+      </c>
+      <c r="E8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>244</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>257</v>
+      </c>
+      <c r="E9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>242</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>255</v>
+      </c>
+      <c r="C11">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>263</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>244</v>
+      </c>
+      <c r="C12">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>293</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>124</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>134</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>124</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>134</v>
+      </c>
+      <c r="E15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>124</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>134</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>124</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>133</v>
+      </c>
+      <c r="E17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>124</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>133</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>124</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>133</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>124</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>133</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>124</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>133</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>124</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>133</v>
+      </c>
+      <c r="E22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>124</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>130</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>124</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>136</v>
+      </c>
+      <c r="E24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>124</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>136</v>
+      </c>
+      <c r="E25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>124</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>136</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>124</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>136</v>
+      </c>
+      <c r="E27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>136</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>124</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>136</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>124</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>136</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>136</v>
+      </c>
+      <c r="E31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>124</v>
+      </c>
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>136</v>
+      </c>
+      <c r="E32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>124</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>136</v>
+      </c>
+      <c r="E33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>124</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>136</v>
+      </c>
+      <c r="E34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>124</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>136</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>124</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>137</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>124</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>137</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>124</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>137</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>124</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>128</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>244</v>
+      </c>
+      <c r="C40">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>250</v>
+      </c>
+      <c r="E40">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>334</v>
+      </c>
+      <c r="C41">
+        <v>71</v>
+      </c>
+      <c r="D41">
+        <v>340</v>
+      </c>
+      <c r="E41">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>334</v>
+      </c>
+      <c r="C42">
+        <v>72</v>
+      </c>
+      <c r="D42">
+        <v>340</v>
+      </c>
+      <c r="E42">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>244</v>
+      </c>
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>276</v>
+      </c>
+      <c r="E43">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>245</v>
+      </c>
+      <c r="C44">
+        <v>51</v>
+      </c>
+      <c r="D44">
+        <v>265</v>
+      </c>
+      <c r="E44">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>244</v>
+      </c>
+      <c r="C45">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>259</v>
+      </c>
+      <c r="E45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>125</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>138</v>
+      </c>
+      <c r="E46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>125</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>131</v>
+      </c>
+      <c r="E47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>124</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>149</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>124</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>146</v>
+      </c>
+      <c r="E49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>124</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>142</v>
+      </c>
+      <c r="E50">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -15,6 +15,54 @@
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
     <sheet name="0103040030_op-21.plm.plx.xlsx" sheetId="3" r:id="rId6"/>
+    <sheet name="0104020007_op-20.plm.plx.xlsx" sheetId="4" r:id="rId7"/>
+    <sheet name="0104020009_OP-20.plm.plx.xlsx" sheetId="5" r:id="rId8"/>
+    <sheet name="0104020009_OP-21.plm.plx.xlsx" sheetId="6" r:id="rId9"/>
+    <sheet name="0903010030_op-21.plm.plx.xlsx" sheetId="7" r:id="rId10"/>
+    <sheet name="0903020030_op-21.plm.plx.xlsx" sheetId="8" r:id="rId11"/>
+    <sheet name="0903030031_OP-21.plm.plx.xlsx" sheetId="9" r:id="rId12"/>
+    <sheet name="0903030032_OP-20.plm.plx.xlsx" sheetId="10" r:id="rId13"/>
+    <sheet name="0903030033_OP-21.plm.plx.xlsx" sheetId="11" r:id="rId14"/>
+    <sheet name="0903030035_OP-21.plm.plx.xlsx" sheetId="12" r:id="rId15"/>
+    <sheet name="0903040030_op-21.plm.plx.xlsx" sheetId="13" r:id="rId16"/>
+    <sheet name="0904010001_OP-20.plm.plx.xlsx" sheetId="14" r:id="rId17"/>
+    <sheet name="0904010001_OP-21.plm.plx.xlsx" sheetId="15" r:id="rId18"/>
+    <sheet name="0904010003_OP-20.plm.plx.xlsx" sheetId="16" r:id="rId19"/>
+    <sheet name="0904010003_OP-21.plm.plx.xlsx" sheetId="17" r:id="rId20"/>
+    <sheet name="0904010004_OP-20.plm.plx.xlsx" sheetId="18" r:id="rId21"/>
+    <sheet name="0904010004_OP-21.plm.plx.xlsx" sheetId="19" r:id="rId22"/>
+    <sheet name="0904010006_OP-20.plm.plx.xlsx" sheetId="20" r:id="rId23"/>
+    <sheet name="0904010010_OP-20.plm.plx.xlsx" sheetId="21" r:id="rId24"/>
+    <sheet name="0904010010_OP-21.plm.plx.xlsx" sheetId="22" r:id="rId25"/>
+    <sheet name="0904010011_OP-21.plm.plx.xlsx" sheetId="23" r:id="rId26"/>
+    <sheet name="0904010012_OP-21.plm.plx.xlsx" sheetId="24" r:id="rId27"/>
+    <sheet name="0904020001_OP-20.plm.plx.xlsx" sheetId="25" r:id="rId28"/>
+    <sheet name="0904020001_OP-21.plm.plx.xlsx" sheetId="26" r:id="rId29"/>
+    <sheet name="0904020002_OP-20.plm.plx.xlsx" sheetId="27" r:id="rId30"/>
+    <sheet name="0904020002_OP-21.plm.plx.xlsx" sheetId="28" r:id="rId31"/>
+    <sheet name="0904020003_OP-20.plm.plx.xlsx" sheetId="29" r:id="rId32"/>
+    <sheet name="0904020003_OP-21.plm.plx.xlsx" sheetId="30" r:id="rId33"/>
+    <sheet name="0904020004_OP-20.plm.plx.xlsx" sheetId="31" r:id="rId34"/>
+    <sheet name="0904020004_OP-21.plm.plx.xlsx" sheetId="32" r:id="rId35"/>
+    <sheet name="0904020005_OP-20.plm.plx.xlsx" sheetId="33" r:id="rId36"/>
+    <sheet name="0904020005_OP-21.plm.plx.xlsx" sheetId="34" r:id="rId37"/>
+    <sheet name="0904020006_OP-20.plm.plx.xlsx" sheetId="35" r:id="rId38"/>
+    <sheet name="0904020006_OP-21.plm.plx.xlsx" sheetId="36" r:id="rId39"/>
+    <sheet name="0904040001_OP-20.plm.plx.xlsx" sheetId="37" r:id="rId40"/>
+    <sheet name="0904040002_OP-20.plm.plx.xlsx" sheetId="38" r:id="rId41"/>
+    <sheet name="0904040002_OP-21.plm.plx.xlsx" sheetId="39" r:id="rId42"/>
+    <sheet name="0904040003_OP-21.plm.plx.xlsx" sheetId="40" r:id="rId43"/>
+    <sheet name="1003010031_op-21.plm.plx.xlsx" sheetId="41" r:id="rId44"/>
+    <sheet name="1005010034_OP-21.pli.plx.xlsx" sheetId="42" r:id="rId45"/>
+    <sheet name="1005030035_OP-21.pli.plx.xlsx" sheetId="43" r:id="rId46"/>
+    <sheet name="1503040000_op-21.plm.plx.xlsx" sheetId="44" r:id="rId47"/>
+    <sheet name="2703030030_op-21.plm.plx.xlsx" sheetId="45" r:id="rId48"/>
+    <sheet name="2703040030_op-21.plm.plx.xlsx" sheetId="46" r:id="rId49"/>
+    <sheet name="2704030006_op-20.plm.plx.xlsx" sheetId="47" r:id="rId50"/>
+    <sheet name="2704030006_OP-21.plm..plx.xlsx" sheetId="48" r:id="rId51"/>
+    <sheet name="2704040001_OP-20.plm.plx.xlsx" sheetId="49" r:id="rId52"/>
+    <sheet name="2704040004_OP-20.plm.plx.xlsx" sheetId="50" r:id="rId53"/>
+    <sheet name="2704040005_OP-21.plm.plx.xlsx" sheetId="51" r:id="rId54"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,6 +103,150 @@
   </si>
   <si>
     <t>0103040030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0104020007_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0104020009_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0104020009_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903010030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903020030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903030031_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903030032_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903030033_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903030035_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903040030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010001_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010003_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010003_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010004_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010010_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010010_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010011_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010012_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020001_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020002_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020002_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020003_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020003_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020004_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020005_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020005_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020006_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904040001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904040002_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904040002_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904040003_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>1003010031_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>1005010034_OP-21.pli.plx.xlsx</t>
+  </si>
+  <si>
+    <t>1005030035_OP-21.pli.plx.xlsx</t>
+  </si>
+  <si>
+    <t>1503040000_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2703030030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2703040030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704030006_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704030006_OP-21.plm..plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704040001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704040004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>2704040005_OP-21.plm.plx.xlsx</t>
   </si>
 </sst>
 </file>
@@ -404,6 +596,126 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -446,11 +758,947 @@
         <v>63</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>136</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>130</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>130</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>244</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>265</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>246</v>
+      </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>339</v>
+      </c>
+      <c r="E7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>244</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>252</v>
+      </c>
+      <c r="E8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>244</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>257</v>
+      </c>
+      <c r="E9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>242</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>255</v>
+      </c>
+      <c r="C11">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>263</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>244</v>
+      </c>
+      <c r="C12">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>293</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>124</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>134</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>124</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>134</v>
+      </c>
+      <c r="E15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>124</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>134</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>124</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>133</v>
+      </c>
+      <c r="E17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>124</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>133</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>124</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>133</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>124</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>133</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>124</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>133</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>124</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>133</v>
+      </c>
+      <c r="E22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>124</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>130</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>124</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>136</v>
+      </c>
+      <c r="E24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>124</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>136</v>
+      </c>
+      <c r="E25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>124</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>136</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>124</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>136</v>
+      </c>
+      <c r="E27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>136</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>124</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>136</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>124</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>136</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>136</v>
+      </c>
+      <c r="E31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>124</v>
+      </c>
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>136</v>
+      </c>
+      <c r="E32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>124</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>136</v>
+      </c>
+      <c r="E33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>124</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>136</v>
+      </c>
+      <c r="E34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>124</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>136</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>124</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>137</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>124</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>137</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>124</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>137</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>124</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>128</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>244</v>
+      </c>
+      <c r="C40">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>250</v>
+      </c>
+      <c r="E40">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>334</v>
+      </c>
+      <c r="C41">
+        <v>71</v>
+      </c>
+      <c r="D41">
+        <v>340</v>
+      </c>
+      <c r="E41">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>334</v>
+      </c>
+      <c r="C42">
+        <v>72</v>
+      </c>
+      <c r="D42">
+        <v>340</v>
+      </c>
+      <c r="E42">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>244</v>
+      </c>
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>276</v>
+      </c>
+      <c r="E43">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>245</v>
+      </c>
+      <c r="C44">
+        <v>51</v>
+      </c>
+      <c r="D44">
+        <v>265</v>
+      </c>
+      <c r="E44">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>244</v>
+      </c>
+      <c r="C45">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>259</v>
+      </c>
+      <c r="E45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>125</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>138</v>
+      </c>
+      <c r="E46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>125</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>131</v>
+      </c>
+      <c r="E47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>124</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>149</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>124</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>146</v>
+      </c>
+      <c r="E49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>124</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>142</v>
+      </c>
+      <c r="E50">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -461,4 +1709,340 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -15,6 +15,12 @@
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
     <sheet name="0104020009_OP-20.plm.plx.xlsx" sheetId="3" r:id="rId6"/>
+    <sheet name="0903030033_OP-21.plm.plx.xlsx" sheetId="4" r:id="rId7"/>
+    <sheet name="0903030035_OP-21.plm.plx.xlsx" sheetId="5" r:id="rId8"/>
+    <sheet name="0903040030_op-21.plm.plx.xlsx" sheetId="6" r:id="rId9"/>
+    <sheet name="0904010001_OP-20.plm.plx.xlsx" sheetId="7" r:id="rId10"/>
+    <sheet name="0904010001_OP-21.plm.plx.xlsx" sheetId="8" r:id="rId11"/>
+    <sheet name="0904010003_OP-20.plm.plx.xlsx" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -54,7 +60,34 @@
     <t>(Расш.) Кол-во дисциплин в УП</t>
   </si>
   <si>
+    <t>OPK</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>0104020009_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903030033_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903030035_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903040030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010001_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010003_OP-20.plm.plx.xlsx</t>
   </si>
 </sst>
 </file>
@@ -428,10 +461,19 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>124</v>
@@ -446,6 +488,108 @@
         <v>25</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>242</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>263</v>
+      </c>
+      <c r="E4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>244</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>293</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>134</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>134</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>124</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>134</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -461,4 +605,76 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -14,13 +14,55 @@
   </bookViews>
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
-    <sheet name="0104020009_OP-20.plm.plx.xlsx" sheetId="3" r:id="rId6"/>
-    <sheet name="0903030033_OP-21.plm.plx.xlsx" sheetId="4" r:id="rId7"/>
-    <sheet name="0903030035_OP-21.plm.plx.xlsx" sheetId="5" r:id="rId8"/>
-    <sheet name="0903040030_op-21.plm.plx.xlsx" sheetId="6" r:id="rId9"/>
-    <sheet name="0904010001_OP-20.plm.plx.xlsx" sheetId="7" r:id="rId10"/>
-    <sheet name="0904010001_OP-21.plm.plx.xlsx" sheetId="8" r:id="rId11"/>
-    <sheet name="0904010003_OP-20.plm.plx.xlsx" sheetId="9" r:id="rId12"/>
+    <sheet name="0103040030_op-21.plm.plx.xlsx" sheetId="3" r:id="rId6"/>
+    <sheet name="0104020007_op-20.plm.plx.xlsx" sheetId="4" r:id="rId7"/>
+    <sheet name="0104020009_OP-20.plm.plx.xlsx" sheetId="5" r:id="rId8"/>
+    <sheet name="0104020009_OP-21.plm.plx.xlsx" sheetId="6" r:id="rId9"/>
+    <sheet name="0903010030_op-21.plm.plx.xlsx" sheetId="7" r:id="rId10"/>
+    <sheet name="0903020030_op-21.plm.plx.xlsx" sheetId="8" r:id="rId11"/>
+    <sheet name="0903030031_OP-21.plm.plx.xlsx" sheetId="9" r:id="rId12"/>
+    <sheet name="0903030032_OP-20.plm.plx.xlsx" sheetId="10" r:id="rId13"/>
+    <sheet name="0903030033_OP-21.plm.plx.xlsx" sheetId="11" r:id="rId14"/>
+    <sheet name="0903030035_OP-21.plm.plx.xlsx" sheetId="12" r:id="rId15"/>
+    <sheet name="0903040030_op-21.plm.plx.xlsx" sheetId="13" r:id="rId16"/>
+    <sheet name="0904010001_OP-20.plm.plx.xlsx" sheetId="14" r:id="rId17"/>
+    <sheet name="0904010001_OP-21.plm.plx.xlsx" sheetId="15" r:id="rId18"/>
+    <sheet name="0904010003_OP-20.plm.plx.xlsx" sheetId="16" r:id="rId19"/>
+    <sheet name="0904010003_OP-21.plm.plx.xlsx" sheetId="17" r:id="rId20"/>
+    <sheet name="0904010004_OP-20.plm.plx.xlsx" sheetId="18" r:id="rId21"/>
+    <sheet name="0904010004_OP-21.plm.plx.xlsx" sheetId="19" r:id="rId22"/>
+    <sheet name="0904010006_OP-20.plm.plx.xlsx" sheetId="20" r:id="rId23"/>
+    <sheet name="0904010010_OP-20.plm.plx.xlsx" sheetId="21" r:id="rId24"/>
+    <sheet name="0904010010_OP-21.plm.plx.xlsx" sheetId="22" r:id="rId25"/>
+    <sheet name="0904010011_OP-21.plm.plx.xlsx" sheetId="23" r:id="rId26"/>
+    <sheet name="0904010012_OP-21.plm.plx.xlsx" sheetId="24" r:id="rId27"/>
+    <sheet name="0904020001_OP-20.plm.plx.xlsx" sheetId="25" r:id="rId28"/>
+    <sheet name="0904020001_OP-21.plm.plx.xlsx" sheetId="26" r:id="rId29"/>
+    <sheet name="0904020002_OP-20.plm.plx.xlsx" sheetId="27" r:id="rId30"/>
+    <sheet name="0904020002_OP-21.plm.plx.xlsx" sheetId="28" r:id="rId31"/>
+    <sheet name="0904020003_OP-20.plm.plx.xlsx" sheetId="29" r:id="rId32"/>
+    <sheet name="0904020003_OP-21.plm.plx.xlsx" sheetId="30" r:id="rId33"/>
+    <sheet name="0904020004_OP-20.plm.plx.xlsx" sheetId="31" r:id="rId34"/>
+    <sheet name="0904020004_OP-21.plm.plx.xlsx" sheetId="32" r:id="rId35"/>
+    <sheet name="0904020005_OP-20.plm.plx.xlsx" sheetId="33" r:id="rId36"/>
+    <sheet name="0904020005_OP-21.plm.plx.xlsx" sheetId="34" r:id="rId37"/>
+    <sheet name="0904020006_OP-20.plm.plx.xlsx" sheetId="35" r:id="rId38"/>
+    <sheet name="0904020006_OP-21.plm.plx.xlsx" sheetId="36" r:id="rId39"/>
+    <sheet name="0904040001_OP-20.plm.plx.xlsx" sheetId="37" r:id="rId40"/>
+    <sheet name="0904040002_OP-20.plm.plx.xlsx" sheetId="38" r:id="rId41"/>
+    <sheet name="0904040002_OP-21.plm.plx.xlsx" sheetId="39" r:id="rId42"/>
+    <sheet name="0904040003_OP-21.plm.plx.xlsx" sheetId="40" r:id="rId43"/>
+    <sheet name="1003010031_op-21.plm.plx.xlsx" sheetId="41" r:id="rId44"/>
+    <sheet name="1005010034_OP-21.pli.plx.xlsx" sheetId="42" r:id="rId45"/>
+    <sheet name="1005030035_OP-21.pli.plx.xlsx" sheetId="43" r:id="rId46"/>
+    <sheet name="1503040000_op-21.plm.plx.xlsx" sheetId="44" r:id="rId47"/>
+    <sheet name="2703030030_op-21.plm.plx.xlsx" sheetId="45" r:id="rId48"/>
+    <sheet name="2703040030_op-21.plm.plx.xlsx" sheetId="46" r:id="rId49"/>
+    <sheet name="2704030006_op-20.plm.plx.xlsx" sheetId="47" r:id="rId50"/>
+    <sheet name="2704030006_OP-21.plm..plx.xlsx" sheetId="48" r:id="rId51"/>
+    <sheet name="2704040001_OP-20.plm.plx.xlsx" sheetId="49" r:id="rId52"/>
+    <sheet name="2704040004_OP-20.plm.plx.xlsx" sheetId="50" r:id="rId53"/>
+    <sheet name="2704040005_OP-21.plm.plx.xlsx" sheetId="51" r:id="rId54"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -60,34 +102,451 @@
     <t>(Расш.) Кол-во дисциплин в УП</t>
   </si>
   <si>
+    <t>DOPK</t>
+  </si>
+  <si>
+    <t>DPK</t>
+  </si>
+  <si>
+    <t>ID-1OPK</t>
+  </si>
+  <si>
+    <t>ID-1PK</t>
+  </si>
+  <si>
+    <t>ID-1UK</t>
+  </si>
+  <si>
+    <t>ID-2OPK</t>
+  </si>
+  <si>
+    <t>ID-2PK</t>
+  </si>
+  <si>
+    <t>ID-2UK</t>
+  </si>
+  <si>
+    <t>ID-3OPK</t>
+  </si>
+  <si>
+    <t>ID-3PK</t>
+  </si>
+  <si>
+    <t>ID-3UK</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>OPK</t>
   </si>
   <si>
     <t>PK</t>
   </si>
   <si>
+    <t xml:space="preserve">PK </t>
+  </si>
+  <si>
+    <t>SPK</t>
+  </si>
+  <si>
     <t>UK</t>
   </si>
   <si>
+    <t>0103040030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0.000000%</t>
+  </si>
+  <si>
+    <t>44.067797%</t>
+  </si>
+  <si>
+    <t>35.593220%</t>
+  </si>
+  <si>
+    <t>20.338983%</t>
+  </si>
+  <si>
+    <t>0104020007_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>44.444444%</t>
+  </si>
+  <si>
+    <t>22.222222%</t>
+  </si>
+  <si>
+    <t>33.333333%</t>
+  </si>
+  <si>
     <t>0104020009_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>27.777778%</t>
+  </si>
+  <si>
+    <t>25.000000%</t>
+  </si>
+  <si>
+    <t>47.222222%</t>
+  </si>
+  <si>
+    <t>0104020009_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0903010030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>24.615385%</t>
+  </si>
+  <si>
+    <t>33.846154%</t>
+  </si>
+  <si>
+    <t>41.538462%</t>
+  </si>
+  <si>
+    <t>0903020030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>21.666667%</t>
+  </si>
+  <si>
+    <t>50.000000%</t>
+  </si>
+  <si>
+    <t>28.333333%</t>
+  </si>
+  <si>
+    <t>0903030031_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>34.000000%</t>
+  </si>
+  <si>
+    <t>38.000000%</t>
+  </si>
+  <si>
+    <t>28.000000%</t>
+  </si>
+  <si>
+    <t>0903030032_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>26.562500%</t>
+  </si>
+  <si>
+    <t>32.812500%</t>
+  </si>
+  <si>
+    <t>40.625000%</t>
+  </si>
+  <si>
     <t>0903030033_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>30.357143%</t>
+  </si>
+  <si>
+    <t>33.928571%</t>
+  </si>
+  <si>
+    <t>35.714286%</t>
+  </si>
+  <si>
     <t>0903030035_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>24.637681%</t>
+  </si>
+  <si>
+    <t>39.130435%</t>
+  </si>
+  <si>
+    <t>36.231884%</t>
+  </si>
+  <si>
     <t>0903040030_op-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>44.000000%</t>
+  </si>
+  <si>
+    <t>26.000000%</t>
+  </si>
+  <si>
+    <t>30.000000%</t>
+  </si>
+  <si>
     <t>0904010001_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>41.379310%</t>
+  </si>
+  <si>
+    <t>24.137931%</t>
+  </si>
+  <si>
+    <t>34.482759%</t>
+  </si>
+  <si>
     <t>0904010001_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
     <t>0904010003_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>40.000000%</t>
+  </si>
+  <si>
+    <t>26.666667%</t>
+  </si>
+  <si>
+    <t>0904010003_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>42.857143%</t>
+  </si>
+  <si>
+    <t>32.142857%</t>
+  </si>
+  <si>
+    <t>0904010004_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>14.814815%</t>
+  </si>
+  <si>
+    <t>8.641975%</t>
+  </si>
+  <si>
+    <t>9.876543%</t>
+  </si>
+  <si>
+    <t>0904010010_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>23.333333%</t>
+  </si>
+  <si>
+    <t>36.666667%</t>
+  </si>
+  <si>
+    <t>0904010010_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904010011_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>28.571429%</t>
+  </si>
+  <si>
+    <t>0904010012_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>43.478261%</t>
+  </si>
+  <si>
+    <t>26.086957%</t>
+  </si>
+  <si>
+    <t>30.434783%</t>
+  </si>
+  <si>
+    <t>0904020001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020001_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020002_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>37.931034%</t>
+  </si>
+  <si>
+    <t>31.034483%</t>
+  </si>
+  <si>
+    <t>0904020002_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020003_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>27.586207%</t>
+  </si>
+  <si>
+    <t>0904020003_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020004_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020005_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020005_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904020006_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904040001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>34.782609%</t>
+  </si>
+  <si>
+    <t>0904040002_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>38.095238%</t>
+  </si>
+  <si>
+    <t>0904040002_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0904040003_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>1003010031_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>62.121212%</t>
+  </si>
+  <si>
+    <t>10.606061%</t>
+  </si>
+  <si>
+    <t>27.272727%</t>
+  </si>
+  <si>
+    <t>1005010034_OP-21.pli.plx.xlsx</t>
+  </si>
+  <si>
+    <t>65.753425%</t>
+  </si>
+  <si>
+    <t>15.068493%</t>
+  </si>
+  <si>
+    <t>19.178082%</t>
+  </si>
+  <si>
+    <t>1005030035_OP-21.pli.plx.xlsx</t>
+  </si>
+  <si>
+    <t>62.820513%</t>
+  </si>
+  <si>
+    <t>15.384615%</t>
+  </si>
+  <si>
+    <t>21.794872%</t>
+  </si>
+  <si>
+    <t>1503040000_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>7.079646%</t>
+  </si>
+  <si>
+    <t>31.858407%</t>
+  </si>
+  <si>
+    <t>25.663717%</t>
+  </si>
+  <si>
+    <t>35.398230%</t>
+  </si>
+  <si>
+    <t>2703030030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>34.920635%</t>
+  </si>
+  <si>
+    <t>23.809524%</t>
+  </si>
+  <si>
+    <t>41.269841%</t>
+  </si>
+  <si>
+    <t>2703040030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>45.454545%</t>
+  </si>
+  <si>
+    <t>29.090909%</t>
+  </si>
+  <si>
+    <t>25.454545%</t>
+  </si>
+  <si>
+    <t>2704030006_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>31.250000%</t>
+  </si>
+  <si>
+    <t>18.750000%</t>
+  </si>
+  <si>
+    <t>2704030006_OP-21.plm..plx.xlsx</t>
+  </si>
+  <si>
+    <t>23.404255%</t>
+  </si>
+  <si>
+    <t>38.297872%</t>
+  </si>
+  <si>
+    <t>2704040001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>16.666667%</t>
+  </si>
+  <si>
+    <t>14.583333%</t>
+  </si>
+  <si>
+    <t>35.416667%</t>
+  </si>
+  <si>
+    <t>2704040004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>15.094340%</t>
+  </si>
+  <si>
+    <t>32.075472%</t>
+  </si>
+  <si>
+    <t>37.735849%</t>
+  </si>
+  <si>
+    <t>2704040005_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>8.571429%</t>
+  </si>
+  <si>
+    <t>20.000000%</t>
   </si>
 </sst>
 </file>
@@ -437,6 +896,126 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -470,131 +1049,3506 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="E2">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
         <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>339</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B8">
+        <v>244</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>252</v>
+      </c>
+      <c r="E8">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>244</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>257</v>
+      </c>
+      <c r="E9">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>242</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>255</v>
+      </c>
+      <c r="C11">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>263</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S11" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>244</v>
+      </c>
+      <c r="C12">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>293</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13">
         <v>124</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D13">
         <v>134</v>
       </c>
-      <c r="E8">
+      <c r="E13">
         <v>27</v>
       </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <v>124</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>134</v>
+      </c>
+      <c r="E15">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>124</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>134</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>124</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>133</v>
+      </c>
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>124</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>133</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>124</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>133</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" t="s">
+        <v>24</v>
+      </c>
+      <c r="V19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20">
+        <v>124</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>133</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" t="s">
+        <v>71</v>
+      </c>
+      <c r="S20" t="s">
+        <v>83</v>
+      </c>
+      <c r="T20" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" t="s">
+        <v>24</v>
+      </c>
+      <c r="V20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>124</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>133</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" t="s">
+        <v>83</v>
+      </c>
+      <c r="T21" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22">
+        <v>124</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>133</v>
+      </c>
+      <c r="E22">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" t="s">
+        <v>75</v>
+      </c>
+      <c r="S22" t="s">
+        <v>87</v>
+      </c>
+      <c r="T22" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23">
+        <v>124</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>130</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S23" t="s">
+        <v>90</v>
+      </c>
+      <c r="T23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" t="s">
+        <v>24</v>
+      </c>
+      <c r="V23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24">
+        <v>124</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>136</v>
+      </c>
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" t="s">
+        <v>75</v>
+      </c>
+      <c r="S24" t="s">
+        <v>76</v>
+      </c>
+      <c r="T24" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25">
+        <v>124</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>136</v>
+      </c>
+      <c r="E25">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" t="s">
+        <v>75</v>
+      </c>
+      <c r="S25" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" t="s">
+        <v>24</v>
+      </c>
+      <c r="V25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26">
+        <v>124</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>136</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" t="s">
+        <v>95</v>
+      </c>
+      <c r="S26" t="s">
+        <v>96</v>
+      </c>
+      <c r="T26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27">
+        <v>124</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>136</v>
+      </c>
+      <c r="E27">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" t="s">
+        <v>95</v>
+      </c>
+      <c r="S27" t="s">
+        <v>96</v>
+      </c>
+      <c r="T27" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>136</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" t="s">
+        <v>96</v>
+      </c>
+      <c r="T28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" t="s">
+        <v>24</v>
+      </c>
+      <c r="V28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>124</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>136</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" t="s">
+        <v>96</v>
+      </c>
+      <c r="T29" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30">
+        <v>124</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>136</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" t="s">
+        <v>75</v>
+      </c>
+      <c r="S30" t="s">
+        <v>76</v>
+      </c>
+      <c r="T30" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" t="s">
+        <v>24</v>
+      </c>
+      <c r="V30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>136</v>
+      </c>
+      <c r="E31">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" t="s">
+        <v>75</v>
+      </c>
+      <c r="S31" t="s">
+        <v>76</v>
+      </c>
+      <c r="T31" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31" t="s">
+        <v>24</v>
+      </c>
+      <c r="V31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32">
+        <v>124</v>
+      </c>
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>136</v>
+      </c>
+      <c r="E32">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" t="s">
+        <v>75</v>
+      </c>
+      <c r="S32" t="s">
+        <v>76</v>
+      </c>
+      <c r="T32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32" t="s">
+        <v>24</v>
+      </c>
+      <c r="V32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33">
+        <v>124</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>136</v>
+      </c>
+      <c r="E33">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" t="s">
+        <v>75</v>
+      </c>
+      <c r="S33" t="s">
+        <v>76</v>
+      </c>
+      <c r="T33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" t="s">
+        <v>24</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34">
+        <v>124</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>136</v>
+      </c>
+      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" t="s">
+        <v>75</v>
+      </c>
+      <c r="S34" t="s">
+        <v>76</v>
+      </c>
+      <c r="T34" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34" t="s">
+        <v>24</v>
+      </c>
+      <c r="V34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35">
+        <v>124</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>136</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" t="s">
+        <v>75</v>
+      </c>
+      <c r="S35" t="s">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" t="s">
+        <v>24</v>
+      </c>
+      <c r="V35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36">
+        <v>124</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>137</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" t="s">
+        <v>108</v>
+      </c>
+      <c r="S36" t="s">
+        <v>91</v>
+      </c>
+      <c r="T36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36" t="s">
+        <v>24</v>
+      </c>
+      <c r="V36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37">
+        <v>124</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>137</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>110</v>
+      </c>
+      <c r="S37" t="s">
+        <v>87</v>
+      </c>
+      <c r="T37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37" t="s">
+        <v>24</v>
+      </c>
+      <c r="V37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38">
+        <v>124</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>137</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" t="s">
+        <v>110</v>
+      </c>
+      <c r="S38" t="s">
+        <v>87</v>
+      </c>
+      <c r="T38" t="s">
+        <v>24</v>
+      </c>
+      <c r="U38" t="s">
+        <v>24</v>
+      </c>
+      <c r="V38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39">
+        <v>124</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>128</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" t="s">
+        <v>108</v>
+      </c>
+      <c r="S39" t="s">
+        <v>59</v>
+      </c>
+      <c r="T39" t="s">
+        <v>24</v>
+      </c>
+      <c r="U39" t="s">
+        <v>24</v>
+      </c>
+      <c r="V39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40">
+        <v>244</v>
+      </c>
+      <c r="C40">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>250</v>
+      </c>
+      <c r="E40">
+        <v>61</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" t="s">
+        <v>114</v>
+      </c>
+      <c r="S40" t="s">
+        <v>115</v>
+      </c>
+      <c r="T40" t="s">
+        <v>24</v>
+      </c>
+      <c r="U40" t="s">
+        <v>24</v>
+      </c>
+      <c r="V40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <v>334</v>
+      </c>
+      <c r="C41">
+        <v>71</v>
+      </c>
+      <c r="D41">
+        <v>340</v>
+      </c>
+      <c r="E41">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" t="s">
+        <v>118</v>
+      </c>
+      <c r="S41" t="s">
+        <v>119</v>
+      </c>
+      <c r="T41" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" t="s">
+        <v>24</v>
+      </c>
+      <c r="V41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42">
+        <v>334</v>
+      </c>
+      <c r="C42">
+        <v>72</v>
+      </c>
+      <c r="D42">
+        <v>340</v>
+      </c>
+      <c r="E42">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" t="s">
+        <v>122</v>
+      </c>
+      <c r="S42" t="s">
+        <v>123</v>
+      </c>
+      <c r="T42" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42" t="s">
+        <v>24</v>
+      </c>
+      <c r="V42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43">
+        <v>244</v>
+      </c>
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>276</v>
+      </c>
+      <c r="E43">
+        <v>58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>127</v>
+      </c>
+      <c r="R43" t="s">
+        <v>128</v>
+      </c>
+      <c r="S43" t="s">
+        <v>129</v>
+      </c>
+      <c r="T43" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43" t="s">
+        <v>24</v>
+      </c>
+      <c r="V43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44">
+        <v>245</v>
+      </c>
+      <c r="C44">
+        <v>51</v>
+      </c>
+      <c r="D44">
+        <v>265</v>
+      </c>
+      <c r="E44">
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" t="s">
+        <v>131</v>
+      </c>
+      <c r="S44" t="s">
+        <v>132</v>
+      </c>
+      <c r="T44" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" t="s">
+        <v>24</v>
+      </c>
+      <c r="V44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45">
+        <v>244</v>
+      </c>
+      <c r="C45">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>259</v>
+      </c>
+      <c r="E45">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" t="s">
+        <v>135</v>
+      </c>
+      <c r="S45" t="s">
+        <v>136</v>
+      </c>
+      <c r="T45" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45" t="s">
+        <v>24</v>
+      </c>
+      <c r="V45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46">
+        <v>125</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>138</v>
+      </c>
+      <c r="E46">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>34</v>
+      </c>
+      <c r="R46" t="s">
+        <v>34</v>
+      </c>
+      <c r="S46" t="s">
+        <v>139</v>
+      </c>
+      <c r="T46" t="s">
+        <v>24</v>
+      </c>
+      <c r="U46" t="s">
+        <v>140</v>
+      </c>
+      <c r="V46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47">
+        <v>125</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>131</v>
+      </c>
+      <c r="E47">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" t="s">
+        <v>142</v>
+      </c>
+      <c r="S47" t="s">
+        <v>143</v>
+      </c>
+      <c r="T47" t="s">
+        <v>24</v>
+      </c>
+      <c r="U47" t="s">
+        <v>24</v>
+      </c>
+      <c r="V47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48">
+        <v>124</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>149</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>146</v>
+      </c>
+      <c r="R48" t="s">
+        <v>31</v>
+      </c>
+      <c r="S48" t="s">
+        <v>147</v>
+      </c>
+      <c r="T48" t="s">
+        <v>24</v>
+      </c>
+      <c r="U48" t="s">
+        <v>24</v>
+      </c>
+      <c r="V48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49">
+        <v>124</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>146</v>
+      </c>
+      <c r="E49">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>149</v>
+      </c>
+      <c r="R49" t="s">
+        <v>150</v>
+      </c>
+      <c r="S49" t="s">
+        <v>151</v>
+      </c>
+      <c r="T49" t="s">
+        <v>24</v>
+      </c>
+      <c r="U49" t="s">
+        <v>24</v>
+      </c>
+      <c r="V49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50">
+        <v>124</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>142</v>
+      </c>
+      <c r="E50">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" t="s">
+        <v>24</v>
+      </c>
+      <c r="P50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" t="s">
+        <v>87</v>
+      </c>
+      <c r="S50" t="s">
+        <v>75</v>
+      </c>
+      <c r="T50" t="s">
+        <v>153</v>
+      </c>
+      <c r="U50" t="s">
+        <v>24</v>
+      </c>
+      <c r="V50" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -607,6 +4561,126 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -619,6 +4693,126 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -631,6 +4825,30 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -156,7 +156,19 @@
     <t>0103040030_op-21.plm.plx.xlsx</t>
   </si>
   <si>
-    <t>0.000000%</t>
+    <t>244.000000</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>261.000000</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>44.067797%</t>
@@ -171,6 +183,18 @@
     <t>0104020007_op-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>124.000000</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>136.000000</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>44.444444%</t>
   </si>
   <si>
@@ -183,6 +207,15 @@
     <t>0104020009_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>130.000000</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>27.777778%</t>
   </si>
   <si>
@@ -198,6 +231,15 @@
     <t>0903010030_op-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>265.000000</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>24.615385%</t>
   </si>
   <si>
@@ -210,6 +252,15 @@
     <t>0903020030_op-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>246.000000</t>
+  </si>
+  <si>
+    <t>339.000000</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>21.666667%</t>
   </si>
   <si>
@@ -222,6 +273,15 @@
     <t>0903030031_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>252.000000</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>34.000000%</t>
   </si>
   <si>
@@ -234,6 +294,15 @@
     <t>0903030032_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>257.000000</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>26.562500%</t>
   </si>
   <si>
@@ -246,6 +315,15 @@
     <t>0903030033_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>242.000000</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>250.000000</t>
+  </si>
+  <si>
     <t>30.357143%</t>
   </si>
   <si>
@@ -258,6 +336,15 @@
     <t>0903030035_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>255.000000</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>263.000000</t>
+  </si>
+  <si>
     <t>24.637681%</t>
   </si>
   <si>
@@ -270,6 +357,9 @@
     <t>0903040030_op-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>293.000000</t>
+  </si>
+  <si>
     <t>44.000000%</t>
   </si>
   <si>
@@ -282,6 +372,12 @@
     <t>0904010001_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>134.000000</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>41.379310%</t>
   </si>
   <si>
@@ -309,6 +405,9 @@
     <t>0904010004_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>133.000000</t>
+  </si>
+  <si>
     <t>42.857143%</t>
   </si>
   <si>
@@ -345,12 +444,24 @@
     <t>0904010011_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>28.571429%</t>
   </si>
   <si>
     <t>0904010012_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>43.478261%</t>
   </si>
   <si>
@@ -408,6 +519,12 @@
     <t>0904040001_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>137.000000</t>
+  </si>
+  <si>
     <t>34.782609%</t>
   </si>
   <si>
@@ -423,9 +540,15 @@
     <t>0904040003_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>128.000000</t>
+  </si>
+  <si>
     <t>1003010031_op-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>62.121212%</t>
   </si>
   <si>
@@ -438,6 +561,18 @@
     <t>1005010034_OP-21.pli.plx.xlsx</t>
   </si>
   <si>
+    <t>334.000000</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>340.000000</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>65.753425%</t>
   </si>
   <si>
@@ -450,6 +585,12 @@
     <t>1005030035_OP-21.pli.plx.xlsx</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>62.820513%</t>
   </si>
   <si>
@@ -462,6 +603,12 @@
     <t>1503040000_op-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>276.000000</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>7.079646%</t>
   </si>
   <si>
@@ -477,6 +624,12 @@
     <t>2703030030_op-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>245.000000</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>34.920635%</t>
   </si>
   <si>
@@ -489,6 +642,9 @@
     <t>2703040030_op-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>259.000000</t>
+  </si>
+  <si>
     <t>45.454545%</t>
   </si>
   <si>
@@ -501,6 +657,15 @@
     <t>2704030006_op-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>125.000000</t>
+  </si>
+  <si>
+    <t>138.000000</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>31.250000%</t>
   </si>
   <si>
@@ -510,6 +675,9 @@
     <t>2704030006_OP-21.plm..plx.xlsx</t>
   </si>
   <si>
+    <t>131.000000</t>
+  </si>
+  <si>
     <t>23.404255%</t>
   </si>
   <si>
@@ -519,6 +687,9 @@
     <t>2704040001_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>149.000000</t>
+  </si>
+  <si>
     <t>16.666667%</t>
   </si>
   <si>
@@ -531,6 +702,9 @@
     <t>2704040004_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>146.000000</t>
+  </si>
+  <si>
     <t>15.094340%</t>
   </si>
   <si>
@@ -543,10 +717,91 @@
     <t>2704040005_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>142.000000</t>
+  </si>
+  <si>
     <t>8.571429%</t>
   </si>
   <si>
     <t>20.000000%</t>
+  </si>
+  <si>
+    <t>Максимальные значения:</t>
+  </si>
+  <si>
+    <t>334.000000 у УП 1005010034_OP-21.pli.plx.xlsx</t>
+  </si>
+  <si>
+    <t>72.000000 у УП 1005030035_OP-21.pli.plx.xlsx</t>
+  </si>
+  <si>
+    <t>340.000000 у УП 1005010034_OP-21.pli.plx.xlsx</t>
+  </si>
+  <si>
+    <t>83.000000 у УП 0903020030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>7.079646 у УП 1503040000_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>16.666667 у УП 2704040001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>14.814815 у УП 0904010006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>8.641975 у УП 0904010006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>9.876543 у УП 0904010006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>31.858407 у УП 1503040000_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>65.753425 у УП 1005010034_OP-21.pli.plx.xlsx</t>
+  </si>
+  <si>
+    <t>50.000000 у УП 0903020030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>8.571429 у УП 2704040005_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>18.750000 у УП 2704030006_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>47.222222 у УП 0104020009_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>Минимальные значения:</t>
+  </si>
+  <si>
+    <t>124.000000 у УП 0104020007_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>17.000000 у УП 0104020007_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>128.000000 у УП 0904040003_OP-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>20.000000 у УП 0104020007_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>15.094340 у УП 2704040004_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>14.583333 у УП 2704040001_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>21.666667 у УП 0903020030_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>10.606061 у УП 1003010031_op-21.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>19.178082 у УП 1005010034_OP-21.pli.plx.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1096,3332 +1351,3468 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>244</v>
-      </c>
-      <c r="C2">
-        <v>59</v>
-      </c>
-      <c r="D2">
-        <v>261</v>
-      </c>
-      <c r="E2">
-        <v>63</v>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>124</v>
-      </c>
-      <c r="C3">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>136</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>124</v>
-      </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>130</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>124</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>130</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>244</v>
-      </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
-      <c r="D6">
-        <v>265</v>
-      </c>
-      <c r="E6">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>246</v>
-      </c>
-      <c r="C7">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
         <v>59</v>
       </c>
-      <c r="D7">
-        <v>339</v>
-      </c>
-      <c r="E7">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>244</v>
-      </c>
-      <c r="C8">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>252</v>
-      </c>
-      <c r="E8">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="T8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
-        <v>244</v>
-      </c>
-      <c r="C9">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>257</v>
-      </c>
-      <c r="E9">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V9" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>242</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>250</v>
-      </c>
-      <c r="E10">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11">
-        <v>255</v>
-      </c>
-      <c r="C11">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>263</v>
-      </c>
-      <c r="E11">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="S11" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="T11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12">
-        <v>244</v>
-      </c>
-      <c r="C12">
-        <v>53</v>
-      </c>
-      <c r="D12">
-        <v>293</v>
-      </c>
-      <c r="E12">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R12" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="S12" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="T12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V12" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13">
-        <v>124</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>134</v>
-      </c>
-      <c r="E13">
-        <v>27</v>
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R13" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="S13" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="T13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V13" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14">
-        <v>124</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>134</v>
-      </c>
-      <c r="E14">
-        <v>27</v>
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R14" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="S14" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="T14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V14" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15">
-        <v>124</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>134</v>
-      </c>
-      <c r="E15">
-        <v>27</v>
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R15" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="S15" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="T15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16">
-        <v>124</v>
-      </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>134</v>
-      </c>
-      <c r="E16">
-        <v>27</v>
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R16" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="S16" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="T16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17">
-        <v>124</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>133</v>
-      </c>
-      <c r="E17">
-        <v>27</v>
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R17" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V17" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18">
-        <v>124</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>133</v>
-      </c>
-      <c r="E18">
-        <v>27</v>
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R18" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S18" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V18" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19">
-        <v>124</v>
-      </c>
-      <c r="C19">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>133</v>
-      </c>
-      <c r="E19">
-        <v>27</v>
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="N19" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="P19" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Q19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="T19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20">
-        <v>124</v>
-      </c>
-      <c r="C20">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>133</v>
-      </c>
-      <c r="E20">
-        <v>27</v>
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R20" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="S20" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="T20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V20" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21">
-        <v>124</v>
-      </c>
-      <c r="C21">
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <v>133</v>
-      </c>
-      <c r="E21">
-        <v>27</v>
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R21" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="S21" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="T21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22">
-        <v>124</v>
-      </c>
-      <c r="C22">
-        <v>26</v>
-      </c>
-      <c r="D22">
-        <v>133</v>
-      </c>
-      <c r="E22">
-        <v>28</v>
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R22" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S22" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="T22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V22" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
         <v>124</v>
       </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>130</v>
-      </c>
-      <c r="E23">
-        <v>24</v>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R23" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="S23" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="T23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V23" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24">
-        <v>124</v>
-      </c>
-      <c r="C24">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>136</v>
-      </c>
-      <c r="E24">
-        <v>28</v>
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R24" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S24" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="T24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V24" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25">
-        <v>124</v>
-      </c>
-      <c r="C25">
-        <v>26</v>
-      </c>
-      <c r="D25">
-        <v>136</v>
-      </c>
-      <c r="E25">
-        <v>28</v>
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R25" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S25" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="T25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V25" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26">
-        <v>124</v>
-      </c>
-      <c r="C26">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>136</v>
-      </c>
-      <c r="E26">
-        <v>28</v>
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R26" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="S26" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="T26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V26" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27">
-        <v>124</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>136</v>
-      </c>
-      <c r="E27">
-        <v>28</v>
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R27" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="S27" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="T27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V27" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" t="s">
         <v>98</v>
       </c>
-      <c r="B28">
-        <v>124</v>
-      </c>
-      <c r="C28">
-        <v>26</v>
-      </c>
-      <c r="D28">
+      <c r="S28" t="s">
+        <v>133</v>
+      </c>
+      <c r="T28" t="s">
+        <v>28</v>
+      </c>
+      <c r="U28" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" t="s">
         <v>136</v>
-      </c>
-      <c r="E28">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" t="s">
-        <v>66</v>
-      </c>
-      <c r="S28" t="s">
-        <v>96</v>
-      </c>
-      <c r="T28" t="s">
-        <v>24</v>
-      </c>
-      <c r="U28" t="s">
-        <v>24</v>
-      </c>
-      <c r="V28" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29">
-        <v>124</v>
-      </c>
-      <c r="C29">
-        <v>26</v>
-      </c>
-      <c r="D29">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>28</v>
+      </c>
+      <c r="R29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S29" t="s">
+        <v>133</v>
+      </c>
+      <c r="T29" t="s">
+        <v>28</v>
+      </c>
+      <c r="U29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V29" t="s">
         <v>136</v>
-      </c>
-      <c r="E29">
-        <v>28</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" t="s">
-        <v>66</v>
-      </c>
-      <c r="S29" t="s">
-        <v>96</v>
-      </c>
-      <c r="T29" t="s">
-        <v>24</v>
-      </c>
-      <c r="U29" t="s">
-        <v>24</v>
-      </c>
-      <c r="V29" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30">
-        <v>124</v>
-      </c>
-      <c r="C30">
-        <v>26</v>
-      </c>
-      <c r="D30">
-        <v>136</v>
-      </c>
-      <c r="E30">
-        <v>28</v>
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R30" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S30" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="T30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V30" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31">
-        <v>124</v>
-      </c>
-      <c r="C31">
-        <v>26</v>
-      </c>
-      <c r="D31">
-        <v>136</v>
-      </c>
-      <c r="E31">
-        <v>28</v>
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R31" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S31" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="T31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32">
-        <v>124</v>
-      </c>
-      <c r="C32">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>136</v>
-      </c>
-      <c r="E32">
-        <v>28</v>
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R32" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S32" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="T32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V32" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33">
-        <v>124</v>
-      </c>
-      <c r="C33">
-        <v>26</v>
-      </c>
-      <c r="D33">
-        <v>136</v>
-      </c>
-      <c r="E33">
-        <v>28</v>
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R33" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S33" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="T33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V33" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34">
-        <v>124</v>
-      </c>
-      <c r="C34">
-        <v>26</v>
-      </c>
-      <c r="D34">
-        <v>136</v>
-      </c>
-      <c r="E34">
-        <v>28</v>
+        <v>142</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R34" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S34" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="T34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V34" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35">
-        <v>124</v>
-      </c>
-      <c r="C35">
-        <v>26</v>
-      </c>
-      <c r="D35">
-        <v>136</v>
-      </c>
-      <c r="E35">
-        <v>28</v>
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R35" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S35" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="T35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V35" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36">
-        <v>124</v>
-      </c>
-      <c r="C36">
-        <v>21</v>
-      </c>
-      <c r="D36">
-        <v>137</v>
-      </c>
-      <c r="E36">
-        <v>23</v>
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R36" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="S36" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="T36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V36" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
         <v>124</v>
       </c>
-      <c r="C37">
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <v>137</v>
-      </c>
-      <c r="E37">
-        <v>22</v>
-      </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R37" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="S37" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="T37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V37" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
         <v>124</v>
       </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-      <c r="D38">
-        <v>137</v>
-      </c>
-      <c r="E38">
-        <v>22</v>
-      </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R38" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="S38" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="T38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
         <v>124</v>
       </c>
-      <c r="C39">
-        <v>22</v>
-      </c>
-      <c r="D39">
-        <v>128</v>
-      </c>
-      <c r="E39">
-        <v>23</v>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R39" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="S39" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="T39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V39" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40">
-        <v>244</v>
-      </c>
-      <c r="C40">
-        <v>59</v>
-      </c>
-      <c r="D40">
-        <v>250</v>
-      </c>
-      <c r="E40">
-        <v>61</v>
+        <v>153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R40" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="S40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="T40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V40" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41">
-        <v>334</v>
-      </c>
-      <c r="C41">
-        <v>71</v>
-      </c>
-      <c r="D41">
-        <v>340</v>
-      </c>
-      <c r="E41">
-        <v>73</v>
+        <v>158</v>
+      </c>
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
+        <v>162</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R41" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="S41" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="T41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V41" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42">
-        <v>334</v>
-      </c>
-      <c r="C42">
-        <v>72</v>
-      </c>
-      <c r="D42">
-        <v>340</v>
-      </c>
-      <c r="E42">
-        <v>74</v>
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" t="s">
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R42" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="S42" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="T42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V42" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43">
-        <v>244</v>
-      </c>
-      <c r="C43">
-        <v>52</v>
-      </c>
-      <c r="D43">
-        <v>276</v>
-      </c>
-      <c r="E43">
-        <v>58</v>
+        <v>172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q43" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="R43" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="S43" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="T43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44">
-        <v>245</v>
-      </c>
-      <c r="C44">
-        <v>51</v>
-      </c>
-      <c r="D44">
-        <v>265</v>
-      </c>
-      <c r="E44">
-        <v>54</v>
+        <v>179</v>
+      </c>
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R44" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="S44" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="T44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V44" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45">
-        <v>244</v>
-      </c>
-      <c r="C45">
-        <v>51</v>
-      </c>
-      <c r="D45">
-        <v>259</v>
-      </c>
-      <c r="E45">
-        <v>54</v>
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R45" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="S45" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="T45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V45" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46">
+        <v>190</v>
+      </c>
+      <c r="B46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" t="s">
         <v>125</v>
       </c>
-      <c r="C46">
-        <v>24</v>
-      </c>
-      <c r="D46">
-        <v>138</v>
-      </c>
-      <c r="E46">
-        <v>29</v>
+      <c r="D46" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q46" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="T46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U46" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="V46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47">
-        <v>125</v>
-      </c>
-      <c r="C47">
-        <v>27</v>
-      </c>
-      <c r="D47">
-        <v>131</v>
-      </c>
-      <c r="E47">
-        <v>28</v>
+        <v>196</v>
+      </c>
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>121</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R47" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="S47" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="T47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V47" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48">
-        <v>124</v>
-      </c>
-      <c r="C48">
-        <v>20</v>
-      </c>
-      <c r="D48">
-        <v>149</v>
-      </c>
-      <c r="E48">
-        <v>25</v>
+        <v>200</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q48" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="R48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S48" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="T48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49">
-        <v>124</v>
-      </c>
-      <c r="C49">
-        <v>21</v>
-      </c>
-      <c r="D49">
-        <v>146</v>
-      </c>
-      <c r="E49">
-        <v>26</v>
+        <v>205</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q49" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="R49" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="S49" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="T49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50">
-        <v>124</v>
-      </c>
-      <c r="C50">
-        <v>25</v>
-      </c>
-      <c r="D50">
-        <v>142</v>
-      </c>
-      <c r="E50">
-        <v>29</v>
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" t="s">
+        <v>193</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R50" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="S50" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="T50" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="U50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V50" t="s">
-        <v>154</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H51" t="s">
+        <v>221</v>
+      </c>
+      <c r="I51" t="s">
+        <v>222</v>
+      </c>
+      <c r="J51" t="s">
+        <v>223</v>
+      </c>
+      <c r="K51" t="s">
+        <v>221</v>
+      </c>
+      <c r="L51" t="s">
+        <v>222</v>
+      </c>
+      <c r="M51" t="s">
+        <v>223</v>
+      </c>
+      <c r="N51" t="s">
+        <v>221</v>
+      </c>
+      <c r="O51" t="s">
+        <v>222</v>
+      </c>
+      <c r="P51" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>224</v>
+      </c>
+      <c r="R51" t="s">
+        <v>225</v>
+      </c>
+      <c r="S51" t="s">
+        <v>226</v>
+      </c>
+      <c r="T51" t="s">
+        <v>227</v>
+      </c>
+      <c r="U51" t="s">
+        <v>228</v>
+      </c>
+      <c r="V51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" t="s">
+        <v>219</v>
+      </c>
+      <c r="G52" t="s">
+        <v>235</v>
+      </c>
+      <c r="H52" t="s">
+        <v>221</v>
+      </c>
+      <c r="I52" t="s">
+        <v>222</v>
+      </c>
+      <c r="J52" t="s">
+        <v>223</v>
+      </c>
+      <c r="K52" t="s">
+        <v>221</v>
+      </c>
+      <c r="L52" t="s">
+        <v>222</v>
+      </c>
+      <c r="M52" t="s">
+        <v>223</v>
+      </c>
+      <c r="N52" t="s">
+        <v>221</v>
+      </c>
+      <c r="O52" t="s">
+        <v>222</v>
+      </c>
+      <c r="P52" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>236</v>
+      </c>
+      <c r="R52" t="s">
+        <v>237</v>
+      </c>
+      <c r="S52" t="s">
+        <v>238</v>
+      </c>
+      <c r="T52" t="s">
+        <v>227</v>
+      </c>
+      <c r="U52" t="s">
+        <v>228</v>
+      </c>
+      <c r="V52" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -144,9 +144,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t xml:space="preserve">PK </t>
-  </si>
-  <si>
     <t>SPK</t>
   </si>
   <si>
@@ -720,10 +717,10 @@
     <t>142.000000</t>
   </si>
   <si>
-    <t>8.571429%</t>
-  </si>
-  <si>
-    <t>20.000000%</t>
+    <t>46.875000%</t>
+  </si>
+  <si>
+    <t>21.875000%</t>
   </si>
   <si>
     <t>Максимальные значения:</t>
@@ -763,9 +760,6 @@
   </si>
   <si>
     <t>50.000000 у УП 0903020030_op-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>8.571429 у УП 2704040005_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
     <t>18.750000 у УП 2704030006_op-20.plm.plx.xlsx</t>
@@ -1343,3476 +1337,3320 @@
       <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
         <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>37</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
         <v>38</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>44</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
         <v>45</v>
-      </c>
-      <c r="T4" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>44</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
         <v>45</v>
-      </c>
-      <c r="T5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>52</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
         <v>53</v>
-      </c>
-      <c r="T6" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>59</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
         <v>60</v>
-      </c>
-      <c r="T7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
         <v>65</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>66</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
         <v>67</v>
-      </c>
-      <c r="T8" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>71</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
         <v>72</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>73</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
         <v>74</v>
-      </c>
-      <c r="T9" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>78</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
         <v>79</v>
       </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>80</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
         <v>81</v>
-      </c>
-      <c r="T10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>85</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
         <v>86</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>87</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
         <v>88</v>
-      </c>
-      <c r="T11" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
         <v>91</v>
       </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>92</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
         <v>93</v>
-      </c>
-      <c r="T12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
         <v>95</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>96</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>98</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
         <v>99</v>
-      </c>
-      <c r="T13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
         <v>96</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
         <v>97</v>
       </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>98</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" t="s">
         <v>99</v>
-      </c>
-      <c r="T14" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
         <v>102</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>103</v>
       </c>
-      <c r="S15" t="s">
-        <v>104</v>
-      </c>
       <c r="T15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
         <v>96</v>
       </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R16" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" t="s">
         <v>103</v>
       </c>
-      <c r="S16" t="s">
-        <v>104</v>
-      </c>
       <c r="T16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U16" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
         <v>106</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
         <v>107</v>
       </c>
-      <c r="E17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
         <v>108</v>
-      </c>
-      <c r="S17" t="s">
-        <v>45</v>
-      </c>
-      <c r="T17" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
         <v>107</v>
       </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
         <v>108</v>
-      </c>
-      <c r="S18" t="s">
-        <v>45</v>
-      </c>
-      <c r="T18" t="s">
-        <v>28</v>
-      </c>
-      <c r="U18" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
         <v>111</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>112</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>113</v>
       </c>
-      <c r="J19" t="s">
-        <v>114</v>
-      </c>
       <c r="K19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" t="s">
         <v>112</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>113</v>
       </c>
-      <c r="M19" t="s">
-        <v>114</v>
-      </c>
       <c r="N19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" t="s">
         <v>112</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>113</v>
       </c>
-      <c r="P19" t="s">
-        <v>114</v>
-      </c>
       <c r="Q19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>102</v>
+      </c>
+      <c r="S20" t="s">
         <v>115</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" t="s">
-        <v>103</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" t="s">
         <v>116</v>
-      </c>
-      <c r="T20" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S21" t="s">
+        <v>115</v>
+      </c>
+      <c r="T21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" t="s">
         <v>116</v>
-      </c>
-      <c r="T21" t="s">
-        <v>28</v>
-      </c>
-      <c r="U21" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
         <v>119</v>
       </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
         <v>120</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
         <v>107</v>
       </c>
-      <c r="E22" t="s">
+      <c r="S22" t="s">
         <v>121</v>
       </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" t="s">
-        <v>108</v>
-      </c>
-      <c r="S22" t="s">
-        <v>122</v>
-      </c>
       <c r="T22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U22" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
         <v>123</v>
       </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
         <v>124</v>
       </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
         <v>125</v>
       </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>126</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" t="s">
         <v>127</v>
-      </c>
-      <c r="T23" t="s">
-        <v>28</v>
-      </c>
-      <c r="U23" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
         <v>120</v>
       </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>121</v>
-      </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R24" t="s">
+        <v>107</v>
+      </c>
+      <c r="S24" t="s">
         <v>108</v>
       </c>
-      <c r="S24" t="s">
-        <v>109</v>
-      </c>
       <c r="T24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U24" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
         <v>120</v>
       </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>121</v>
-      </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R25" t="s">
+        <v>107</v>
+      </c>
+      <c r="S25" t="s">
         <v>108</v>
       </c>
-      <c r="S25" t="s">
-        <v>109</v>
-      </c>
       <c r="T25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U25" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
         <v>131</v>
       </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>132</v>
       </c>
-      <c r="S26" t="s">
-        <v>133</v>
-      </c>
       <c r="T26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U26" t="s">
-        <v>28</v>
-      </c>
-      <c r="V26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
         <v>120</v>
       </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>121</v>
-      </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R27" t="s">
+        <v>131</v>
+      </c>
+      <c r="S27" t="s">
         <v>132</v>
       </c>
-      <c r="S27" t="s">
-        <v>133</v>
-      </c>
       <c r="T27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U27" t="s">
-        <v>28</v>
-      </c>
-      <c r="V27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>97</v>
+      </c>
+      <c r="S28" t="s">
+        <v>132</v>
+      </c>
+      <c r="T28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" t="s">
         <v>135</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O28" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>28</v>
-      </c>
-      <c r="R28" t="s">
-        <v>98</v>
-      </c>
-      <c r="S28" t="s">
-        <v>133</v>
-      </c>
-      <c r="T28" t="s">
-        <v>28</v>
-      </c>
-      <c r="U28" t="s">
-        <v>28</v>
-      </c>
-      <c r="V28" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
         <v>120</v>
       </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>121</v>
-      </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U29" t="s">
-        <v>28</v>
-      </c>
-      <c r="V29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
         <v>120</v>
       </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>121</v>
-      </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R30" t="s">
+        <v>107</v>
+      </c>
+      <c r="S30" t="s">
         <v>108</v>
       </c>
-      <c r="S30" t="s">
-        <v>109</v>
-      </c>
       <c r="T30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U30" t="s">
-        <v>28</v>
-      </c>
-      <c r="V30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
         <v>120</v>
       </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>121</v>
-      </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R31" t="s">
+        <v>107</v>
+      </c>
+      <c r="S31" t="s">
         <v>108</v>
       </c>
-      <c r="S31" t="s">
-        <v>109</v>
-      </c>
       <c r="T31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U31" t="s">
-        <v>28</v>
-      </c>
-      <c r="V31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>121</v>
-      </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R32" t="s">
+        <v>107</v>
+      </c>
+      <c r="S32" t="s">
         <v>108</v>
       </c>
-      <c r="S32" t="s">
-        <v>109</v>
-      </c>
       <c r="T32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U32" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
         <v>120</v>
       </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>121</v>
-      </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R33" t="s">
+        <v>107</v>
+      </c>
+      <c r="S33" t="s">
         <v>108</v>
       </c>
-      <c r="S33" t="s">
-        <v>109</v>
-      </c>
       <c r="T33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U33" t="s">
-        <v>28</v>
-      </c>
-      <c r="V33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
         <v>120</v>
       </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R34" t="s">
+        <v>107</v>
+      </c>
+      <c r="S34" t="s">
         <v>108</v>
       </c>
-      <c r="S34" t="s">
-        <v>109</v>
-      </c>
       <c r="T34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U34" t="s">
-        <v>28</v>
-      </c>
-      <c r="V34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
         <v>120</v>
       </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>121</v>
-      </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R35" t="s">
+        <v>107</v>
+      </c>
+      <c r="S35" t="s">
         <v>108</v>
       </c>
-      <c r="S35" t="s">
-        <v>109</v>
-      </c>
       <c r="T35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U35" t="s">
-        <v>28</v>
-      </c>
-      <c r="V35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
         <v>144</v>
       </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>145</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" t="s">
         <v>146</v>
       </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P36" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>28</v>
-      </c>
-      <c r="R36" t="s">
-        <v>147</v>
-      </c>
       <c r="S36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U36" t="s">
-        <v>28</v>
-      </c>
-      <c r="V36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" t="s">
         <v>148</v>
       </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" t="s">
-        <v>28</v>
-      </c>
-      <c r="P37" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>28</v>
-      </c>
-      <c r="R37" t="s">
-        <v>149</v>
-      </c>
       <c r="S37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U37" t="s">
-        <v>28</v>
-      </c>
-      <c r="V37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U38" t="s">
-        <v>28</v>
-      </c>
-      <c r="V38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
         <v>151</v>
       </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" t="s">
-        <v>152</v>
-      </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U39" t="s">
-        <v>28</v>
-      </c>
-      <c r="V39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
         <v>153</v>
       </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+      <c r="R40" t="s">
         <v>154</v>
       </c>
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M40" t="s">
-        <v>28</v>
-      </c>
-      <c r="N40" t="s">
-        <v>28</v>
-      </c>
-      <c r="O40" t="s">
-        <v>28</v>
-      </c>
-      <c r="P40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>28</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>155</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
+        <v>27</v>
+      </c>
+      <c r="U40" t="s">
         <v>156</v>
-      </c>
-      <c r="T40" t="s">
-        <v>28</v>
-      </c>
-      <c r="U40" t="s">
-        <v>28</v>
-      </c>
-      <c r="V40" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
         <v>158</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>159</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>160</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>161</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" t="s">
         <v>162</v>
       </c>
-      <c r="F41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" t="s">
-        <v>28</v>
-      </c>
-      <c r="N41" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" t="s">
-        <v>28</v>
-      </c>
-      <c r="P41" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>28</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>163</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
+        <v>27</v>
+      </c>
+      <c r="U41" t="s">
         <v>164</v>
-      </c>
-      <c r="T41" t="s">
-        <v>28</v>
-      </c>
-      <c r="U41" t="s">
-        <v>28</v>
-      </c>
-      <c r="V41" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
         <v>166</v>
       </c>
-      <c r="B42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" t="s">
         <v>167</v>
       </c>
-      <c r="D42" t="s">
-        <v>161</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+      <c r="R42" t="s">
         <v>168</v>
       </c>
-      <c r="F42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" t="s">
-        <v>28</v>
-      </c>
-      <c r="M42" t="s">
-        <v>28</v>
-      </c>
-      <c r="N42" t="s">
-        <v>28</v>
-      </c>
-      <c r="O42" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>28</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>169</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
+        <v>27</v>
+      </c>
+      <c r="U42" t="s">
         <v>170</v>
-      </c>
-      <c r="T42" t="s">
-        <v>28</v>
-      </c>
-      <c r="U42" t="s">
-        <v>28</v>
-      </c>
-      <c r="V42" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" t="s">
         <v>172</v>
       </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>173</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>174</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" t="s">
         <v>175</v>
       </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" t="s">
-        <v>28</v>
-      </c>
-      <c r="N43" t="s">
-        <v>28</v>
-      </c>
-      <c r="O43" t="s">
-        <v>28</v>
-      </c>
-      <c r="P43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>176</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>177</v>
       </c>
-      <c r="S43" t="s">
-        <v>178</v>
-      </c>
       <c r="T43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U43" t="s">
-        <v>28</v>
-      </c>
-      <c r="V43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
         <v>179</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
         <v>180</v>
       </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" t="s">
         <v>181</v>
       </c>
-      <c r="F44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" t="s">
-        <v>28</v>
-      </c>
-      <c r="N44" t="s">
-        <v>28</v>
-      </c>
-      <c r="O44" t="s">
-        <v>28</v>
-      </c>
-      <c r="P44" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>28</v>
-      </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>182</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
+        <v>27</v>
+      </c>
+      <c r="U44" t="s">
         <v>183</v>
-      </c>
-      <c r="T44" t="s">
-        <v>28</v>
-      </c>
-      <c r="U44" t="s">
-        <v>28</v>
-      </c>
-      <c r="V44" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
         <v>185</v>
       </c>
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" t="s">
         <v>186</v>
       </c>
-      <c r="E45" t="s">
-        <v>181</v>
-      </c>
-      <c r="F45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" t="s">
-        <v>28</v>
-      </c>
-      <c r="N45" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" t="s">
-        <v>28</v>
-      </c>
-      <c r="P45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>28</v>
-      </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>187</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
+        <v>27</v>
+      </c>
+      <c r="U45" t="s">
         <v>188</v>
-      </c>
-      <c r="T45" t="s">
-        <v>28</v>
-      </c>
-      <c r="U45" t="s">
-        <v>28</v>
-      </c>
-      <c r="V45" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
         <v>190</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
         <v>191</v>
       </c>
-      <c r="C46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>192</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>44</v>
+      </c>
+      <c r="R46" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" t="s">
         <v>193</v>
       </c>
-      <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" t="s">
-        <v>28</v>
-      </c>
-      <c r="N46" t="s">
-        <v>28</v>
-      </c>
-      <c r="O46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P46" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>45</v>
-      </c>
-      <c r="R46" t="s">
-        <v>45</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>194</v>
       </c>
-      <c r="T46" t="s">
-        <v>28</v>
-      </c>
       <c r="U46" t="s">
-        <v>195</v>
-      </c>
-      <c r="V46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
         <v>196</v>
       </c>
-      <c r="B47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47" t="s">
         <v>197</v>
       </c>
-      <c r="E47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" t="s">
-        <v>28</v>
-      </c>
-      <c r="N47" t="s">
-        <v>28</v>
-      </c>
-      <c r="O47" t="s">
-        <v>28</v>
-      </c>
-      <c r="P47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>28</v>
-      </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>198</v>
       </c>
-      <c r="S47" t="s">
-        <v>199</v>
-      </c>
       <c r="T47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U47" t="s">
-        <v>28</v>
-      </c>
-      <c r="V47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
         <v>200</v>
       </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
         <v>201</v>
       </c>
-      <c r="E48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" t="s">
         <v>202</v>
       </c>
-      <c r="H48" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" t="s">
-        <v>28</v>
-      </c>
-      <c r="N48" t="s">
-        <v>28</v>
-      </c>
-      <c r="O48" t="s">
-        <v>28</v>
-      </c>
-      <c r="P48" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
+        <v>38</v>
+      </c>
+      <c r="S48" t="s">
         <v>203</v>
       </c>
-      <c r="R48" t="s">
-        <v>39</v>
-      </c>
-      <c r="S48" t="s">
-        <v>204</v>
-      </c>
       <c r="T48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U48" t="s">
-        <v>28</v>
-      </c>
-      <c r="V48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
         <v>205</v>
       </c>
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
         <v>206</v>
       </c>
-      <c r="E49" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>206</v>
+      </c>
+      <c r="R49" t="s">
         <v>207</v>
       </c>
-      <c r="H49" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" t="s">
-        <v>28</v>
-      </c>
-      <c r="N49" t="s">
-        <v>28</v>
-      </c>
-      <c r="O49" t="s">
-        <v>28</v>
-      </c>
-      <c r="P49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>207</v>
-      </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>208</v>
       </c>
-      <c r="S49" t="s">
-        <v>209</v>
-      </c>
       <c r="T49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U49" t="s">
-        <v>28</v>
-      </c>
-      <c r="V49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
         <v>210</v>
       </c>
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+      <c r="R50" t="s">
+        <v>193</v>
+      </c>
+      <c r="S50" t="s">
         <v>211</v>
       </c>
-      <c r="E50" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" t="s">
-        <v>28</v>
-      </c>
-      <c r="N50" t="s">
-        <v>28</v>
-      </c>
-      <c r="O50" t="s">
-        <v>28</v>
-      </c>
-      <c r="P50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>28</v>
-      </c>
-      <c r="R50" t="s">
-        <v>122</v>
-      </c>
-      <c r="S50" t="s">
-        <v>108</v>
-      </c>
       <c r="T50" t="s">
+        <v>27</v>
+      </c>
+      <c r="U50" t="s">
         <v>212</v>
-      </c>
-      <c r="U50" t="s">
-        <v>28</v>
-      </c>
-      <c r="V50" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" t="s">
         <v>214</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>215</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>216</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>217</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>218</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>219</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>220</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>221</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>222</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
+        <v>220</v>
+      </c>
+      <c r="L51" t="s">
+        <v>221</v>
+      </c>
+      <c r="M51" t="s">
+        <v>222</v>
+      </c>
+      <c r="N51" t="s">
+        <v>220</v>
+      </c>
+      <c r="O51" t="s">
+        <v>221</v>
+      </c>
+      <c r="P51" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q51" t="s">
         <v>223</v>
       </c>
-      <c r="K51" t="s">
-        <v>221</v>
-      </c>
-      <c r="L51" t="s">
-        <v>222</v>
-      </c>
-      <c r="M51" t="s">
-        <v>223</v>
-      </c>
-      <c r="N51" t="s">
-        <v>221</v>
-      </c>
-      <c r="O51" t="s">
-        <v>222</v>
-      </c>
-      <c r="P51" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>224</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>225</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>226</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>227</v>
-      </c>
-      <c r="U51" t="s">
-        <v>228</v>
-      </c>
-      <c r="V51" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" t="s">
         <v>230</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>231</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>232</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" t="s">
         <v>233</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52" t="s">
+        <v>221</v>
+      </c>
+      <c r="J52" t="s">
+        <v>222</v>
+      </c>
+      <c r="K52" t="s">
+        <v>220</v>
+      </c>
+      <c r="L52" t="s">
+        <v>221</v>
+      </c>
+      <c r="M52" t="s">
+        <v>222</v>
+      </c>
+      <c r="N52" t="s">
+        <v>220</v>
+      </c>
+      <c r="O52" t="s">
+        <v>221</v>
+      </c>
+      <c r="P52" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q52" t="s">
         <v>234</v>
       </c>
-      <c r="F52" t="s">
-        <v>219</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="R52" t="s">
         <v>235</v>
       </c>
-      <c r="H52" t="s">
-        <v>221</v>
-      </c>
-      <c r="I52" t="s">
-        <v>222</v>
-      </c>
-      <c r="J52" t="s">
-        <v>223</v>
-      </c>
-      <c r="K52" t="s">
-        <v>221</v>
-      </c>
-      <c r="L52" t="s">
-        <v>222</v>
-      </c>
-      <c r="M52" t="s">
-        <v>223</v>
-      </c>
-      <c r="N52" t="s">
-        <v>221</v>
-      </c>
-      <c r="O52" t="s">
-        <v>222</v>
-      </c>
-      <c r="P52" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q52" t="s">
+      <c r="S52" t="s">
         <v>236</v>
       </c>
-      <c r="R52" t="s">
+      <c r="T52" t="s">
+        <v>226</v>
+      </c>
+      <c r="U52" t="s">
         <v>237</v>
-      </c>
-      <c r="S52" t="s">
-        <v>238</v>
-      </c>
-      <c r="T52" t="s">
-        <v>227</v>
-      </c>
-      <c r="U52" t="s">
-        <v>228</v>
-      </c>
-      <c r="V52" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -31,38 +31,37 @@
     <sheet name="0904010003_OP-21.plm.plx.xlsx" sheetId="17" r:id="rId20"/>
     <sheet name="0904010004_OP-20.plm.plx.xlsx" sheetId="18" r:id="rId21"/>
     <sheet name="0904010004_OP-21.plm.plx.xlsx" sheetId="19" r:id="rId22"/>
-    <sheet name="0904010006_OP-20.plm.plx.xlsx" sheetId="20" r:id="rId23"/>
-    <sheet name="0904010010_OP-20.plm.plx.xlsx" sheetId="21" r:id="rId24"/>
-    <sheet name="0904010010_OP-21.plm.plx.xlsx" sheetId="22" r:id="rId25"/>
-    <sheet name="0904010011_OP-21.plm.plx.xlsx" sheetId="23" r:id="rId26"/>
-    <sheet name="0904010012_OP-21.plm.plx.xlsx" sheetId="24" r:id="rId27"/>
-    <sheet name="0904020001_OP-20.plm.plx.xlsx" sheetId="25" r:id="rId28"/>
-    <sheet name="0904020001_OP-21.plm.plx.xlsx" sheetId="26" r:id="rId29"/>
-    <sheet name="0904020002_OP-20.plm.plx.xlsx" sheetId="27" r:id="rId30"/>
-    <sheet name="0904020002_OP-21.plm.plx.xlsx" sheetId="28" r:id="rId31"/>
-    <sheet name="0904020003_OP-20.plm.plx.xlsx" sheetId="29" r:id="rId32"/>
-    <sheet name="0904020003_OP-21.plm.plx.xlsx" sheetId="30" r:id="rId33"/>
-    <sheet name="0904020004_OP-20.plm.plx.xlsx" sheetId="31" r:id="rId34"/>
-    <sheet name="0904020004_OP-21.plm.plx.xlsx" sheetId="32" r:id="rId35"/>
-    <sheet name="0904020005_OP-20.plm.plx.xlsx" sheetId="33" r:id="rId36"/>
-    <sheet name="0904020005_OP-21.plm.plx.xlsx" sheetId="34" r:id="rId37"/>
-    <sheet name="0904020006_OP-20.plm.plx.xlsx" sheetId="35" r:id="rId38"/>
-    <sheet name="0904020006_OP-21.plm.plx.xlsx" sheetId="36" r:id="rId39"/>
-    <sheet name="0904040001_OP-20.plm.plx.xlsx" sheetId="37" r:id="rId40"/>
-    <sheet name="0904040002_OP-20.plm.plx.xlsx" sheetId="38" r:id="rId41"/>
-    <sheet name="0904040002_OP-21.plm.plx.xlsx" sheetId="39" r:id="rId42"/>
-    <sheet name="0904040003_OP-21.plm.plx.xlsx" sheetId="40" r:id="rId43"/>
-    <sheet name="1003010031_op-21.plm.plx.xlsx" sheetId="41" r:id="rId44"/>
-    <sheet name="1005010034_OP-21.pli.plx.xlsx" sheetId="42" r:id="rId45"/>
-    <sheet name="1005030035_OP-21.pli.plx.xlsx" sheetId="43" r:id="rId46"/>
-    <sheet name="1503040000_op-21.plm.plx.xlsx" sheetId="44" r:id="rId47"/>
-    <sheet name="2703030030_op-21.plm.plx.xlsx" sheetId="45" r:id="rId48"/>
-    <sheet name="2703040030_op-21.plm.plx.xlsx" sheetId="46" r:id="rId49"/>
-    <sheet name="2704030006_op-20.plm.plx.xlsx" sheetId="47" r:id="rId50"/>
-    <sheet name="2704030006_OP-21.plm..plx.xlsx" sheetId="48" r:id="rId51"/>
-    <sheet name="2704040001_OP-20.plm.plx.xlsx" sheetId="49" r:id="rId52"/>
-    <sheet name="2704040004_OP-20.plm.plx.xlsx" sheetId="50" r:id="rId53"/>
-    <sheet name="2704040005_OP-21.plm.plx.xlsx" sheetId="51" r:id="rId54"/>
+    <sheet name="0904010010_OP-20.plm.plx.xlsx" sheetId="20" r:id="rId23"/>
+    <sheet name="0904010010_OP-21.plm.plx.xlsx" sheetId="21" r:id="rId24"/>
+    <sheet name="0904010011_OP-21.plm.plx.xlsx" sheetId="22" r:id="rId25"/>
+    <sheet name="0904010012_OP-21.plm.plx.xlsx" sheetId="23" r:id="rId26"/>
+    <sheet name="0904020001_OP-20.plm.plx.xlsx" sheetId="24" r:id="rId27"/>
+    <sheet name="0904020001_OP-21.plm.plx.xlsx" sheetId="25" r:id="rId28"/>
+    <sheet name="0904020002_OP-20.plm.plx.xlsx" sheetId="26" r:id="rId29"/>
+    <sheet name="0904020002_OP-21.plm.plx.xlsx" sheetId="27" r:id="rId30"/>
+    <sheet name="0904020003_OP-20.plm.plx.xlsx" sheetId="28" r:id="rId31"/>
+    <sheet name="0904020003_OP-21.plm.plx.xlsx" sheetId="29" r:id="rId32"/>
+    <sheet name="0904020004_OP-20.plm.plx.xlsx" sheetId="30" r:id="rId33"/>
+    <sheet name="0904020004_OP-21.plm.plx.xlsx" sheetId="31" r:id="rId34"/>
+    <sheet name="0904020005_OP-20.plm.plx.xlsx" sheetId="32" r:id="rId35"/>
+    <sheet name="0904020005_OP-21.plm.plx.xlsx" sheetId="33" r:id="rId36"/>
+    <sheet name="0904020006_OP-20.plm.plx.xlsx" sheetId="34" r:id="rId37"/>
+    <sheet name="0904020006_OP-21.plm.plx.xlsx" sheetId="35" r:id="rId38"/>
+    <sheet name="0904040001_OP-20.plm.plx.xlsx" sheetId="36" r:id="rId39"/>
+    <sheet name="0904040002_OP-20.plm.plx.xlsx" sheetId="37" r:id="rId40"/>
+    <sheet name="0904040002_OP-21.plm.plx.xlsx" sheetId="38" r:id="rId41"/>
+    <sheet name="0904040003_OP-21.plm.plx.xlsx" sheetId="39" r:id="rId42"/>
+    <sheet name="1003010031_op-21.plm.plx.xlsx" sheetId="40" r:id="rId43"/>
+    <sheet name="1005010034_OP-21.pli.plx.xlsx" sheetId="41" r:id="rId44"/>
+    <sheet name="1005030035_OP-21.pli.plx.xlsx" sheetId="42" r:id="rId45"/>
+    <sheet name="1503040000_op-21.plm.plx.xlsx" sheetId="43" r:id="rId46"/>
+    <sheet name="2703030030_op-21.plm.plx.xlsx" sheetId="44" r:id="rId47"/>
+    <sheet name="2703040030_op-21.plm.plx.xlsx" sheetId="45" r:id="rId48"/>
+    <sheet name="2704030006_op-20.plm.plx.xlsx" sheetId="46" r:id="rId49"/>
+    <sheet name="2704030006_OP-21.plm..plx.xlsx" sheetId="47" r:id="rId50"/>
+    <sheet name="2704040001_OP-20.plm.plx.xlsx" sheetId="48" r:id="rId51"/>
+    <sheet name="2704040004_OP-20.plm.plx.xlsx" sheetId="49" r:id="rId52"/>
+    <sheet name="2704040005_OP-21.plm.plx.xlsx" sheetId="50" r:id="rId53"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -108,33 +107,6 @@
     <t>DPK</t>
   </si>
   <si>
-    <t>ID-1OPK</t>
-  </si>
-  <si>
-    <t>ID-1PK</t>
-  </si>
-  <si>
-    <t>ID-1UK</t>
-  </si>
-  <si>
-    <t>ID-2OPK</t>
-  </si>
-  <si>
-    <t>ID-2PK</t>
-  </si>
-  <si>
-    <t>ID-2UK</t>
-  </si>
-  <si>
-    <t>ID-3OPK</t>
-  </si>
-  <si>
-    <t>ID-3PK</t>
-  </si>
-  <si>
-    <t>ID-3UK</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -414,18 +386,6 @@
     <t>0904010004_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
-    <t>0904010006_OP-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>14.814815%</t>
-  </si>
-  <si>
-    <t>8.641975%</t>
-  </si>
-  <si>
-    <t>9.876543%</t>
-  </si>
-  <si>
     <t>0904010010_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
@@ -742,15 +702,6 @@
   </si>
   <si>
     <t>16.666667 у УП 2704040001_OP-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>14.814815 у УП 0904010006_OP-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>8.641975 у УП 0904010006_OP-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>9.876543 у УП 0904010006_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
     <t>31.858407 у УП 1503040000_op-21.plm.plx.xlsx</t>
@@ -1310,3348 +1261,1906 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S7" t="s">
-        <v>59</v>
-      </c>
-      <c r="T7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" t="s">
-        <v>86</v>
-      </c>
-      <c r="S11" t="s">
-        <v>87</v>
-      </c>
-      <c r="T11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" t="s">
-        <v>91</v>
-      </c>
-      <c r="S12" t="s">
-        <v>92</v>
-      </c>
-      <c r="T12" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" t="s">
-        <v>97</v>
-      </c>
-      <c r="S13" t="s">
-        <v>98</v>
-      </c>
-      <c r="T13" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" t="s">
-        <v>98</v>
-      </c>
-      <c r="T14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" t="s">
-        <v>102</v>
-      </c>
-      <c r="S15" t="s">
-        <v>103</v>
-      </c>
-      <c r="T15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" t="s">
-        <v>102</v>
-      </c>
-      <c r="S16" t="s">
-        <v>103</v>
-      </c>
-      <c r="T16" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" t="s">
-        <v>44</v>
-      </c>
-      <c r="T17" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" t="s">
-        <v>107</v>
-      </c>
-      <c r="S18" t="s">
-        <v>44</v>
-      </c>
-      <c r="T18" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" t="s">
-        <v>113</v>
-      </c>
-      <c r="N19" t="s">
-        <v>111</v>
-      </c>
-      <c r="O19" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" t="s">
-        <v>102</v>
-      </c>
-      <c r="S20" t="s">
-        <v>115</v>
-      </c>
-      <c r="T20" t="s">
-        <v>27</v>
-      </c>
-      <c r="U20" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" t="s">
-        <v>102</v>
-      </c>
-      <c r="S21" t="s">
-        <v>115</v>
-      </c>
-      <c r="T21" t="s">
-        <v>27</v>
-      </c>
-      <c r="U21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" t="s">
-        <v>106</v>
-      </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>27</v>
-      </c>
-      <c r="R22" t="s">
-        <v>107</v>
-      </c>
-      <c r="S22" t="s">
-        <v>121</v>
-      </c>
-      <c r="T22" t="s">
-        <v>27</v>
-      </c>
-      <c r="U22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>27</v>
-      </c>
-      <c r="R23" t="s">
-        <v>125</v>
-      </c>
-      <c r="S23" t="s">
-        <v>126</v>
-      </c>
-      <c r="T23" t="s">
-        <v>27</v>
-      </c>
-      <c r="U23" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>27</v>
-      </c>
-      <c r="R24" t="s">
-        <v>107</v>
-      </c>
-      <c r="S24" t="s">
-        <v>108</v>
-      </c>
-      <c r="T24" t="s">
-        <v>27</v>
-      </c>
-      <c r="U24" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" t="s">
         <v>119</v>
       </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
       <c r="K25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L25" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" t="s">
-        <v>107</v>
-      </c>
-      <c r="S25" t="s">
-        <v>108</v>
-      </c>
-      <c r="T25" t="s">
-        <v>27</v>
-      </c>
-      <c r="U25" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" t="s">
         <v>119</v>
       </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" t="s">
-        <v>27</v>
-      </c>
       <c r="K26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L26" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>27</v>
-      </c>
-      <c r="R26" t="s">
-        <v>131</v>
-      </c>
-      <c r="S26" t="s">
-        <v>132</v>
-      </c>
-      <c r="T26" t="s">
-        <v>27</v>
-      </c>
-      <c r="U26" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" t="s">
         <v>119</v>
       </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
       <c r="K27" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L27" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>27</v>
-      </c>
-      <c r="R27" t="s">
-        <v>131</v>
-      </c>
-      <c r="S27" t="s">
-        <v>132</v>
-      </c>
-      <c r="T27" t="s">
-        <v>27</v>
-      </c>
-      <c r="U27" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" t="s">
         <v>119</v>
       </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" t="s">
-        <v>27</v>
-      </c>
       <c r="K28" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>27</v>
-      </c>
-      <c r="R28" t="s">
-        <v>97</v>
-      </c>
-      <c r="S28" t="s">
-        <v>132</v>
-      </c>
-      <c r="T28" t="s">
-        <v>27</v>
-      </c>
-      <c r="U28" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L29" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>27</v>
-      </c>
-      <c r="R29" t="s">
-        <v>97</v>
-      </c>
-      <c r="S29" t="s">
-        <v>132</v>
-      </c>
-      <c r="T29" t="s">
-        <v>27</v>
-      </c>
-      <c r="U29" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L30" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>27</v>
-      </c>
-      <c r="R30" t="s">
-        <v>107</v>
-      </c>
-      <c r="S30" t="s">
-        <v>108</v>
-      </c>
-      <c r="T30" t="s">
-        <v>27</v>
-      </c>
-      <c r="U30" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" t="s">
-        <v>27</v>
-      </c>
-      <c r="P31" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>27</v>
-      </c>
-      <c r="R31" t="s">
-        <v>107</v>
-      </c>
-      <c r="S31" t="s">
-        <v>108</v>
-      </c>
-      <c r="T31" t="s">
-        <v>27</v>
-      </c>
-      <c r="U31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K32" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" t="s">
-        <v>27</v>
-      </c>
-      <c r="P32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>27</v>
-      </c>
-      <c r="R32" t="s">
-        <v>107</v>
-      </c>
-      <c r="S32" t="s">
-        <v>108</v>
-      </c>
-      <c r="T32" t="s">
-        <v>27</v>
-      </c>
-      <c r="U32" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>27</v>
-      </c>
-      <c r="R33" t="s">
-        <v>107</v>
-      </c>
-      <c r="S33" t="s">
-        <v>108</v>
-      </c>
-      <c r="T33" t="s">
-        <v>27</v>
-      </c>
-      <c r="U33" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>27</v>
-      </c>
-      <c r="M34" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" t="s">
-        <v>27</v>
-      </c>
-      <c r="P34" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34" t="s">
-        <v>107</v>
-      </c>
-      <c r="S34" t="s">
-        <v>108</v>
-      </c>
-      <c r="T34" t="s">
-        <v>27</v>
-      </c>
-      <c r="U34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="K35" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" t="s">
-        <v>27</v>
-      </c>
-      <c r="P35" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>27</v>
-      </c>
-      <c r="R35" t="s">
-        <v>107</v>
-      </c>
-      <c r="S35" t="s">
-        <v>108</v>
-      </c>
-      <c r="T35" t="s">
-        <v>27</v>
-      </c>
-      <c r="U35" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="K36" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" t="s">
-        <v>27</v>
-      </c>
-      <c r="P36" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>27</v>
-      </c>
-      <c r="R36" t="s">
-        <v>146</v>
-      </c>
-      <c r="S36" t="s">
-        <v>127</v>
-      </c>
-      <c r="T36" t="s">
-        <v>27</v>
-      </c>
-      <c r="U36" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="K37" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>27</v>
-      </c>
-      <c r="R37" t="s">
-        <v>148</v>
-      </c>
-      <c r="S37" t="s">
-        <v>121</v>
-      </c>
-      <c r="T37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="J38" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L38" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" t="s">
-        <v>27</v>
-      </c>
-      <c r="O38" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>27</v>
-      </c>
-      <c r="R38" t="s">
-        <v>148</v>
-      </c>
-      <c r="S38" t="s">
-        <v>121</v>
-      </c>
-      <c r="T38" t="s">
-        <v>27</v>
-      </c>
-      <c r="U38" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="K39" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" t="s">
-        <v>27</v>
-      </c>
-      <c r="P39" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>27</v>
-      </c>
-      <c r="R39" t="s">
-        <v>146</v>
-      </c>
-      <c r="S39" t="s">
-        <v>87</v>
-      </c>
-      <c r="T39" t="s">
-        <v>27</v>
-      </c>
-      <c r="U39" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="J40" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="K40" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" t="s">
-        <v>27</v>
-      </c>
-      <c r="P40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>27</v>
-      </c>
-      <c r="R40" t="s">
-        <v>154</v>
-      </c>
-      <c r="S40" t="s">
-        <v>155</v>
-      </c>
-      <c r="T40" t="s">
-        <v>27</v>
-      </c>
-      <c r="U40" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" t="s">
         <v>157</v>
-      </c>
-      <c r="B41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" t="s">
-        <v>27</v>
-      </c>
-      <c r="K41" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" t="s">
-        <v>27</v>
-      </c>
-      <c r="P41" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>27</v>
-      </c>
-      <c r="R41" t="s">
-        <v>162</v>
-      </c>
-      <c r="S41" t="s">
-        <v>163</v>
-      </c>
-      <c r="T41" t="s">
-        <v>27</v>
-      </c>
-      <c r="U41" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" t="s">
         <v>160</v>
       </c>
-      <c r="E42" t="s">
-        <v>167</v>
-      </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="I42" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="K42" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L42" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" t="s">
-        <v>27</v>
-      </c>
-      <c r="P42" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>27</v>
-      </c>
-      <c r="R42" t="s">
-        <v>168</v>
-      </c>
-      <c r="S42" t="s">
-        <v>169</v>
-      </c>
-      <c r="T42" t="s">
-        <v>27</v>
-      </c>
-      <c r="U42" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="K43" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L43" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" t="s">
-        <v>27</v>
-      </c>
-      <c r="O43" t="s">
-        <v>27</v>
-      </c>
-      <c r="P43" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>175</v>
-      </c>
-      <c r="R43" t="s">
-        <v>176</v>
-      </c>
-      <c r="S43" t="s">
-        <v>177</v>
-      </c>
-      <c r="T43" t="s">
-        <v>27</v>
-      </c>
-      <c r="U43" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="J44" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="K44" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L44" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" t="s">
-        <v>27</v>
-      </c>
-      <c r="O44" t="s">
-        <v>27</v>
-      </c>
-      <c r="P44" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>27</v>
-      </c>
-      <c r="R44" t="s">
-        <v>181</v>
-      </c>
-      <c r="S44" t="s">
-        <v>182</v>
-      </c>
-      <c r="T44" t="s">
-        <v>27</v>
-      </c>
-      <c r="U44" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" t="s">
         <v>180</v>
       </c>
-      <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" t="s">
-        <v>27</v>
-      </c>
       <c r="K45" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" t="s">
-        <v>27</v>
-      </c>
-      <c r="N45" t="s">
-        <v>27</v>
-      </c>
-      <c r="O45" t="s">
-        <v>27</v>
-      </c>
-      <c r="P45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>27</v>
-      </c>
-      <c r="R45" t="s">
-        <v>186</v>
-      </c>
-      <c r="S45" t="s">
-        <v>187</v>
-      </c>
-      <c r="T45" t="s">
-        <v>27</v>
-      </c>
-      <c r="U45" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="K46" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L46" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" t="s">
-        <v>27</v>
-      </c>
-      <c r="O46" t="s">
-        <v>27</v>
-      </c>
-      <c r="P46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>44</v>
-      </c>
-      <c r="R46" t="s">
-        <v>44</v>
-      </c>
-      <c r="S46" t="s">
-        <v>193</v>
-      </c>
-      <c r="T46" t="s">
-        <v>194</v>
-      </c>
-      <c r="U46" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" t="s">
+        <v>189</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="s">
         <v>190</v>
       </c>
-      <c r="C47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" t="s">
-        <v>27</v>
-      </c>
       <c r="K47" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L47" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" t="s">
-        <v>27</v>
-      </c>
-      <c r="O47" t="s">
-        <v>27</v>
-      </c>
-      <c r="P47" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>27</v>
-      </c>
-      <c r="R47" t="s">
-        <v>197</v>
-      </c>
-      <c r="S47" t="s">
-        <v>198</v>
-      </c>
-      <c r="T47" t="s">
-        <v>27</v>
-      </c>
-      <c r="U47" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H48" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="J48" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="K48" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L48" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" t="s">
-        <v>27</v>
-      </c>
-      <c r="O48" t="s">
-        <v>27</v>
-      </c>
-      <c r="P48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>202</v>
-      </c>
-      <c r="R48" t="s">
-        <v>38</v>
-      </c>
-      <c r="S48" t="s">
-        <v>203</v>
-      </c>
-      <c r="T48" t="s">
-        <v>27</v>
-      </c>
-      <c r="U48" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="K49" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L49" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N49" t="s">
-        <v>27</v>
-      </c>
-      <c r="O49" t="s">
-        <v>27</v>
-      </c>
-      <c r="P49" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>206</v>
-      </c>
-      <c r="R49" t="s">
-        <v>207</v>
-      </c>
-      <c r="S49" t="s">
-        <v>208</v>
-      </c>
-      <c r="T49" t="s">
-        <v>27</v>
-      </c>
-      <c r="U49" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" t="s">
+        <v>208</v>
+      </c>
+      <c r="J50" t="s">
         <v>209</v>
       </c>
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="K50" t="s">
         <v>210</v>
       </c>
-      <c r="E50" t="s">
-        <v>192</v>
-      </c>
-      <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" t="s">
-        <v>27</v>
-      </c>
-      <c r="K50" t="s">
-        <v>27</v>
-      </c>
       <c r="L50" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" t="s">
-        <v>27</v>
-      </c>
-      <c r="N50" t="s">
-        <v>27</v>
-      </c>
-      <c r="O50" t="s">
-        <v>27</v>
-      </c>
-      <c r="P50" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>27</v>
-      </c>
-      <c r="R50" t="s">
-        <v>193</v>
-      </c>
-      <c r="S50" t="s">
         <v>211</v>
-      </c>
-      <c r="T50" t="s">
-        <v>27</v>
-      </c>
-      <c r="U50" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" t="s">
         <v>213</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>214</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>215</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>216</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" t="s">
         <v>217</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>218</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>219</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>220</v>
       </c>
-      <c r="I51" t="s">
-        <v>221</v>
-      </c>
-      <c r="J51" t="s">
-        <v>222</v>
-      </c>
       <c r="K51" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s">
         <v>221</v>
       </c>
-      <c r="M51" t="s">
-        <v>222</v>
-      </c>
-      <c r="N51" t="s">
-        <v>220</v>
-      </c>
-      <c r="O51" t="s">
-        <v>221</v>
-      </c>
-      <c r="P51" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>223</v>
-      </c>
-      <c r="R51" t="s">
-        <v>224</v>
-      </c>
-      <c r="S51" t="s">
-        <v>225</v>
-      </c>
-      <c r="T51" t="s">
-        <v>226</v>
-      </c>
-      <c r="U51" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>228</v>
-      </c>
-      <c r="B52" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" t="s">
-        <v>230</v>
-      </c>
-      <c r="D52" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" t="s">
-        <v>232</v>
-      </c>
-      <c r="F52" t="s">
-        <v>218</v>
-      </c>
-      <c r="G52" t="s">
-        <v>233</v>
-      </c>
-      <c r="H52" t="s">
-        <v>220</v>
-      </c>
-      <c r="I52" t="s">
-        <v>221</v>
-      </c>
-      <c r="J52" t="s">
-        <v>222</v>
-      </c>
-      <c r="K52" t="s">
-        <v>220</v>
-      </c>
-      <c r="L52" t="s">
-        <v>221</v>
-      </c>
-      <c r="M52" t="s">
-        <v>222</v>
-      </c>
-      <c r="N52" t="s">
-        <v>220</v>
-      </c>
-      <c r="O52" t="s">
-        <v>221</v>
-      </c>
-      <c r="P52" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>234</v>
-      </c>
-      <c r="R52" t="s">
-        <v>235</v>
-      </c>
-      <c r="S52" t="s">
-        <v>236</v>
-      </c>
-      <c r="T52" t="s">
-        <v>226</v>
-      </c>
-      <c r="U52" t="s">
-        <v>237</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5066,18 +3575,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -101,6 +101,9 @@
     <t>(Расш.) Кол-во дисциплин в УП</t>
   </si>
   <si>
+    <t>Максимальное ЗЕ у дисциплины</t>
+  </si>
+  <si>
     <t>DOPK</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
     <t>63</t>
   </si>
   <si>
+    <t>10.000000</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
     <t>20</t>
   </si>
   <si>
+    <t>18.000000</t>
+  </si>
+  <si>
     <t>44.444444%</t>
   </si>
   <si>
@@ -185,6 +194,9 @@
     <t>25</t>
   </si>
   <si>
+    <t>30.000000</t>
+  </si>
+  <si>
     <t>27.777778%</t>
   </si>
   <si>
@@ -251,6 +263,9 @@
     <t>53</t>
   </si>
   <si>
+    <t>15.000000</t>
+  </si>
+  <si>
     <t>34.000000%</t>
   </si>
   <si>
@@ -329,6 +344,9 @@
     <t>293.000000</t>
   </si>
   <si>
+    <t>17.000000</t>
+  </si>
+  <si>
     <t>44.000000%</t>
   </si>
   <si>
@@ -347,6 +365,9 @@
     <t>27</t>
   </si>
   <si>
+    <t>12.000000</t>
+  </si>
+  <si>
     <t>41.379310%</t>
   </si>
   <si>
@@ -419,6 +440,9 @@
     <t>24</t>
   </si>
   <si>
+    <t>9.000000</t>
+  </si>
+  <si>
     <t>43.478261%</t>
   </si>
   <si>
@@ -500,6 +524,9 @@
     <t>128.000000</t>
   </si>
   <si>
+    <t>11.000000</t>
+  </si>
+  <si>
     <t>1003010031_op-21.plm.plx.xlsx</t>
   </si>
   <si>
@@ -647,6 +674,9 @@
     <t>149.000000</t>
   </si>
   <si>
+    <t>24.000000</t>
+  </si>
+  <si>
     <t>16.666667%</t>
   </si>
   <si>
@@ -698,6 +728,9 @@
     <t>83.000000 у УП 0903020030_op-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>30.000000 у УП 0104020009_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
     <t>7.079646 у УП 1503040000_op-21.plm.plx.xlsx</t>
   </si>
   <si>
@@ -732,6 +765,9 @@
   </si>
   <si>
     <t>20.000000 у УП 0104020007_op-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>9.000000 у УП 0904010012_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
     <t>15.094340 у УП 2704040004_OP-20.plm.plx.xlsx</t>
@@ -1261,1906 +1297,2059 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s">
-        <v>103</v>
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
         <v>105</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" t="s">
-        <v>108</v>
-      </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="L21" t="s">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s">
-        <v>114</v>
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" t="s">
         <v>106</v>
       </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" t="s">
         <v>106</v>
       </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s">
-        <v>119</v>
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s">
-        <v>119</v>
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="L27" t="s">
-        <v>122</v>
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>122</v>
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" t="s">
         <v>106</v>
       </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" t="s">
-        <v>18</v>
-      </c>
       <c r="L29" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" t="s">
         <v>106</v>
       </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" t="s">
-        <v>99</v>
-      </c>
-      <c r="K30" t="s">
-        <v>18</v>
-      </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" t="s">
         <v>106</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>98</v>
-      </c>
-      <c r="J31" t="s">
-        <v>99</v>
-      </c>
-      <c r="K31" t="s">
-        <v>18</v>
-      </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" t="s">
         <v>106</v>
       </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
       <c r="L32" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" t="s">
         <v>106</v>
       </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" t="s">
-        <v>98</v>
-      </c>
-      <c r="J33" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" t="s">
-        <v>18</v>
-      </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="M33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" t="s">
         <v>106</v>
       </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K34" t="s">
-        <v>18</v>
-      </c>
       <c r="L34" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="M34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="L35" t="s">
-        <v>133</v>
+        <v>20</v>
+      </c>
+      <c r="M35" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="L36" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="L37" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="L38" t="s">
-        <v>113</v>
+        <v>20</v>
+      </c>
+      <c r="M38" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="L39" t="s">
-        <v>143</v>
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
         <v>147</v>
       </c>
-      <c r="E40" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="L40" t="s">
-        <v>151</v>
+        <v>20</v>
+      </c>
+      <c r="M40" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" t="s">
         <v>147</v>
       </c>
-      <c r="E41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="L41" t="s">
-        <v>157</v>
+        <v>20</v>
+      </c>
+      <c r="M41" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F42" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="H42" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="J42" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="M42" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="L43" t="s">
-        <v>170</v>
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s">
-        <v>175</v>
+        <v>20</v>
+      </c>
+      <c r="M44" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="K45" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="L45" t="s">
-        <v>18</v>
+        <v>190</v>
+      </c>
+      <c r="M45" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K46" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="L46" t="s">
-        <v>185</v>
+        <v>20</v>
+      </c>
+      <c r="M46" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I47" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="J47" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="L47" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="M47" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="I48" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="J48" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="L48" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="M48" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="L49" t="s">
-        <v>199</v>
+        <v>20</v>
+      </c>
+      <c r="M49" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="H50" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="J50" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K50" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L50" t="s">
-        <v>211</v>
+        <v>221</v>
+      </c>
+      <c r="M50" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" t="s">
         <v>216</v>
       </c>
-      <c r="F51" t="s">
-        <v>205</v>
-      </c>
-      <c r="G51" t="s">
-        <v>217</v>
-      </c>
       <c r="H51" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="I51" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="J51" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K51" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s">
         <v>221</v>
       </c>
+      <c r="M51" t="s">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -86,22 +86,22 @@
     <t/>
   </si>
   <si>
-    <t>Название учебного плана</t>
-  </si>
-  <si>
-    <t>Всего ЗЕ</t>
-  </si>
-  <si>
-    <t>Кол-во дисциплин</t>
-  </si>
-  <si>
-    <t>(Расш.) Общее колв-о ЗЕ в УП</t>
-  </si>
-  <si>
-    <t>(Расш.) Кол-во дисциплин в УП</t>
-  </si>
-  <si>
-    <t>Максимальное ЗЕ у дисциплины</t>
+    <t>NameCur</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>ExtAmount</t>
+  </si>
+  <si>
+    <t>ExtDisc</t>
+  </si>
+  <si>
+    <t>ZU</t>
   </si>
   <si>
     <t>DOPK</t>
@@ -713,76 +713,76 @@
     <t>21.875000%</t>
   </si>
   <si>
-    <t>Максимальные значения:</t>
-  </si>
-  <si>
-    <t>334.000000 у УП 1005010034_OP-21.pli.plx.xlsx</t>
-  </si>
-  <si>
-    <t>72.000000 у УП 1005030035_OP-21.pli.plx.xlsx</t>
-  </si>
-  <si>
-    <t>340.000000 у УП 1005010034_OP-21.pli.plx.xlsx</t>
-  </si>
-  <si>
-    <t>83.000000 у УП 0903020030_op-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>30.000000 у УП 0104020009_OP-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>7.079646 у УП 1503040000_op-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>16.666667 у УП 2704040001_OP-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>31.858407 у УП 1503040000_op-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>65.753425 у УП 1005010034_OP-21.pli.plx.xlsx</t>
-  </si>
-  <si>
-    <t>50.000000 у УП 0903020030_op-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>18.750000 у УП 2704030006_op-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>47.222222 у УП 0104020009_OP-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>Минимальные значения:</t>
-  </si>
-  <si>
-    <t>124.000000 у УП 0104020007_op-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>17.000000 у УП 0104020007_op-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>128.000000 у УП 0904040003_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>20.000000 у УП 0104020007_op-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>9.000000 у УП 0904010012_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>15.094340 у УП 2704040004_OP-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>14.583333 у УП 2704040001_OP-20.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>21.666667 у УП 0903020030_op-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>10.606061 у УП 1003010031_op-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>19.178082 у УП 1005010034_OP-21.pli.plx.xlsx</t>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>334.000000 (1005010034_OP-21.pli.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>72.000000 (1005030035_OP-21.pli.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>340.000000 (1005010034_OP-21.pli.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>83.000000 (0903020030_op-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>30.000000 (0104020009_OP-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>7.079646 (1503040000_op-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>16.666667 (2704040001_OP-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>31.858407 (1503040000_op-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>65.753425 (1005010034_OP-21.pli.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>50.000000 (0903020030_op-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>18.750000 (2704030006_op-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>47.222222 (0104020009_OP-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>124.000000 (0104020007_op-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>17.000000 (0104020007_op-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>128.000000 (0904040003_OP-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>20.000000 (0104020007_op-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>9.000000 (0904010012_OP-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>15.094340 (2704040004_OP-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>14.583333 (2704040001_OP-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>21.666667 (0903020030_op-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>10.606061 (1003010031_op-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>19.178082 (1005010034_OP-21.pli.plx.xlsx)</t>
   </si>
 </sst>
 </file>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -86,22 +86,22 @@
     <t/>
   </si>
   <si>
-    <t>NameCur</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>ExtAmount</t>
-  </si>
-  <si>
-    <t>ExtDisc</t>
-  </si>
-  <si>
-    <t>ZU</t>
+    <t>Название учебного плана</t>
+  </si>
+  <si>
+    <t>Всего ЗЕ</t>
+  </si>
+  <si>
+    <t>Кол-во дисциплин</t>
+  </si>
+  <si>
+    <t>(Расш.) Общее кол-во ЗЕ в УП</t>
+  </si>
+  <si>
+    <t>(Расш.) Кол-во дисциплин в УП</t>
+  </si>
+  <si>
+    <t>Максимальное ЗЕ у дисциплины</t>
   </si>
   <si>
     <t>DOPK</t>
@@ -713,7 +713,7 @@
     <t>21.875000%</t>
   </si>
   <si>
-    <t>Max</t>
+    <t>Максимальные значения:</t>
   </si>
   <si>
     <t>334.000000 (1005010034_OP-21.pli.plx.xlsx)</t>
@@ -752,7 +752,7 @@
     <t>47.222222 (0104020009_OP-20.plm.plx.xlsx)</t>
   </si>
   <si>
-    <t>Min</t>
+    <t>Минимальные значения:</t>
   </si>
   <si>
     <t>124.000000 (0104020007_op-20.plm.plx.xlsx)</t>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -104,6 +104,15 @@
     <t>Максимальное ЗЕ у дисциплины</t>
   </si>
   <si>
+    <t>Диаметр графа по расстоянию</t>
+  </si>
+  <si>
+    <t>Диаметр графа по количеству рёбер</t>
+  </si>
+  <si>
+    <t>Количество компонент связности</t>
+  </si>
+  <si>
     <t>DOPK</t>
   </si>
   <si>
@@ -131,18 +140,27 @@
     <t>244.000000</t>
   </si>
   <si>
-    <t>59</t>
+    <t>59.000000</t>
   </si>
   <si>
     <t>261.000000</t>
   </si>
   <si>
-    <t>63</t>
+    <t>63.000000</t>
   </si>
   <si>
     <t>10.000000</t>
   </si>
   <si>
+    <t>0.065574</t>
+  </si>
+  <si>
+    <t>4.000000</t>
+  </si>
+  <si>
+    <t>8.000000</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -161,18 +179,24 @@
     <t>124.000000</t>
   </si>
   <si>
-    <t>17</t>
+    <t>17.000000</t>
   </si>
   <si>
     <t>136.000000</t>
   </si>
   <si>
-    <t>20</t>
+    <t>20.000000</t>
   </si>
   <si>
     <t>18.000000</t>
   </si>
   <si>
+    <t>0.241935</t>
+  </si>
+  <si>
+    <t>1.000000</t>
+  </si>
+  <si>
     <t>44.444444%</t>
   </si>
   <si>
@@ -185,18 +209,24 @@
     <t>0104020009_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
-    <t>23</t>
+    <t>23.000000</t>
   </si>
   <si>
     <t>130.000000</t>
   </si>
   <si>
-    <t>25</t>
+    <t>25.000000</t>
   </si>
   <si>
     <t>30.000000</t>
   </si>
   <si>
+    <t>0.201613</t>
+  </si>
+  <si>
+    <t>3.000000</t>
+  </si>
+  <si>
     <t>27.777778%</t>
   </si>
   <si>
@@ -212,13 +242,22 @@
     <t>0903010030_op-21.plm.plx.xlsx</t>
   </si>
   <si>
-    <t>56</t>
+    <t>56.000000</t>
   </si>
   <si>
     <t>265.000000</t>
   </si>
   <si>
-    <t>60</t>
+    <t>60.000000</t>
+  </si>
+  <si>
+    <t>0.106557</t>
+  </si>
+  <si>
+    <t>5.000000</t>
+  </si>
+  <si>
+    <t>7.000000</t>
   </si>
   <si>
     <t>24.615385%</t>
@@ -239,7 +278,13 @@
     <t>339.000000</t>
   </si>
   <si>
-    <t>83</t>
+    <t>83.000000</t>
+  </si>
+  <si>
+    <t>0.091463</t>
+  </si>
+  <si>
+    <t>11.000000</t>
   </si>
   <si>
     <t>21.666667%</t>
@@ -254,18 +299,24 @@
     <t>0903030031_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
-    <t>51</t>
+    <t>51.000000</t>
   </si>
   <si>
     <t>252.000000</t>
   </si>
   <si>
-    <t>53</t>
+    <t>53.000000</t>
   </si>
   <si>
     <t>15.000000</t>
   </si>
   <si>
+    <t>0.120902</t>
+  </si>
+  <si>
+    <t>6.000000</t>
+  </si>
+  <si>
     <t>34.000000%</t>
   </si>
   <si>
@@ -278,13 +329,16 @@
     <t>0903030032_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
-    <t>52</t>
+    <t>52.000000</t>
   </si>
   <si>
     <t>257.000000</t>
   </si>
   <si>
-    <t>55</t>
+    <t>55.000000</t>
+  </si>
+  <si>
+    <t>0.094262</t>
   </si>
   <si>
     <t>26.562500%</t>
@@ -302,12 +356,15 @@
     <t>242.000000</t>
   </si>
   <si>
-    <t>50</t>
+    <t>50.000000</t>
   </si>
   <si>
     <t>250.000000</t>
   </si>
   <si>
+    <t>0.126033</t>
+  </si>
+  <si>
     <t>30.357143%</t>
   </si>
   <si>
@@ -323,12 +380,15 @@
     <t>255.000000</t>
   </si>
   <si>
-    <t>57</t>
+    <t>57.000000</t>
   </si>
   <si>
     <t>263.000000</t>
   </si>
   <si>
+    <t>0.182353</t>
+  </si>
+  <si>
     <t>24.637681%</t>
   </si>
   <si>
@@ -344,7 +404,10 @@
     <t>293.000000</t>
   </si>
   <si>
-    <t>17.000000</t>
+    <t>0.143443</t>
+  </si>
+  <si>
+    <t>14.000000</t>
   </si>
   <si>
     <t>44.000000%</t>
@@ -362,12 +425,15 @@
     <t>134.000000</t>
   </si>
   <si>
-    <t>27</t>
+    <t>27.000000</t>
   </si>
   <si>
     <t>12.000000</t>
   </si>
   <si>
+    <t>0.225806</t>
+  </si>
+  <si>
     <t>41.379310%</t>
   </si>
   <si>
@@ -383,6 +449,9 @@
     <t>0904010003_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>0.379032</t>
+  </si>
+  <si>
     <t>40.000000%</t>
   </si>
   <si>
@@ -398,6 +467,12 @@
     <t>133.000000</t>
   </si>
   <si>
+    <t>0.354839</t>
+  </si>
+  <si>
+    <t>9.000000</t>
+  </si>
+  <si>
     <t>42.857143%</t>
   </si>
   <si>
@@ -410,6 +485,9 @@
     <t>0904010010_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>0.294355</t>
+  </si>
+  <si>
     <t>23.333333%</t>
   </si>
   <si>
@@ -422,10 +500,13 @@
     <t>0904010011_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>26.000000</t>
+  </si>
+  <si>
+    <t>28.000000</t>
+  </si>
+  <si>
+    <t>0.366935</t>
   </si>
   <si>
     <t>28.571429%</t>
@@ -434,13 +515,16 @@
     <t>0904010012_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>9.000000</t>
+    <t>22.000000</t>
+  </si>
+  <si>
+    <t>24.000000</t>
+  </si>
+  <si>
+    <t>0.282258</t>
+  </si>
+  <si>
+    <t>2.000000</t>
   </si>
   <si>
     <t>43.478261%</t>
@@ -455,12 +539,18 @@
     <t>0904020001_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>0.092742</t>
+  </si>
+  <si>
     <t>0904020001_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
     <t>0904020002_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>0.141129</t>
+  </si>
+  <si>
     <t>37.931034%</t>
   </si>
   <si>
@@ -473,6 +563,9 @@
     <t>0904020003_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>0.153226</t>
+  </si>
+  <si>
     <t>27.586207%</t>
   </si>
   <si>
@@ -482,12 +575,18 @@
     <t>0904020004_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>0.149194</t>
+  </si>
+  <si>
     <t>0904020004_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
     <t>0904020005_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>0.177419</t>
+  </si>
+  <si>
     <t>0904020005_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
@@ -500,18 +599,24 @@
     <t>0904040001_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
-    <t>21</t>
+    <t>21.000000</t>
   </si>
   <si>
     <t>137.000000</t>
   </si>
   <si>
+    <t>0.346774</t>
+  </si>
+  <si>
     <t>34.782609%</t>
   </si>
   <si>
     <t>0904040002_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>0.189516</t>
+  </si>
+  <si>
     <t>38.095238%</t>
   </si>
   <si>
@@ -524,13 +629,13 @@
     <t>128.000000</t>
   </si>
   <si>
-    <t>11.000000</t>
-  </si>
-  <si>
     <t>1003010031_op-21.plm.plx.xlsx</t>
   </si>
   <si>
-    <t>61</t>
+    <t>61.000000</t>
+  </si>
+  <si>
+    <t>0.075820</t>
   </si>
   <si>
     <t>62.121212%</t>
@@ -548,13 +653,16 @@
     <t>334.000000</t>
   </si>
   <si>
-    <t>71</t>
+    <t>71.000000</t>
   </si>
   <si>
     <t>340.000000</t>
   </si>
   <si>
-    <t>73</t>
+    <t>73.000000</t>
+  </si>
+  <si>
+    <t>0.071856</t>
   </si>
   <si>
     <t>65.753425%</t>
@@ -569,10 +677,10 @@
     <t>1005030035_OP-21.pli.plx.xlsx</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>74</t>
+    <t>72.000000</t>
+  </si>
+  <si>
+    <t>74.000000</t>
   </si>
   <si>
     <t>62.820513%</t>
@@ -590,7 +698,7 @@
     <t>276.000000</t>
   </si>
   <si>
-    <t>58</t>
+    <t>58.000000</t>
   </si>
   <si>
     <t>7.079646%</t>
@@ -611,7 +719,10 @@
     <t>245.000000</t>
   </si>
   <si>
-    <t>54</t>
+    <t>54.000000</t>
+  </si>
+  <si>
+    <t>0.114286</t>
   </si>
   <si>
     <t>34.920635%</t>
@@ -629,6 +740,9 @@
     <t>259.000000</t>
   </si>
   <si>
+    <t>0.135246</t>
+  </si>
+  <si>
     <t>45.454545%</t>
   </si>
   <si>
@@ -647,7 +761,10 @@
     <t>138.000000</t>
   </si>
   <si>
-    <t>29</t>
+    <t>29.000000</t>
+  </si>
+  <si>
+    <t>0.136000</t>
   </si>
   <si>
     <t>31.250000%</t>
@@ -662,6 +779,9 @@
     <t>131.000000</t>
   </si>
   <si>
+    <t>0.108000</t>
+  </si>
+  <si>
     <t>23.404255%</t>
   </si>
   <si>
@@ -674,7 +794,7 @@
     <t>149.000000</t>
   </si>
   <si>
-    <t>24.000000</t>
+    <t>0.165323</t>
   </si>
   <si>
     <t>16.666667%</t>
@@ -692,6 +812,9 @@
     <t>146.000000</t>
   </si>
   <si>
+    <t>0.306452</t>
+  </si>
+  <si>
     <t>15.094340%</t>
   </si>
   <si>
@@ -707,6 +830,9 @@
     <t>142.000000</t>
   </si>
   <si>
+    <t>0.193548</t>
+  </si>
+  <si>
     <t>46.875000%</t>
   </si>
   <si>
@@ -731,6 +857,15 @@
     <t>30.000000 (0104020009_OP-20.plm.plx.xlsx)</t>
   </si>
   <si>
+    <t>0.379032 (0904010003_OP-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>10.000000 (0903030035_OP-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>14.000000 (0903040030_op-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
     <t>7.079646 (1503040000_op-21.plm.plx.xlsx)</t>
   </si>
   <si>
@@ -768,6 +903,15 @@
   </si>
   <si>
     <t>9.000000 (0904010012_OP-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>0.065574 (0103040030_op-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>2.000000 (0904020001_OP-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>1.000000 (0104020007_op-20.plm.plx.xlsx)</t>
   </si>
   <si>
     <t>15.094340 (2704040004_OP-20.plm.plx.xlsx)</t>
@@ -1300,2055 +1444,2514 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>109</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>123</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>123</v>
+      </c>
+      <c r="N16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M17" t="s">
-        <v>106</v>
+        <v>130</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>106</v>
+        <v>130</v>
+      </c>
+      <c r="N18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>110</v>
+        <v>123</v>
+      </c>
+      <c r="N19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>110</v>
+        <v>123</v>
+      </c>
+      <c r="N20" t="s">
+        <v>135</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M21" t="s">
-        <v>115</v>
+        <v>130</v>
+      </c>
+      <c r="N21" t="s">
+        <v>142</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>148</v>
+      </c>
+      <c r="N22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="N23" t="s">
+        <v>131</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="N24" t="s">
+        <v>131</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M25" t="s">
-        <v>127</v>
+        <v>156</v>
+      </c>
+      <c r="N25" t="s">
+        <v>157</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M26" t="s">
-        <v>127</v>
+        <v>156</v>
+      </c>
+      <c r="N26" t="s">
+        <v>157</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
         <v>129</v>
       </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" t="s">
-        <v>119</v>
-      </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M27" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="N27" t="s">
+        <v>157</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M28" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="N28" t="s">
+        <v>157</v>
+      </c>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M29" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="N29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="N30" t="s">
+        <v>131</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M31" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="N31" t="s">
+        <v>131</v>
+      </c>
+      <c r="O31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="N32" t="s">
+        <v>131</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
         <v>25</v>
       </c>
-      <c r="C33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
       <c r="J33" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M33" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="N33" t="s">
+        <v>131</v>
+      </c>
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s">
         <v>25</v>
       </c>
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="L34" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M34" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="N34" t="s">
+        <v>131</v>
+      </c>
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M35" t="s">
-        <v>141</v>
+        <v>175</v>
+      </c>
+      <c r="N35" t="s">
+        <v>150</v>
+      </c>
+      <c r="O35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>178</v>
+      </c>
+      <c r="N36" t="s">
         <v>142</v>
       </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s">
-        <v>143</v>
-      </c>
-      <c r="K36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" t="s">
-        <v>32</v>
+      <c r="O36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" t="s">
         <v>144</v>
       </c>
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" t="s">
-        <v>117</v>
-      </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="K37" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M37" t="s">
-        <v>32</v>
+        <v>178</v>
+      </c>
+      <c r="N37" t="s">
+        <v>142</v>
+      </c>
+      <c r="O37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="K38" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="L38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M38" t="s">
-        <v>121</v>
+        <v>175</v>
+      </c>
+      <c r="N38" t="s">
+        <v>103</v>
+      </c>
+      <c r="O38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="L39" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M39" t="s">
-        <v>152</v>
+        <v>185</v>
+      </c>
+      <c r="N39" t="s">
+        <v>186</v>
+      </c>
+      <c r="O39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="F40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H40" t="s">
         <v>147</v>
       </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s">
-        <v>20</v>
-      </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="J40" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M40" t="s">
-        <v>160</v>
+        <v>194</v>
+      </c>
+      <c r="N40" t="s">
+        <v>195</v>
+      </c>
+      <c r="O40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" t="s">
+        <v>193</v>
+      </c>
+      <c r="H41" t="s">
         <v>147</v>
       </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" t="s">
-        <v>20</v>
-      </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="J41" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M41" t="s">
-        <v>166</v>
+        <v>200</v>
+      </c>
+      <c r="N41" t="s">
+        <v>201</v>
+      </c>
+      <c r="O41" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>184</v>
+      </c>
+      <c r="H42" t="s">
         <v>147</v>
       </c>
-      <c r="G42" t="s">
-        <v>170</v>
-      </c>
-      <c r="H42" t="s">
-        <v>20</v>
-      </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="K42" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="L42" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="M42" t="s">
-        <v>20</v>
+        <v>208</v>
+      </c>
+      <c r="N42" t="s">
+        <v>209</v>
+      </c>
+      <c r="O42" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="J43" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="L43" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M43" t="s">
-        <v>179</v>
+        <v>214</v>
+      </c>
+      <c r="N43" t="s">
+        <v>215</v>
+      </c>
+      <c r="O43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" t="s">
         <v>147</v>
       </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
-        <v>20</v>
-      </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="J44" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M44" t="s">
-        <v>184</v>
+        <v>220</v>
+      </c>
+      <c r="N44" t="s">
+        <v>221</v>
+      </c>
+      <c r="O44" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J45" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K45" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="L45" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="M45" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="N45" t="s">
+        <v>228</v>
+      </c>
+      <c r="O45" t="s">
+        <v>229</v>
+      </c>
+      <c r="P45" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J46" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="K46" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M46" t="s">
-        <v>194</v>
+        <v>233</v>
+      </c>
+      <c r="N46" t="s">
+        <v>234</v>
+      </c>
+      <c r="O46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="H47" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="I47" t="s">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K47" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="M47" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="N47" t="s">
+        <v>240</v>
+      </c>
+      <c r="O47" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" t="s">
         <v>139</v>
       </c>
-      <c r="D48" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" t="s">
-        <v>113</v>
-      </c>
       <c r="F48" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="H48" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="I48" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="J48" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="K48" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="M48" t="s">
-        <v>20</v>
+        <v>245</v>
+      </c>
+      <c r="N48" t="s">
+        <v>246</v>
+      </c>
+      <c r="O48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="K49" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="L49" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M49" t="s">
-        <v>209</v>
+        <v>228</v>
+      </c>
+      <c r="N49" t="s">
+        <v>250</v>
+      </c>
+      <c r="O49" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="G50" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="H50" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="I50" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="J50" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="K50" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="L50" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="M50" t="s">
-        <v>222</v>
+        <v>264</v>
+      </c>
+      <c r="N50" t="s">
+        <v>265</v>
+      </c>
+      <c r="O50" t="s">
+        <v>266</v>
+      </c>
+      <c r="P50" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="F51" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="G51" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="H51" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="I51" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="J51" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="K51" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="L51" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="M51" t="s">
-        <v>233</v>
+        <v>279</v>
+      </c>
+      <c r="N51" t="s">
+        <v>280</v>
+      </c>
+      <c r="O51" t="s">
+        <v>266</v>
+      </c>
+      <c r="P51" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -31,37 +31,38 @@
     <sheet name="0904010003_OP-21.plm.plx.xlsx" sheetId="17" r:id="rId20"/>
     <sheet name="0904010004_OP-20.plm.plx.xlsx" sheetId="18" r:id="rId21"/>
     <sheet name="0904010004_OP-21.plm.plx.xlsx" sheetId="19" r:id="rId22"/>
-    <sheet name="0904010010_OP-20.plm.plx.xlsx" sheetId="20" r:id="rId23"/>
-    <sheet name="0904010010_OP-21.plm.plx.xlsx" sheetId="21" r:id="rId24"/>
-    <sheet name="0904010011_OP-21.plm.plx.xlsx" sheetId="22" r:id="rId25"/>
-    <sheet name="0904010012_OP-21.plm.plx.xlsx" sheetId="23" r:id="rId26"/>
-    <sheet name="0904020001_OP-20.plm.plx.xlsx" sheetId="24" r:id="rId27"/>
-    <sheet name="0904020001_OP-21.plm.plx.xlsx" sheetId="25" r:id="rId28"/>
-    <sheet name="0904020002_OP-20.plm.plx.xlsx" sheetId="26" r:id="rId29"/>
-    <sheet name="0904020002_OP-21.plm.plx.xlsx" sheetId="27" r:id="rId30"/>
-    <sheet name="0904020003_OP-20.plm.plx.xlsx" sheetId="28" r:id="rId31"/>
-    <sheet name="0904020003_OP-21.plm.plx.xlsx" sheetId="29" r:id="rId32"/>
-    <sheet name="0904020004_OP-20.plm.plx.xlsx" sheetId="30" r:id="rId33"/>
-    <sheet name="0904020004_OP-21.plm.plx.xlsx" sheetId="31" r:id="rId34"/>
-    <sheet name="0904020005_OP-20.plm.plx.xlsx" sheetId="32" r:id="rId35"/>
-    <sheet name="0904020005_OP-21.plm.plx.xlsx" sheetId="33" r:id="rId36"/>
-    <sheet name="0904020006_OP-20.plm.plx.xlsx" sheetId="34" r:id="rId37"/>
-    <sheet name="0904020006_OP-21.plm.plx.xlsx" sheetId="35" r:id="rId38"/>
-    <sheet name="0904040001_OP-20.plm.plx.xlsx" sheetId="36" r:id="rId39"/>
-    <sheet name="0904040002_OP-20.plm.plx.xlsx" sheetId="37" r:id="rId40"/>
-    <sheet name="0904040002_OP-21.plm.plx.xlsx" sheetId="38" r:id="rId41"/>
-    <sheet name="0904040003_OP-21.plm.plx.xlsx" sheetId="39" r:id="rId42"/>
-    <sheet name="1003010031_op-21.plm.plx.xlsx" sheetId="40" r:id="rId43"/>
-    <sheet name="1005010034_OP-21.pli.plx.xlsx" sheetId="41" r:id="rId44"/>
-    <sheet name="1005030035_OP-21.pli.plx.xlsx" sheetId="42" r:id="rId45"/>
-    <sheet name="1503040000_op-21.plm.plx.xlsx" sheetId="43" r:id="rId46"/>
-    <sheet name="2703030030_op-21.plm.plx.xlsx" sheetId="44" r:id="rId47"/>
-    <sheet name="2703040030_op-21.plm.plx.xlsx" sheetId="45" r:id="rId48"/>
-    <sheet name="2704030006_op-20.plm.plx.xlsx" sheetId="46" r:id="rId49"/>
-    <sheet name="2704030006_OP-21.plm..plx.xlsx" sheetId="47" r:id="rId50"/>
-    <sheet name="2704040001_OP-20.plm.plx.xlsx" sheetId="48" r:id="rId51"/>
-    <sheet name="2704040004_OP-20.plm.plx.xlsx" sheetId="49" r:id="rId52"/>
-    <sheet name="2704040005_OP-21.plm.plx.xlsx" sheetId="50" r:id="rId53"/>
+    <sheet name="0904010006_OP-20.plm.plx.xlsx" sheetId="20" r:id="rId23"/>
+    <sheet name="0904010010_OP-20.plm.plx.xlsx" sheetId="21" r:id="rId24"/>
+    <sheet name="0904010010_OP-21.plm.plx.xlsx" sheetId="22" r:id="rId25"/>
+    <sheet name="0904010011_OP-21.plm.plx.xlsx" sheetId="23" r:id="rId26"/>
+    <sheet name="0904010012_OP-21.plm.plx.xlsx" sheetId="24" r:id="rId27"/>
+    <sheet name="0904020001_OP-20.plm.plx.xlsx" sheetId="25" r:id="rId28"/>
+    <sheet name="0904020001_OP-21.plm.plx.xlsx" sheetId="26" r:id="rId29"/>
+    <sheet name="0904020002_OP-20.plm.plx.xlsx" sheetId="27" r:id="rId30"/>
+    <sheet name="0904020002_OP-21.plm.plx.xlsx" sheetId="28" r:id="rId31"/>
+    <sheet name="0904020003_OP-20.plm.plx.xlsx" sheetId="29" r:id="rId32"/>
+    <sheet name="0904020003_OP-21.plm.plx.xlsx" sheetId="30" r:id="rId33"/>
+    <sheet name="0904020004_OP-20.plm.plx.xlsx" sheetId="31" r:id="rId34"/>
+    <sheet name="0904020004_OP-21.plm.plx.xlsx" sheetId="32" r:id="rId35"/>
+    <sheet name="0904020005_OP-20.plm.plx.xlsx" sheetId="33" r:id="rId36"/>
+    <sheet name="0904020005_OP-21.plm.plx.xlsx" sheetId="34" r:id="rId37"/>
+    <sheet name="0904020006_OP-20.plm.plx.xlsx" sheetId="35" r:id="rId38"/>
+    <sheet name="0904020006_OP-21.plm.plx.xlsx" sheetId="36" r:id="rId39"/>
+    <sheet name="0904040001_OP-20.plm.plx.xlsx" sheetId="37" r:id="rId40"/>
+    <sheet name="0904040002_OP-20.plm.plx.xlsx" sheetId="38" r:id="rId41"/>
+    <sheet name="0904040002_OP-21.plm.plx.xlsx" sheetId="39" r:id="rId42"/>
+    <sheet name="0904040003_OP-21.plm.plx.xlsx" sheetId="40" r:id="rId43"/>
+    <sheet name="1003010031_op-21.plm.plx.xlsx" sheetId="41" r:id="rId44"/>
+    <sheet name="1005010034_OP-21.pli.plx.xlsx" sheetId="42" r:id="rId45"/>
+    <sheet name="1005030035_OP-21.pli.plx.xlsx" sheetId="43" r:id="rId46"/>
+    <sheet name="1503040000_op-21.plm.plx.xlsx" sheetId="44" r:id="rId47"/>
+    <sheet name="2703030030_op-21.plm.plx.xlsx" sheetId="45" r:id="rId48"/>
+    <sheet name="2703040030_op-21.plm.plx.xlsx" sheetId="46" r:id="rId49"/>
+    <sheet name="2704030006_op-20.plm.plx.xlsx" sheetId="47" r:id="rId50"/>
+    <sheet name="2704030006_OP-21.plm..plx.xlsx" sheetId="48" r:id="rId51"/>
+    <sheet name="2704040001_OP-20.plm.plx.xlsx" sheetId="49" r:id="rId52"/>
+    <sheet name="2704040004_OP-20.plm.plx.xlsx" sheetId="50" r:id="rId53"/>
+    <sheet name="2704040005_OP-21.plm.plx.xlsx" sheetId="51" r:id="rId54"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -113,6 +114,9 @@
     <t>Количество компонент связности</t>
   </si>
   <si>
+    <t>Минимальное оставное дерево</t>
+  </si>
+  <si>
     <t>DOPK</t>
   </si>
   <si>
@@ -161,6 +165,9 @@
     <t>8.000000</t>
   </si>
   <si>
+    <t>0.721311</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -197,6 +204,9 @@
     <t>1.000000</t>
   </si>
   <si>
+    <t>0.830645</t>
+  </si>
+  <si>
     <t>44.444444%</t>
   </si>
   <si>
@@ -227,6 +237,9 @@
     <t>3.000000</t>
   </si>
   <si>
+    <t>0.717742</t>
+  </si>
+  <si>
     <t>27.777778%</t>
   </si>
   <si>
@@ -260,6 +273,9 @@
     <t>7.000000</t>
   </si>
   <si>
+    <t>0.700820</t>
+  </si>
+  <si>
     <t>24.615385%</t>
   </si>
   <si>
@@ -287,6 +303,9 @@
     <t>11.000000</t>
   </si>
   <si>
+    <t>0.654472</t>
+  </si>
+  <si>
     <t>21.666667%</t>
   </si>
   <si>
@@ -317,6 +336,9 @@
     <t>6.000000</t>
   </si>
   <si>
+    <t>0.706967</t>
+  </si>
+  <si>
     <t>34.000000%</t>
   </si>
   <si>
@@ -341,6 +363,9 @@
     <t>0.094262</t>
   </si>
   <si>
+    <t>0.704918</t>
+  </si>
+  <si>
     <t>26.562500%</t>
   </si>
   <si>
@@ -365,6 +390,9 @@
     <t>0.126033</t>
   </si>
   <si>
+    <t>0.745868</t>
+  </si>
+  <si>
     <t>30.357143%</t>
   </si>
   <si>
@@ -389,6 +417,9 @@
     <t>0.182353</t>
   </si>
   <si>
+    <t>0.766667</t>
+  </si>
+  <si>
     <t>24.637681%</t>
   </si>
   <si>
@@ -410,6 +441,9 @@
     <t>14.000000</t>
   </si>
   <si>
+    <t>0.696721</t>
+  </si>
+  <si>
     <t>44.000000%</t>
   </si>
   <si>
@@ -434,6 +468,9 @@
     <t>0.225806</t>
   </si>
   <si>
+    <t>0.604839</t>
+  </si>
+  <si>
     <t>41.379310%</t>
   </si>
   <si>
@@ -452,6 +489,9 @@
     <t>0.379032</t>
   </si>
   <si>
+    <t>0.705645</t>
+  </si>
+  <si>
     <t>40.000000%</t>
   </si>
   <si>
@@ -473,6 +513,9 @@
     <t>9.000000</t>
   </si>
   <si>
+    <t>0.693548</t>
+  </si>
+  <si>
     <t>42.857143%</t>
   </si>
   <si>
@@ -482,12 +525,30 @@
     <t>0904010004_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>0904010006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>0.362903</t>
+  </si>
+  <si>
+    <t>0.701613</t>
+  </si>
+  <si>
+    <t>25.925926%</t>
+  </si>
+  <si>
+    <t>29.629630%</t>
+  </si>
+  <si>
     <t>0904010010_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
     <t>0.294355</t>
   </si>
   <si>
+    <t>0.737903</t>
+  </si>
+  <si>
     <t>23.333333%</t>
   </si>
   <si>
@@ -509,6 +570,9 @@
     <t>0.366935</t>
   </si>
   <si>
+    <t>0.709677</t>
+  </si>
+  <si>
     <t>28.571429%</t>
   </si>
   <si>
@@ -527,6 +591,9 @@
     <t>2.000000</t>
   </si>
   <si>
+    <t>0.689516</t>
+  </si>
+  <si>
     <t>43.478261%</t>
   </si>
   <si>
@@ -542,6 +609,9 @@
     <t>0.092742</t>
   </si>
   <si>
+    <t>0.451613</t>
+  </si>
+  <si>
     <t>0904020001_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
@@ -551,6 +621,9 @@
     <t>0.141129</t>
   </si>
   <si>
+    <t>0.633065</t>
+  </si>
+  <si>
     <t>37.931034%</t>
   </si>
   <si>
@@ -566,6 +639,9 @@
     <t>0.153226</t>
   </si>
   <si>
+    <t>0.532258</t>
+  </si>
+  <si>
     <t>27.586207%</t>
   </si>
   <si>
@@ -593,6 +669,9 @@
     <t>0904020006_OP-20.plm.plx.xlsx</t>
   </si>
   <si>
+    <t>0.556452</t>
+  </si>
+  <si>
     <t>0904020006_OP-21.plm.plx.xlsx</t>
   </si>
   <si>
@@ -608,6 +687,9 @@
     <t>0.346774</t>
   </si>
   <si>
+    <t>0.754032</t>
+  </si>
+  <si>
     <t>34.782609%</t>
   </si>
   <si>
@@ -629,6 +711,9 @@
     <t>128.000000</t>
   </si>
   <si>
+    <t>0.491935</t>
+  </si>
+  <si>
     <t>1003010031_op-21.plm.plx.xlsx</t>
   </si>
   <si>
@@ -638,6 +723,9 @@
     <t>0.075820</t>
   </si>
   <si>
+    <t>0.811475</t>
+  </si>
+  <si>
     <t>62.121212%</t>
   </si>
   <si>
@@ -665,6 +753,9 @@
     <t>0.071856</t>
   </si>
   <si>
+    <t>0.905689</t>
+  </si>
+  <si>
     <t>65.753425%</t>
   </si>
   <si>
@@ -683,6 +774,9 @@
     <t>74.000000</t>
   </si>
   <si>
+    <t>0.901198</t>
+  </si>
+  <si>
     <t>62.820513%</t>
   </si>
   <si>
@@ -701,6 +795,9 @@
     <t>58.000000</t>
   </si>
   <si>
+    <t>0.766393</t>
+  </si>
+  <si>
     <t>7.079646%</t>
   </si>
   <si>
@@ -725,6 +822,9 @@
     <t>0.114286</t>
   </si>
   <si>
+    <t>0.895918</t>
+  </si>
+  <si>
     <t>34.920635%</t>
   </si>
   <si>
@@ -743,6 +843,9 @@
     <t>0.135246</t>
   </si>
   <si>
+    <t>0.918033</t>
+  </si>
+  <si>
     <t>45.454545%</t>
   </si>
   <si>
@@ -767,6 +870,9 @@
     <t>0.136000</t>
   </si>
   <si>
+    <t>0.660000</t>
+  </si>
+  <si>
     <t>31.250000%</t>
   </si>
   <si>
@@ -782,6 +888,9 @@
     <t>0.108000</t>
   </si>
   <si>
+    <t>0.616000</t>
+  </si>
+  <si>
     <t>23.404255%</t>
   </si>
   <si>
@@ -797,6 +906,9 @@
     <t>0.165323</t>
   </si>
   <si>
+    <t>0.548387</t>
+  </si>
+  <si>
     <t>16.666667%</t>
   </si>
   <si>
@@ -833,6 +945,9 @@
     <t>0.193548</t>
   </si>
   <si>
+    <t>0.745968</t>
+  </si>
+  <si>
     <t>46.875000%</t>
   </si>
   <si>
@@ -866,6 +981,9 @@
     <t>14.000000 (0903040030_op-21.plm.plx.xlsx)</t>
   </si>
   <si>
+    <t>0.918033 (2703040030_op-21.plm.plx.xlsx)</t>
+  </si>
+  <si>
     <t>7.079646 (1503040000_op-21.plm.plx.xlsx)</t>
   </si>
   <si>
@@ -912,6 +1030,9 @@
   </si>
   <si>
     <t>1.000000 (0104020007_op-20.plm.plx.xlsx)</t>
+  </si>
+  <si>
+    <t>0.451613 (0904020001_OP-20.plm.plx.xlsx)</t>
   </si>
   <si>
     <t>15.094340 (2704040004_OP-20.plm.plx.xlsx)</t>
@@ -1453,2505 +1574,2711 @@
       <c r="P1" t="s">
         <v>16</v>
       </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s">
-        <v>70</v>
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
         <v>125</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" t="s">
-        <v>114</v>
-      </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
         <v>126</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" t="s">
-        <v>115</v>
-      </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N18" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>28</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>28</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>28</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="K21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="O21" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>28</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
         <v>144</v>
       </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" t="s">
-        <v>148</v>
-      </c>
-      <c r="N22" t="s">
-        <v>149</v>
-      </c>
       <c r="O22" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>28</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M23" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N23" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="O23" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="P23" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="H24" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N24" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>28</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="K26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="O26" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>28</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
         <v>159</v>
       </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="J27" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="N27" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="O27" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>28</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" t="s">
         <v>129</v>
       </c>
-      <c r="G28" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" t="s">
-        <v>117</v>
-      </c>
-      <c r="N28" t="s">
-        <v>157</v>
-      </c>
       <c r="O28" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>28</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" t="s">
+        <v>185</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" t="s">
         <v>129</v>
       </c>
-      <c r="G29" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" t="s">
-        <v>130</v>
-      </c>
-      <c r="N29" t="s">
-        <v>131</v>
-      </c>
       <c r="O29" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M30" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N30" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O30" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N31" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O31" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="P31" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N32" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O32" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G33" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M33" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N33" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O33" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="P33" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G34" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N34" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O34" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M35" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O35" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>28</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M36" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="N36" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="O36" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="P36" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M37" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="N37" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="O37" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="P37" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="K38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M38" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="N38" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="O38" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>28</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
         <v>184</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M39" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="N39" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O39" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>28</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I40" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M40" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O40" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>28</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="H41" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I41" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="J41" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M41" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="N41" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O41" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>28</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="J42" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L42" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="M42" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="N42" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="O42" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="P42" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" t="s">
         <v>72</v>
       </c>
-      <c r="D43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>212</v>
       </c>
-      <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>213</v>
-      </c>
       <c r="H43" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I43" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="L43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M43" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="N43" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="O43" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>28</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I44" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="J44" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="K44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M44" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="N44" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="O44" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>28</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="J45" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="K45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L45" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M45" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N45" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="O45" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="P45" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M46" t="s">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="N46" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="O46" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>264</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="H47" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="K47" t="s">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="M47" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="O47" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="P47" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="K48" t="s">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="L48" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="N48" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="O48" t="s">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="P48" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="G49" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J49" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="K49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L49" t="s">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="M49" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="N49" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="O49" t="s">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="P49" t="s">
-        <v>251</v>
+        <v>28</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="B50" t="s">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="H50" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="I50" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="J50" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="K50" t="s">
-        <v>262</v>
+        <v>28</v>
       </c>
       <c r="L50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" t="s">
         <v>263</v>
       </c>
-      <c r="M50" t="s">
-        <v>264</v>
-      </c>
-      <c r="N50" t="s">
-        <v>265</v>
-      </c>
       <c r="O50" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="P50" t="s">
-        <v>267</v>
+        <v>28</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C51" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="D51" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="F51" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G51" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="H51" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I51" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J51" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="K51" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="L51" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="M51" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="N51" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="O51" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="P51" t="s">
-        <v>281</v>
+        <v>305</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" t="s">
+        <v>308</v>
+      </c>
+      <c r="C52" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" t="s">
+        <v>311</v>
+      </c>
+      <c r="F52" t="s">
+        <v>312</v>
+      </c>
+      <c r="G52" t="s">
+        <v>313</v>
+      </c>
+      <c r="H52" t="s">
+        <v>314</v>
+      </c>
+      <c r="I52" t="s">
+        <v>315</v>
+      </c>
+      <c r="J52" t="s">
+        <v>316</v>
+      </c>
+      <c r="K52" t="s">
+        <v>300</v>
+      </c>
+      <c r="L52" t="s">
+        <v>317</v>
+      </c>
+      <c r="M52" t="s">
+        <v>318</v>
+      </c>
+      <c r="N52" t="s">
+        <v>319</v>
+      </c>
+      <c r="O52" t="s">
+        <v>320</v>
+      </c>
+      <c r="P52" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4367,6 +4694,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -14,55 +14,55 @@
   </bookViews>
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
-    <sheet name="0103040030_op-21.plm.plx.xlsx" sheetId="3" r:id="rId6"/>
-    <sheet name="0104020007_op-20.plm.plx.xlsx" sheetId="4" r:id="rId7"/>
-    <sheet name="0104020009_OP-20.plm.plx.xlsx" sheetId="5" r:id="rId8"/>
-    <sheet name="0104020009_OP-21.plm.plx.xlsx" sheetId="6" r:id="rId9"/>
-    <sheet name="0903010030_op-21.plm.plx.xlsx" sheetId="7" r:id="rId10"/>
-    <sheet name="0903020030_op-21.plm.plx.xlsx" sheetId="8" r:id="rId11"/>
-    <sheet name="0903030031_OP-21.plm.plx.xlsx" sheetId="9" r:id="rId12"/>
-    <sheet name="0903030032_OP-20.plm.plx.xlsx" sheetId="10" r:id="rId13"/>
-    <sheet name="0903030033_OP-21.plm.plx.xlsx" sheetId="11" r:id="rId14"/>
-    <sheet name="0903030035_OP-21.plm.plx.xlsx" sheetId="12" r:id="rId15"/>
-    <sheet name="0903040030_op-21.plm.plx.xlsx" sheetId="13" r:id="rId16"/>
-    <sheet name="0904010001_OP-20.plm.plx.xlsx" sheetId="14" r:id="rId17"/>
-    <sheet name="0904010001_OP-21.plm.plx.xlsx" sheetId="15" r:id="rId18"/>
-    <sheet name="0904010003_OP-20.plm.plx.xlsx" sheetId="16" r:id="rId19"/>
-    <sheet name="0904010003_OP-21.plm.plx.xlsx" sheetId="17" r:id="rId20"/>
-    <sheet name="0904010004_OP-20.plm.plx.xlsx" sheetId="18" r:id="rId21"/>
-    <sheet name="0904010004_OP-21.plm.plx.xlsx" sheetId="19" r:id="rId22"/>
-    <sheet name="0904010006_OP-20.plm.plx.xlsx" sheetId="20" r:id="rId23"/>
-    <sheet name="0904010010_OP-20.plm.plx.xlsx" sheetId="21" r:id="rId24"/>
-    <sheet name="0904010010_OP-21.plm.plx.xlsx" sheetId="22" r:id="rId25"/>
-    <sheet name="0904010011_OP-21.plm.plx.xlsx" sheetId="23" r:id="rId26"/>
-    <sheet name="0904010012_OP-21.plm.plx.xlsx" sheetId="24" r:id="rId27"/>
-    <sheet name="0904020001_OP-20.plm.plx.xlsx" sheetId="25" r:id="rId28"/>
-    <sheet name="0904020001_OP-21.plm.plx.xlsx" sheetId="26" r:id="rId29"/>
-    <sheet name="0904020002_OP-20.plm.plx.xlsx" sheetId="27" r:id="rId30"/>
-    <sheet name="0904020002_OP-21.plm.plx.xlsx" sheetId="28" r:id="rId31"/>
-    <sheet name="0904020003_OP-20.plm.plx.xlsx" sheetId="29" r:id="rId32"/>
-    <sheet name="0904020003_OP-21.plm.plx.xlsx" sheetId="30" r:id="rId33"/>
-    <sheet name="0904020004_OP-20.plm.plx.xlsx" sheetId="31" r:id="rId34"/>
-    <sheet name="0904020004_OP-21.plm.plx.xlsx" sheetId="32" r:id="rId35"/>
-    <sheet name="0904020005_OP-20.plm.plx.xlsx" sheetId="33" r:id="rId36"/>
-    <sheet name="0904020005_OP-21.plm.plx.xlsx" sheetId="34" r:id="rId37"/>
-    <sheet name="0904020006_OP-20.plm.plx.xlsx" sheetId="35" r:id="rId38"/>
-    <sheet name="0904020006_OP-21.plm.plx.xlsx" sheetId="36" r:id="rId39"/>
-    <sheet name="0904040001_OP-20.plm.plx.xlsx" sheetId="37" r:id="rId40"/>
-    <sheet name="0904040002_OP-20.plm.plx.xlsx" sheetId="38" r:id="rId41"/>
-    <sheet name="0904040002_OP-21.plm.plx.xlsx" sheetId="39" r:id="rId42"/>
-    <sheet name="0904040003_OP-21.plm.plx.xlsx" sheetId="40" r:id="rId43"/>
-    <sheet name="1003010031_op-21.plm.plx.xlsx" sheetId="41" r:id="rId44"/>
-    <sheet name="1005010034_OP-21.pli.plx.xlsx" sheetId="42" r:id="rId45"/>
-    <sheet name="1005030035_OP-21.pli.plx.xlsx" sheetId="43" r:id="rId46"/>
-    <sheet name="1503040000_op-21.plm.plx.xlsx" sheetId="44" r:id="rId47"/>
-    <sheet name="2703030030_op-21.plm.plx.xlsx" sheetId="45" r:id="rId48"/>
-    <sheet name="2703040030_op-21.plm.plx.xlsx" sheetId="46" r:id="rId49"/>
-    <sheet name="2704030006_op-20.plm.plx.xlsx" sheetId="47" r:id="rId50"/>
-    <sheet name="2704030006_OP-21.plm..plx.xlsx" sheetId="48" r:id="rId51"/>
-    <sheet name="2704040001_OP-20.plm.plx.xlsx" sheetId="49" r:id="rId52"/>
-    <sheet name="2704040004_OP-20.plm.plx.xlsx" sheetId="50" r:id="rId53"/>
-    <sheet name="2704040005_OP-21.plm.plx.xlsx" sheetId="51" r:id="rId54"/>
+    <sheet name="0103040030_op-21" sheetId="3" r:id="rId6"/>
+    <sheet name="0104020007_op-20" sheetId="4" r:id="rId7"/>
+    <sheet name="0104020009_OP-20" sheetId="5" r:id="rId8"/>
+    <sheet name="0104020009_OP-21" sheetId="6" r:id="rId9"/>
+    <sheet name="0903010030_op-21" sheetId="7" r:id="rId10"/>
+    <sheet name="0903020030_op-21" sheetId="8" r:id="rId11"/>
+    <sheet name="0903030031_OP-21" sheetId="9" r:id="rId12"/>
+    <sheet name="0903030032_OP-20" sheetId="10" r:id="rId13"/>
+    <sheet name="0903030033_OP-21" sheetId="11" r:id="rId14"/>
+    <sheet name="0903030035_OP-21" sheetId="12" r:id="rId15"/>
+    <sheet name="0903040030_op-21" sheetId="13" r:id="rId16"/>
+    <sheet name="0904010001_OP-20" sheetId="14" r:id="rId17"/>
+    <sheet name="0904010001_OP-21" sheetId="15" r:id="rId18"/>
+    <sheet name="0904010003_OP-20" sheetId="16" r:id="rId19"/>
+    <sheet name="0904010003_OP-21" sheetId="17" r:id="rId20"/>
+    <sheet name="0904010004_OP-20" sheetId="18" r:id="rId21"/>
+    <sheet name="0904010004_OP-21" sheetId="19" r:id="rId22"/>
+    <sheet name="0904010006_OP-20" sheetId="20" r:id="rId23"/>
+    <sheet name="0904010010_OP-20" sheetId="21" r:id="rId24"/>
+    <sheet name="0904010010_OP-21" sheetId="22" r:id="rId25"/>
+    <sheet name="0904010011_OP-21" sheetId="23" r:id="rId26"/>
+    <sheet name="0904010012_OP-21" sheetId="24" r:id="rId27"/>
+    <sheet name="0904020001_OP-20" sheetId="25" r:id="rId28"/>
+    <sheet name="0904020001_OP-21" sheetId="26" r:id="rId29"/>
+    <sheet name="0904020002_OP-20" sheetId="27" r:id="rId30"/>
+    <sheet name="0904020002_OP-21" sheetId="28" r:id="rId31"/>
+    <sheet name="0904020003_OP-20" sheetId="29" r:id="rId32"/>
+    <sheet name="0904020003_OP-21" sheetId="30" r:id="rId33"/>
+    <sheet name="0904020004_OP-20" sheetId="31" r:id="rId34"/>
+    <sheet name="0904020004_OP-21" sheetId="32" r:id="rId35"/>
+    <sheet name="0904020005_OP-20" sheetId="33" r:id="rId36"/>
+    <sheet name="0904020005_OP-21" sheetId="34" r:id="rId37"/>
+    <sheet name="0904020006_OP-20" sheetId="35" r:id="rId38"/>
+    <sheet name="0904020006_OP-21" sheetId="36" r:id="rId39"/>
+    <sheet name="0904040001_OP-20" sheetId="37" r:id="rId40"/>
+    <sheet name="0904040002_OP-20" sheetId="38" r:id="rId41"/>
+    <sheet name="0904040002_OP-21" sheetId="39" r:id="rId42"/>
+    <sheet name="0904040003_OP-21" sheetId="40" r:id="rId43"/>
+    <sheet name="1003010031_op-21" sheetId="41" r:id="rId44"/>
+    <sheet name="1005010034_OP-21" sheetId="42" r:id="rId45"/>
+    <sheet name="1005030035_OP-21" sheetId="43" r:id="rId46"/>
+    <sheet name="1503040000_op-21" sheetId="44" r:id="rId47"/>
+    <sheet name="2703030030_op-21" sheetId="45" r:id="rId48"/>
+    <sheet name="2703040030_op-21" sheetId="46" r:id="rId49"/>
+    <sheet name="2704030006_op-20" sheetId="47" r:id="rId50"/>
+    <sheet name="2704030006_OP-21" sheetId="48" r:id="rId51"/>
+    <sheet name="2704040001_OP-20" sheetId="49" r:id="rId52"/>
+    <sheet name="2704040004_OP-20" sheetId="50" r:id="rId53"/>
+    <sheet name="2704040005_OP-21" sheetId="51" r:id="rId54"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -117,6 +117,9 @@
     <t>Минимальное оставное дерево</t>
   </si>
   <si>
+    <t>Максимальное оставное дерево</t>
+  </si>
+  <si>
     <t>DOPK</t>
   </si>
   <si>
@@ -138,7 +141,7 @@
     <t>UK</t>
   </si>
   <si>
-    <t>0103040030_op-21.plm.plx.xlsx</t>
+    <t>0103040030_op-21</t>
   </si>
   <si>
     <t>244.000000</t>
@@ -168,6 +171,9 @@
     <t>0.721311</t>
   </si>
   <si>
+    <t>1.424180</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -180,7 +186,7 @@
     <t>20.338983%</t>
   </si>
   <si>
-    <t>0104020007_op-20.plm.plx.xlsx</t>
+    <t>0104020007_op-20</t>
   </si>
   <si>
     <t>124.000000</t>
@@ -207,6 +213,9 @@
     <t>0.830645</t>
   </si>
   <si>
+    <t>1.806452</t>
+  </si>
+  <si>
     <t>44.444444%</t>
   </si>
   <si>
@@ -216,7 +225,7 @@
     <t>33.333333%</t>
   </si>
   <si>
-    <t>0104020009_OP-20.plm.plx.xlsx</t>
+    <t>0104020009_OP-20</t>
   </si>
   <si>
     <t>23.000000</t>
@@ -240,6 +249,9 @@
     <t>0.717742</t>
   </si>
   <si>
+    <t>4.911290</t>
+  </si>
+  <si>
     <t>27.777778%</t>
   </si>
   <si>
@@ -249,10 +261,10 @@
     <t>47.222222%</t>
   </si>
   <si>
-    <t>0104020009_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0903010030_op-21.plm.plx.xlsx</t>
+    <t>0104020009_OP-21</t>
+  </si>
+  <si>
+    <t>0903010030_op-21</t>
   </si>
   <si>
     <t>56.000000</t>
@@ -276,6 +288,9 @@
     <t>0.700820</t>
   </si>
   <si>
+    <t>1.182377</t>
+  </si>
+  <si>
     <t>24.615385%</t>
   </si>
   <si>
@@ -285,7 +300,7 @@
     <t>41.538462%</t>
   </si>
   <si>
-    <t>0903020030_op-21.plm.plx.xlsx</t>
+    <t>0903020030_op-21</t>
   </si>
   <si>
     <t>246.000000</t>
@@ -306,6 +321,9 @@
     <t>0.654472</t>
   </si>
   <si>
+    <t>0.979675</t>
+  </si>
+  <si>
     <t>21.666667%</t>
   </si>
   <si>
@@ -315,7 +333,7 @@
     <t>28.333333%</t>
   </si>
   <si>
-    <t>0903030031_OP-21.plm.plx.xlsx</t>
+    <t>0903030031_OP-21</t>
   </si>
   <si>
     <t>51.000000</t>
@@ -339,6 +357,9 @@
     <t>0.706967</t>
   </si>
   <si>
+    <t>0.989754</t>
+  </si>
+  <si>
     <t>34.000000%</t>
   </si>
   <si>
@@ -348,7 +369,7 @@
     <t>28.000000%</t>
   </si>
   <si>
-    <t>0903030032_OP-20.plm.plx.xlsx</t>
+    <t>0903030032_OP-20</t>
   </si>
   <si>
     <t>52.000000</t>
@@ -366,6 +387,9 @@
     <t>0.704918</t>
   </si>
   <si>
+    <t>1.211066</t>
+  </si>
+  <si>
     <t>26.562500%</t>
   </si>
   <si>
@@ -375,7 +399,7 @@
     <t>40.625000%</t>
   </si>
   <si>
-    <t>0903030033_OP-21.plm.plx.xlsx</t>
+    <t>0903030033_OP-21</t>
   </si>
   <si>
     <t>242.000000</t>
@@ -393,6 +417,9 @@
     <t>0.745868</t>
   </si>
   <si>
+    <t>1.512397</t>
+  </si>
+  <si>
     <t>30.357143%</t>
   </si>
   <si>
@@ -402,7 +429,7 @@
     <t>35.714286%</t>
   </si>
   <si>
-    <t>0903030035_OP-21.plm.plx.xlsx</t>
+    <t>0903030035_OP-21</t>
   </si>
   <si>
     <t>255.000000</t>
@@ -420,6 +447,9 @@
     <t>0.766667</t>
   </si>
   <si>
+    <t>1.427451</t>
+  </si>
+  <si>
     <t>24.637681%</t>
   </si>
   <si>
@@ -429,7 +459,7 @@
     <t>36.231884%</t>
   </si>
   <si>
-    <t>0903040030_op-21.plm.plx.xlsx</t>
+    <t>0903040030_op-21</t>
   </si>
   <si>
     <t>293.000000</t>
@@ -444,6 +474,9 @@
     <t>0.696721</t>
   </si>
   <si>
+    <t>1.633197</t>
+  </si>
+  <si>
     <t>44.000000%</t>
   </si>
   <si>
@@ -453,7 +486,7 @@
     <t>30.000000%</t>
   </si>
   <si>
-    <t>0904010001_OP-20.plm.plx.xlsx</t>
+    <t>0904010001_OP-20</t>
   </si>
   <si>
     <t>134.000000</t>
@@ -471,6 +504,9 @@
     <t>0.604839</t>
   </si>
   <si>
+    <t>0.826613</t>
+  </si>
+  <si>
     <t>41.379310%</t>
   </si>
   <si>
@@ -480,10 +516,10 @@
     <t>34.482759%</t>
   </si>
   <si>
-    <t>0904010001_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904010003_OP-20.plm.plx.xlsx</t>
+    <t>0904010001_OP-21</t>
+  </si>
+  <si>
+    <t>0904010003_OP-20</t>
   </si>
   <si>
     <t>0.379032</t>
@@ -492,16 +528,19 @@
     <t>0.705645</t>
   </si>
   <si>
+    <t>1.068548</t>
+  </si>
+  <si>
     <t>40.000000%</t>
   </si>
   <si>
     <t>26.666667%</t>
   </si>
   <si>
-    <t>0904010003_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904010004_OP-20.plm.plx.xlsx</t>
+    <t>0904010003_OP-21</t>
+  </si>
+  <si>
+    <t>0904010004_OP-20</t>
   </si>
   <si>
     <t>133.000000</t>
@@ -516,16 +555,19 @@
     <t>0.693548</t>
   </si>
   <si>
+    <t>1.052419</t>
+  </si>
+  <si>
     <t>42.857143%</t>
   </si>
   <si>
     <t>32.142857%</t>
   </si>
   <si>
-    <t>0904010004_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904010006_OP-20.plm.plx.xlsx</t>
+    <t>0904010004_OP-21</t>
+  </si>
+  <si>
+    <t>0904010006_OP-20</t>
   </si>
   <si>
     <t>0.362903</t>
@@ -534,13 +576,16 @@
     <t>0.701613</t>
   </si>
   <si>
+    <t>0.927419</t>
+  </si>
+  <si>
     <t>25.925926%</t>
   </si>
   <si>
     <t>29.629630%</t>
   </si>
   <si>
-    <t>0904010010_OP-20.plm.plx.xlsx</t>
+    <t>0904010010_OP-20</t>
   </si>
   <si>
     <t>0.294355</t>
@@ -555,10 +600,10 @@
     <t>36.666667%</t>
   </si>
   <si>
-    <t>0904010010_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904010011_OP-21.plm.plx.xlsx</t>
+    <t>0904010010_OP-21</t>
+  </si>
+  <si>
+    <t>0904010011_OP-21</t>
   </si>
   <si>
     <t>26.000000</t>
@@ -573,10 +618,13 @@
     <t>0.709677</t>
   </si>
   <si>
+    <t>0.979839</t>
+  </si>
+  <si>
     <t>28.571429%</t>
   </si>
   <si>
-    <t>0904010012_OP-21.plm.plx.xlsx</t>
+    <t>0904010012_OP-21</t>
   </si>
   <si>
     <t>22.000000</t>
@@ -594,6 +642,9 @@
     <t>0.689516</t>
   </si>
   <si>
+    <t>1.201613</t>
+  </si>
+  <si>
     <t>43.478261%</t>
   </si>
   <si>
@@ -603,7 +654,7 @@
     <t>30.434783%</t>
   </si>
   <si>
-    <t>0904020001_OP-20.plm.plx.xlsx</t>
+    <t>0904020001_OP-20</t>
   </si>
   <si>
     <t>0.092742</t>
@@ -612,10 +663,13 @@
     <t>0.451613</t>
   </si>
   <si>
-    <t>0904020001_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904020002_OP-20.plm.plx.xlsx</t>
+    <t>0.552419</t>
+  </si>
+  <si>
+    <t>0904020001_OP-21</t>
+  </si>
+  <si>
+    <t>0904020002_OP-20</t>
   </si>
   <si>
     <t>0.141129</t>
@@ -624,16 +678,19 @@
     <t>0.633065</t>
   </si>
   <si>
+    <t>0.822581</t>
+  </si>
+  <si>
     <t>37.931034%</t>
   </si>
   <si>
     <t>31.034483%</t>
   </si>
   <si>
-    <t>0904020002_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904020003_OP-20.plm.plx.xlsx</t>
+    <t>0904020002_OP-21</t>
+  </si>
+  <si>
+    <t>0904020003_OP-20</t>
   </si>
   <si>
     <t>0.153226</t>
@@ -642,40 +699,52 @@
     <t>0.532258</t>
   </si>
   <si>
+    <t>0.620968</t>
+  </si>
+  <si>
     <t>27.586207%</t>
   </si>
   <si>
-    <t>0904020003_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904020004_OP-20.plm.plx.xlsx</t>
+    <t>0904020003_OP-21</t>
+  </si>
+  <si>
+    <t>0904020004_OP-20</t>
   </si>
   <si>
     <t>0.149194</t>
   </si>
   <si>
-    <t>0904020004_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904020005_OP-20.plm.plx.xlsx</t>
+    <t>0.612903</t>
+  </si>
+  <si>
+    <t>0904020004_OP-21</t>
+  </si>
+  <si>
+    <t>0904020005_OP-20</t>
   </si>
   <si>
     <t>0.177419</t>
   </si>
   <si>
-    <t>0904020005_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904020006_OP-20.plm.plx.xlsx</t>
+    <t>0.629032</t>
+  </si>
+  <si>
+    <t>0904020005_OP-21</t>
+  </si>
+  <si>
+    <t>0904020006_OP-20</t>
   </si>
   <si>
     <t>0.556452</t>
   </si>
   <si>
-    <t>0904020006_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904040001_OP-20.plm.plx.xlsx</t>
+    <t>0.625000</t>
+  </si>
+  <si>
+    <t>0904020006_OP-21</t>
+  </si>
+  <si>
+    <t>0904040001_OP-20</t>
   </si>
   <si>
     <t>21.000000</t>
@@ -690,22 +759,28 @@
     <t>0.754032</t>
   </si>
   <si>
+    <t>0.858871</t>
+  </si>
+  <si>
     <t>34.782609%</t>
   </si>
   <si>
-    <t>0904040002_OP-20.plm.plx.xlsx</t>
+    <t>0904040002_OP-20</t>
   </si>
   <si>
     <t>0.189516</t>
   </si>
   <si>
+    <t>0.649194</t>
+  </si>
+  <si>
     <t>38.095238%</t>
   </si>
   <si>
-    <t>0904040002_OP-21.plm.plx.xlsx</t>
-  </si>
-  <si>
-    <t>0904040003_OP-21.plm.plx.xlsx</t>
+    <t>0904040002_OP-21</t>
+  </si>
+  <si>
+    <t>0904040003_OP-21</t>
   </si>
   <si>
     <t>128.000000</t>
@@ -714,7 +789,10 @@
     <t>0.491935</t>
   </si>
   <si>
-    <t>1003010031_op-21.plm.plx.xlsx</t>
+    <t>0.536290</t>
+  </si>
+  <si>
+    <t>1003010031_op-21</t>
   </si>
   <si>
     <t>61.000000</t>
@@ -726,6 +804,9 @@
     <t>0.811475</t>
   </si>
   <si>
+    <t>2.151639</t>
+  </si>
+  <si>
     <t>62.121212%</t>
   </si>
   <si>
@@ -735,7 +816,7 @@
     <t>27.272727%</t>
   </si>
   <si>
-    <t>1005010034_OP-21.pli.plx.xlsx</t>
+    <t>1005010034_OP-21</t>
   </si>
   <si>
     <t>334.000000</t>
@@ -756,6 +837,9 @@
     <t>0.905689</t>
   </si>
   <si>
+    <t>1.598802</t>
+  </si>
+  <si>
     <t>65.753425%</t>
   </si>
   <si>
@@ -765,7 +849,7 @@
     <t>19.178082%</t>
   </si>
   <si>
-    <t>1005030035_OP-21.pli.plx.xlsx</t>
+    <t>1005030035_OP-21</t>
   </si>
   <si>
     <t>72.000000</t>
@@ -777,6 +861,9 @@
     <t>0.901198</t>
   </si>
   <si>
+    <t>2.038922</t>
+  </si>
+  <si>
     <t>62.820513%</t>
   </si>
   <si>
@@ -786,7 +873,7 @@
     <t>21.794872%</t>
   </si>
   <si>
-    <t>1503040000_op-21.plm.plx.xlsx</t>
+    <t>1503040000_op-21</t>
   </si>
   <si>
     <t>276.000000</t>
@@ -798,6 +885,9 @@
     <t>0.766393</t>
   </si>
   <si>
+    <t>3.973361</t>
+  </si>
+  <si>
     <t>7.079646%</t>
   </si>
   <si>
@@ -810,7 +900,7 @@
     <t>35.398230%</t>
   </si>
   <si>
-    <t>2703030030_op-21.plm.plx.xlsx</t>
+    <t>2703030030_op-21</t>
   </si>
   <si>
     <t>245.000000</t>
@@ -825,6 +915,9 @@
     <t>0.895918</t>
   </si>
   <si>
+    <t>2.681633</t>
+  </si>
+  <si>
     <t>34.920635%</t>
   </si>
   <si>
@@ -834,7 +927,7 @@
     <t>41.269841%</t>
   </si>
   <si>
-    <t>2703040030_op-21.plm.plx.xlsx</t>
+    <t>2703040030_op-21</t>
   </si>
   <si>
     <t>259.000000</t>
@@ -846,6 +939,9 @@
     <t>0.918033</t>
   </si>
   <si>
+    <t>2.075820</t>
+  </si>
+  <si>
     <t>45.454545%</t>
   </si>
   <si>
@@ -855,7 +951,7 @@
     <t>25.454545%</t>
   </si>
   <si>
-    <t>2704030006_op-20.plm.plx.xlsx</t>
+    <t>2704030006_op-20</t>
   </si>
   <si>
     <t>125.000000</t>
@@ -873,13 +969,16 @@
     <t>0.660000</t>
   </si>
   <si>
+    <t>3.936000</t>
+  </si>
+  <si>
     <t>31.250000%</t>
   </si>
   <si>
     <t>18.750000%</t>
   </si>
   <si>
-    <t>2704030006_OP-21.plm..plx.xlsx</t>
+    <t>2704030006_OP-21</t>
   </si>
   <si>
     <t>131.000000</t>
@@ -891,13 +990,16 @@
     <t>0.616000</t>
   </si>
   <si>
+    <t>4.096000</t>
+  </si>
+  <si>
     <t>23.404255%</t>
   </si>
   <si>
     <t>38.297872%</t>
   </si>
   <si>
-    <t>2704040001_OP-20.plm.plx.xlsx</t>
+    <t>2704040001_OP-20</t>
   </si>
   <si>
     <t>149.000000</t>
@@ -909,6 +1011,9 @@
     <t>0.548387</t>
   </si>
   <si>
+    <t>10.270161</t>
+  </si>
+  <si>
     <t>16.666667%</t>
   </si>
   <si>
@@ -918,7 +1023,7 @@
     <t>35.416667%</t>
   </si>
   <si>
-    <t>2704040004_OP-20.plm.plx.xlsx</t>
+    <t>2704040004_OP-20</t>
   </si>
   <si>
     <t>146.000000</t>
@@ -927,6 +1032,9 @@
     <t>0.306452</t>
   </si>
   <si>
+    <t>9.854839</t>
+  </si>
+  <si>
     <t>15.094340%</t>
   </si>
   <si>
@@ -936,7 +1044,7 @@
     <t>37.735849%</t>
   </si>
   <si>
-    <t>2704040005_OP-21.plm.plx.xlsx</t>
+    <t>2704040005_OP-21</t>
   </si>
   <si>
     <t>142.000000</t>
@@ -948,6 +1056,9 @@
     <t>0.745968</t>
   </si>
   <si>
+    <t>4.036290</t>
+  </si>
+  <si>
     <t>46.875000%</t>
   </si>
   <si>
@@ -957,97 +1068,103 @@
     <t>Максимальные значения:</t>
   </si>
   <si>
-    <t>334.000000 (1005010034_OP-21.pli.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>72.000000 (1005030035_OP-21.pli.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>340.000000 (1005010034_OP-21.pli.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>83.000000 (0903020030_op-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>30.000000 (0104020009_OP-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>0.379032 (0904010003_OP-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>10.000000 (0903030035_OP-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>14.000000 (0903040030_op-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>0.918033 (2703040030_op-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>7.079646 (1503040000_op-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>16.666667 (2704040001_OP-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>31.858407 (1503040000_op-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>65.753425 (1005010034_OP-21.pli.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>50.000000 (0903020030_op-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>18.750000 (2704030006_op-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>47.222222 (0104020009_OP-20.plm.plx.xlsx)</t>
+    <t>334.000000 (1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>72.000000 (1005030035_OP-21)</t>
+  </si>
+  <si>
+    <t>340.000000 (1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>83.000000 (0903020030_op-21)</t>
+  </si>
+  <si>
+    <t>30.000000 (0104020009_OP-20)</t>
+  </si>
+  <si>
+    <t>0.379032 (0904010003_OP-20)</t>
+  </si>
+  <si>
+    <t>10.000000 (0903030035_OP-21)</t>
+  </si>
+  <si>
+    <t>14.000000 (0903040030_op-21)</t>
+  </si>
+  <si>
+    <t>0.918033 (2703040030_op-21)</t>
+  </si>
+  <si>
+    <t>10.270161 (2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>7.079646 (1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>16.666667 (2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>31.858407 (1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>65.753425 (1005010034_OP-21)</t>
+  </si>
+  <si>
+    <t>50.000000 (0903020030_op-21)</t>
+  </si>
+  <si>
+    <t>18.750000 (2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>47.222222 (0104020009_OP-20)</t>
   </si>
   <si>
     <t>Минимальные значения:</t>
   </si>
   <si>
-    <t>124.000000 (0104020007_op-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>17.000000 (0104020007_op-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>128.000000 (0904040003_OP-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>20.000000 (0104020007_op-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>9.000000 (0904010012_OP-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>0.065574 (0103040030_op-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>2.000000 (0904020001_OP-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>1.000000 (0104020007_op-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>0.451613 (0904020001_OP-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>15.094340 (2704040004_OP-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>14.583333 (2704040001_OP-20.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>21.666667 (0903020030_op-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>10.606061 (1003010031_op-21.plm.plx.xlsx)</t>
-  </si>
-  <si>
-    <t>19.178082 (1005010034_OP-21.pli.plx.xlsx)</t>
+    <t>124.000000 (0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>17.000000 (0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>128.000000 (0904040003_OP-21)</t>
+  </si>
+  <si>
+    <t>20.000000 (0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>9.000000 (0904010012_OP-21)</t>
+  </si>
+  <si>
+    <t>0.065574 (0103040030_op-21)</t>
+  </si>
+  <si>
+    <t>2.000000 (0904020001_OP-20)</t>
+  </si>
+  <si>
+    <t>1.000000 (0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>0.451613 (0904020001_OP-20)</t>
+  </si>
+  <si>
+    <t>0.536290 (0904040003_OP-21)</t>
+  </si>
+  <si>
+    <t>15.094340 (2704040004_OP-20)</t>
+  </si>
+  <si>
+    <t>14.583333 (2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>21.666667 (0903020030_op-21)</t>
+  </si>
+  <si>
+    <t>10.606061 (1003010031_op-21)</t>
+  </si>
+  <si>
+    <t>19.178082 (1005010034_OP-21)</t>
   </si>
 </sst>
 </file>
@@ -1577,2708 +1694,2864 @@
       <c r="Q1" t="s">
         <v>17</v>
       </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="Q7" t="s">
-        <v>76</v>
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="Q8" t="s">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="Q9" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="Q10" t="s">
-        <v>105</v>
+        <v>30</v>
+      </c>
+      <c r="R10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="Q11" t="s">
-        <v>114</v>
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="Q12" t="s">
-        <v>122</v>
+        <v>30</v>
+      </c>
+      <c r="R12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P13" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="Q13" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="R13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P14" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="Q14" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="R15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="Q16" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="R16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="Q17" t="s">
-        <v>145</v>
+        <v>30</v>
+      </c>
+      <c r="R17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="Q18" t="s">
-        <v>145</v>
+        <v>30</v>
+      </c>
+      <c r="R18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="Q19" t="s">
-        <v>151</v>
+        <v>30</v>
+      </c>
+      <c r="R19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="P20" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="Q20" t="s">
-        <v>156</v>
+        <v>30</v>
+      </c>
+      <c r="R20" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="P21" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="Q21" t="s">
-        <v>156</v>
+        <v>30</v>
+      </c>
+      <c r="R21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
         <v>158</v>
       </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" t="s">
-        <v>162</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" t="s">
-        <v>144</v>
-      </c>
-      <c r="O22" t="s">
-        <v>163</v>
-      </c>
       <c r="P22" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="Q22" t="s">
-        <v>163</v>
+        <v>30</v>
+      </c>
+      <c r="R22" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N23" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P23" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="Q23" t="s">
-        <v>172</v>
+        <v>30</v>
+      </c>
+      <c r="R23" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" t="s">
-        <v>168</v>
-      </c>
-      <c r="I24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" t="s">
-        <v>175</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" t="s">
-        <v>144</v>
-      </c>
-      <c r="O24" t="s">
-        <v>145</v>
-      </c>
-      <c r="P24" t="s">
-        <v>28</v>
-      </c>
       <c r="Q24" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" t="s">
         <v>159</v>
       </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" t="s">
-        <v>174</v>
-      </c>
-      <c r="H25" t="s">
-        <v>168</v>
-      </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" t="s">
-        <v>144</v>
-      </c>
-      <c r="O25" t="s">
-        <v>145</v>
-      </c>
-      <c r="P25" t="s">
-        <v>28</v>
-      </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J26" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P26" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="Q26" t="s">
-        <v>181</v>
+        <v>30</v>
+      </c>
+      <c r="R26" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J27" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N27" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P27" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="Q27" t="s">
-        <v>181</v>
+        <v>30</v>
+      </c>
+      <c r="R27" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J28" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="O28" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="P28" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="Q28" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="R28" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J29" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K29" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N29" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="P29" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="Q29" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="R29" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" t="s">
         <v>159</v>
       </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J30" t="s">
-        <v>185</v>
-      </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" t="s">
-        <v>144</v>
-      </c>
-      <c r="O30" t="s">
-        <v>145</v>
-      </c>
-      <c r="P30" t="s">
-        <v>28</v>
-      </c>
       <c r="Q30" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="R30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
+        <v>155</v>
+      </c>
+      <c r="J31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" t="s">
+        <v>210</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" t="s">
         <v>159</v>
       </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J31" t="s">
-        <v>185</v>
-      </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" t="s">
-        <v>144</v>
-      </c>
-      <c r="O31" t="s">
-        <v>145</v>
-      </c>
-      <c r="P31" t="s">
-        <v>28</v>
-      </c>
       <c r="Q31" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="R31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>155</v>
+      </c>
+      <c r="J32" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" t="s">
+        <v>158</v>
+      </c>
+      <c r="P32" t="s">
         <v>159</v>
       </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" t="s">
-        <v>192</v>
-      </c>
-      <c r="H32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32" t="s">
-        <v>185</v>
-      </c>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" t="s">
-        <v>144</v>
-      </c>
-      <c r="O32" t="s">
-        <v>145</v>
-      </c>
-      <c r="P32" t="s">
-        <v>28</v>
-      </c>
       <c r="Q32" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="R32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" t="s">
+        <v>204</v>
+      </c>
+      <c r="K33" t="s">
+        <v>214</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>158</v>
+      </c>
+      <c r="P33" t="s">
         <v>159</v>
       </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" t="s">
-        <v>142</v>
-      </c>
-      <c r="J33" t="s">
-        <v>185</v>
-      </c>
-      <c r="K33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" t="s">
-        <v>144</v>
-      </c>
-      <c r="O33" t="s">
-        <v>145</v>
-      </c>
-      <c r="P33" t="s">
-        <v>28</v>
-      </c>
       <c r="Q33" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="R33" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" t="s">
+        <v>213</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
+        <v>158</v>
+      </c>
+      <c r="P34" t="s">
         <v>159</v>
       </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" t="s">
-        <v>192</v>
-      </c>
-      <c r="H34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" t="s">
-        <v>195</v>
-      </c>
-      <c r="K34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" t="s">
-        <v>28</v>
-      </c>
-      <c r="N34" t="s">
-        <v>144</v>
-      </c>
-      <c r="O34" t="s">
-        <v>145</v>
-      </c>
-      <c r="P34" t="s">
-        <v>28</v>
-      </c>
       <c r="Q34" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="R34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" t="s">
+        <v>218</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>158</v>
+      </c>
+      <c r="P35" t="s">
         <v>159</v>
       </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" t="s">
-        <v>192</v>
-      </c>
-      <c r="H35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" t="s">
-        <v>195</v>
-      </c>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" t="s">
-        <v>144</v>
-      </c>
-      <c r="O35" t="s">
-        <v>145</v>
-      </c>
-      <c r="P35" t="s">
-        <v>28</v>
-      </c>
       <c r="Q35" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="R35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="K36" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N36" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="O36" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="P36" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="Q36" t="s">
-        <v>202</v>
+        <v>30</v>
+      </c>
+      <c r="R36" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K37" t="s">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N37" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="O37" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="P37" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="Q37" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="R37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K38" t="s">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="L38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N38" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="O38" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="P38" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="Q38" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="R38" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="K39" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N39" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="O39" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="P39" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="Q39" t="s">
-        <v>171</v>
+        <v>30</v>
+      </c>
+      <c r="R39" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="H40" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="K40" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N40" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="O40" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="P40" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="Q40" t="s">
-        <v>216</v>
+        <v>30</v>
+      </c>
+      <c r="R40" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="H41" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I41" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J41" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K41" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N41" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="O41" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="P41" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="Q41" t="s">
-        <v>226</v>
+        <v>30</v>
+      </c>
+      <c r="R41" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="H42" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J42" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K42" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N42" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="O42" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="P42" t="s">
-        <v>28</v>
+        <v>261</v>
       </c>
       <c r="Q42" t="s">
-        <v>233</v>
+        <v>30</v>
+      </c>
+      <c r="R42" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="E43" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="H43" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="K43" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="L43" t="s">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="M43" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="N43" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="P43" t="s">
-        <v>28</v>
+        <v>271</v>
       </c>
       <c r="Q43" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="R43" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="H44" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I44" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J44" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="K44" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="L44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N44" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="O44" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="P44" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="Q44" t="s">
-        <v>249</v>
+        <v>30</v>
+      </c>
+      <c r="R44" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I45" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J45" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K45" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N45" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="O45" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="P45" t="s">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="Q45" t="s">
-        <v>256</v>
+        <v>30</v>
+      </c>
+      <c r="R45" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="B46" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E46" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="H46" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="K46" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
       <c r="L46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M46" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N46" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O46" t="s">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c r="P46" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="Q46" t="s">
-        <v>28</v>
+        <v>297</v>
+      </c>
+      <c r="R46" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="H47" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="K47" t="s">
-        <v>28</v>
+        <v>302</v>
       </c>
       <c r="L47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N47" t="s">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="O47" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="P47" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="Q47" t="s">
-        <v>270</v>
+        <v>30</v>
+      </c>
+      <c r="R47" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G48" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="H48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="K48" t="s">
-        <v>28</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="M48" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="N48" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="O48" t="s">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="P48" t="s">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="Q48" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="R48" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G49" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H49" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K49" t="s">
-        <v>28</v>
+        <v>316</v>
       </c>
       <c r="L49" t="s">
-        <v>281</v>
+        <v>30</v>
       </c>
       <c r="M49" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="N49" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="O49" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="P49" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="Q49" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="R49" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="H50" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="K50" t="s">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="L50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N50" t="s">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c r="O50" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="P50" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="Q50" t="s">
-        <v>289</v>
+        <v>30</v>
+      </c>
+      <c r="R50" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C51" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="D51" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="E51" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="G51" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="H51" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="J51" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="K51" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M51" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="N51" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="O51" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="P51" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="Q51" t="s">
-        <v>306</v>
+        <v>343</v>
+      </c>
+      <c r="R51" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="C52" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="E52" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="F52" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="G52" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="H52" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="I52" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="J52" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="K52" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="L52" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="M52" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="N52" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="O52" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="P52" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="Q52" t="s">
-        <v>321</v>
+        <v>343</v>
+      </c>
+      <c r="R52" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -1122,49 +1122,55 @@
     <t>Минимальные значения:</t>
   </si>
   <si>
-    <t>124.000000 (0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>17.000000 (0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>128.000000 (0904040003_OP-21)</t>
-  </si>
-  <si>
-    <t>20.000000 (0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>9.000000 (0904010012_OP-21)</t>
-  </si>
-  <si>
-    <t>0.065574 (0103040030_op-21)</t>
-  </si>
-  <si>
-    <t>2.000000 (0904020001_OP-20)</t>
-  </si>
-  <si>
-    <t>1.000000 (0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>0.451613 (0904020001_OP-20)</t>
-  </si>
-  <si>
-    <t>0.536290 (0904040003_OP-21)</t>
-  </si>
-  <si>
-    <t>15.094340 (2704040004_OP-20)</t>
-  </si>
-  <si>
-    <t>14.583333 (2704040001_OP-20)</t>
-  </si>
-  <si>
-    <t>21.666667 (0903020030_op-21)</t>
-  </si>
-  <si>
-    <t>10.606061 (1003010031_op-21)</t>
-  </si>
-  <si>
-    <t>19.178082 (1005010034_OP-21)</t>
+    <t>124.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>17.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>128.000000 (у УП 0904040003_OP-21)</t>
+  </si>
+  <si>
+    <t>20.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>9.000000 (у УП 0904010012_OP-21)</t>
+  </si>
+  <si>
+    <t>0.065574 (у УП 0103040030_op-21)</t>
+  </si>
+  <si>
+    <t>2.000000 (у УП 0904020001_OP-20)</t>
+  </si>
+  <si>
+    <t>1.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>0.451613 (у УП 0904020001_OP-20)</t>
+  </si>
+  <si>
+    <t>0.536290 (у УП 0904040003_OP-21)</t>
+  </si>
+  <si>
+    <t>7.079646 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>15.094340 (у УП 2704040004_OP-20)</t>
+  </si>
+  <si>
+    <t>14.583333 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>21.666667 (у УП 0903020030_op-21)</t>
+  </si>
+  <si>
+    <t>10.606061 (у УП 1003010031_op-21)</t>
+  </si>
+  <si>
+    <t>18.750000 (у УП 2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>19.178082 (у УП 1005010034_OP-21)</t>
   </si>
 </sst>
 </file>
@@ -4533,25 +4539,25 @@
         <v>355</v>
       </c>
       <c r="L52" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="M52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N52" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P52" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q52" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="R52" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -120,24 +120,45 @@
     <t>Максимальное оставное дерево</t>
   </si>
   <si>
+    <t>ЗЕ у компетенцииDOPK</t>
+  </si>
+  <si>
     <t>DOPK</t>
   </si>
   <si>
+    <t>ЗЕ у компетенцииDPK</t>
+  </si>
+  <si>
     <t>DPK</t>
   </si>
   <si>
+    <t>ЗЕ у компетенцииOK</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>ЗЕ у компетенцииOPK</t>
+  </si>
+  <si>
     <t>OPK</t>
   </si>
   <si>
+    <t>ЗЕ у компетенцииPK</t>
+  </si>
+  <si>
     <t>PK</t>
   </si>
   <si>
+    <t>ЗЕ у компетенцииSPK</t>
+  </si>
+  <si>
     <t>SPK</t>
   </si>
   <si>
+    <t>ЗЕ у компетенцииUK</t>
+  </si>
+  <si>
     <t>UK</t>
   </si>
   <si>
@@ -174,15 +195,27 @@
     <t>1.424180</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>44.067797%</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>35.593220%</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>20.338983%</t>
   </si>
   <si>
@@ -216,12 +249,21 @@
     <t>1.806452</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>44.444444%</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>22.222222%</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>33.333333%</t>
   </si>
   <si>
@@ -252,12 +294,21 @@
     <t>4.911290</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>27.777778%</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>25.000000%</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>47.222222%</t>
   </si>
   <si>
@@ -291,12 +342,21 @@
     <t>1.182377</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>24.615385%</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>33.846154%</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>41.538462%</t>
   </si>
   <si>
@@ -324,9 +384,15 @@
     <t>0.979675</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>21.666667%</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>50.000000%</t>
   </si>
   <si>
@@ -363,9 +429,15 @@
     <t>34.000000%</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>38.000000%</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>28.000000%</t>
   </si>
   <si>
@@ -426,6 +498,9 @@
     <t>33.928571%</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>35.714286%</t>
   </si>
   <si>
@@ -456,6 +531,9 @@
     <t>39.130435%</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>36.231884%</t>
   </si>
   <si>
@@ -483,6 +561,9 @@
     <t>26.000000%</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>30.000000%</t>
   </si>
   <si>
@@ -510,6 +591,9 @@
     <t>41.379310%</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>24.137931%</t>
   </si>
   <si>
@@ -597,6 +681,9 @@
     <t>23.333333%</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>36.666667%</t>
   </si>
   <si>
@@ -807,12 +894,18 @@
     <t>2.151639</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>62.121212%</t>
   </si>
   <si>
     <t>10.606061%</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>27.272727%</t>
   </si>
   <si>
@@ -840,6 +933,9 @@
     <t>1.598802</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>65.753425%</t>
   </si>
   <si>
@@ -864,6 +960,9 @@
     <t>2.038922</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>62.820513%</t>
   </si>
   <si>
@@ -891,12 +990,21 @@
     <t>7.079646%</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>31.858407%</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>25.663717%</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>35.398230%</t>
   </si>
   <si>
@@ -1098,24 +1206,45 @@
     <t>10.270161 (2704040001_OP-20)</t>
   </si>
   <si>
+    <t>8.000000 (1503040000_op-21)</t>
+  </si>
+  <si>
     <t>7.079646 (1503040000_op-21)</t>
   </si>
   <si>
+    <t>8.000000 (2704040001_OP-20)</t>
+  </si>
+  <si>
     <t>16.666667 (2704040001_OP-20)</t>
   </si>
   <si>
+    <t>36.000000 (1503040000_op-21)</t>
+  </si>
+  <si>
     <t>31.858407 (1503040000_op-21)</t>
   </si>
   <si>
+    <t>49.000000 (1005030035_OP-21)</t>
+  </si>
+  <si>
     <t>65.753425 (1005010034_OP-21)</t>
   </si>
   <si>
+    <t>40.000000 (1503040000_op-21)</t>
+  </si>
+  <si>
     <t>50.000000 (0903020030_op-21)</t>
   </si>
   <si>
+    <t>12.000000 (2704030006_op-20)</t>
+  </si>
+  <si>
     <t>18.750000 (2704030006_op-20)</t>
   </si>
   <si>
+    <t>27.000000 (0903010030_op-21)</t>
+  </si>
+  <si>
     <t>47.222222 (0104020009_OP-20)</t>
   </si>
   <si>
@@ -1152,6 +1281,9 @@
     <t>0.536290 (у УП 0904040003_OP-21)</t>
   </si>
   <si>
+    <t>0.000000 (у УП 0103040030_op-21)</t>
+  </si>
+  <si>
     <t>7.079646 (у УП 1503040000_op-21)</t>
   </si>
   <si>
@@ -1161,13 +1293,22 @@
     <t>14.583333 (у УП 2704040001_OP-20)</t>
   </si>
   <si>
+    <t>8.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
     <t>21.666667 (у УП 0903020030_op-21)</t>
   </si>
   <si>
+    <t>4.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
     <t>10.606061 (у УП 1003010031_op-21)</t>
   </si>
   <si>
     <t>18.750000 (у УП 2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>0.000000 (у УП 1503040000_op-21)</t>
   </si>
   <si>
     <t>19.178082 (у УП 1005010034_OP-21)</t>
@@ -1703,2861 +1844,3953 @@
       <c r="R1" t="s">
         <v>18</v>
       </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="S4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="S5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="S6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" t="s">
         <v>74</v>
       </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" t="s">
-        <v>82</v>
+      <c r="Y7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
         <v>83</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R8" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="S8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" t="s">
+        <v>115</v>
+      </c>
+      <c r="U8" t="s">
+        <v>116</v>
+      </c>
+      <c r="V8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R9" t="s">
-        <v>104</v>
+        <v>74</v>
+      </c>
+      <c r="S9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" t="s">
+        <v>127</v>
+      </c>
+      <c r="V9" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R10" t="s">
-        <v>114</v>
+        <v>74</v>
+      </c>
+      <c r="S10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T10" t="s">
+        <v>115</v>
+      </c>
+      <c r="U10" t="s">
+        <v>137</v>
+      </c>
+      <c r="V10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="S11" t="s">
+        <v>147</v>
+      </c>
+      <c r="T11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U11" t="s">
+        <v>148</v>
+      </c>
+      <c r="V11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="Q12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>133</v>
+        <v>88</v>
+      </c>
+      <c r="S12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" t="s">
+        <v>158</v>
+      </c>
+      <c r="V12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="Q13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R13" t="s">
-        <v>143</v>
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>168</v>
+      </c>
+      <c r="T13" t="s">
+        <v>169</v>
+      </c>
+      <c r="U13" t="s">
+        <v>170</v>
+      </c>
+      <c r="V13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R14" t="s">
-        <v>143</v>
+        <v>43</v>
+      </c>
+      <c r="S14" t="s">
+        <v>168</v>
+      </c>
+      <c r="T14" t="s">
+        <v>169</v>
+      </c>
+      <c r="U14" t="s">
+        <v>170</v>
+      </c>
+      <c r="V14" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="Q15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R15" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="S15" t="s">
+        <v>177</v>
+      </c>
+      <c r="T15" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" t="s">
+        <v>178</v>
+      </c>
+      <c r="V15" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="Q16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R16" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="S16" t="s">
+        <v>177</v>
+      </c>
+      <c r="T16" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" t="s">
+        <v>178</v>
+      </c>
+      <c r="V16" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R17" t="s">
-        <v>159</v>
+        <v>43</v>
+      </c>
+      <c r="S17" t="s">
+        <v>186</v>
+      </c>
+      <c r="T17" t="s">
+        <v>169</v>
+      </c>
+      <c r="U17" t="s">
+        <v>73</v>
+      </c>
+      <c r="V17" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R18" t="s">
-        <v>159</v>
+        <v>43</v>
+      </c>
+      <c r="S18" t="s">
+        <v>186</v>
+      </c>
+      <c r="T18" t="s">
+        <v>169</v>
+      </c>
+      <c r="U18" t="s">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s">
+        <v>38</v>
+      </c>
+      <c r="X18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="Q19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R19" t="s">
-        <v>166</v>
+        <v>43</v>
+      </c>
+      <c r="S19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" t="s">
+        <v>169</v>
+      </c>
+      <c r="U19" t="s">
+        <v>193</v>
+      </c>
+      <c r="V19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" t="s">
+        <v>177</v>
+      </c>
+      <c r="T20" t="s">
         <v>169</v>
       </c>
-      <c r="K20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" t="s">
-        <v>171</v>
+      <c r="U20" t="s">
+        <v>198</v>
+      </c>
+      <c r="V20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" t="s">
+        <v>38</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T21" t="s">
         <v>169</v>
       </c>
-      <c r="K21" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" t="s">
-        <v>149</v>
-      </c>
-      <c r="P21" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" t="s">
-        <v>171</v>
+      <c r="U21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="Q22" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R22" t="s">
-        <v>179</v>
+        <v>43</v>
+      </c>
+      <c r="S22" t="s">
+        <v>186</v>
+      </c>
+      <c r="T22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" t="s">
+        <v>208</v>
+      </c>
+      <c r="V22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s">
+        <v>38</v>
+      </c>
+      <c r="X22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O23" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="Q23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R23" t="s">
-        <v>189</v>
+        <v>70</v>
+      </c>
+      <c r="S23" t="s">
+        <v>216</v>
+      </c>
+      <c r="T23" t="s">
+        <v>59</v>
+      </c>
+      <c r="U23" t="s">
+        <v>217</v>
+      </c>
+      <c r="V23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O24" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="Q24" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R24" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="S24" t="s">
+        <v>186</v>
+      </c>
+      <c r="T24" t="s">
+        <v>72</v>
+      </c>
+      <c r="U24" t="s">
+        <v>187</v>
+      </c>
+      <c r="V24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" t="s">
+        <v>38</v>
+      </c>
+      <c r="X24" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="H25" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O25" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="Q25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R25" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="S25" t="s">
+        <v>186</v>
+      </c>
+      <c r="T25" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" t="s">
+        <v>187</v>
+      </c>
+      <c r="V25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s">
+        <v>38</v>
+      </c>
+      <c r="X25" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F26" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M26" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" t="s">
         <v>199</v>
       </c>
-      <c r="P26" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" t="s">
-        <v>200</v>
+      <c r="S26" t="s">
+        <v>228</v>
+      </c>
+      <c r="T26" t="s">
+        <v>72</v>
+      </c>
+      <c r="U26" t="s">
+        <v>229</v>
+      </c>
+      <c r="V26" t="s">
+        <v>37</v>
+      </c>
+      <c r="W26" t="s">
+        <v>38</v>
+      </c>
+      <c r="X26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O27" t="s">
+        <v>38</v>
+      </c>
+      <c r="P27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" t="s">
         <v>199</v>
       </c>
-      <c r="P27" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>30</v>
-      </c>
-      <c r="R27" t="s">
-        <v>200</v>
+      <c r="S27" t="s">
+        <v>228</v>
+      </c>
+      <c r="T27" t="s">
+        <v>72</v>
+      </c>
+      <c r="U27" t="s">
+        <v>229</v>
+      </c>
+      <c r="V27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" t="s">
+        <v>38</v>
+      </c>
+      <c r="X27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="J28" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O28" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="Q28" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R28" t="s">
-        <v>206</v>
+        <v>43</v>
+      </c>
+      <c r="S28" t="s">
+        <v>168</v>
+      </c>
+      <c r="T28" t="s">
+        <v>72</v>
+      </c>
+      <c r="U28" t="s">
+        <v>229</v>
+      </c>
+      <c r="V28" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s">
+        <v>38</v>
+      </c>
+      <c r="X28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="J29" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M29" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O29" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="Q29" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R29" t="s">
-        <v>206</v>
+        <v>43</v>
+      </c>
+      <c r="S29" t="s">
+        <v>168</v>
+      </c>
+      <c r="T29" t="s">
+        <v>72</v>
+      </c>
+      <c r="U29" t="s">
+        <v>229</v>
+      </c>
+      <c r="V29" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" t="s">
+        <v>38</v>
+      </c>
+      <c r="X29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F30" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="J30" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O30" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="Q30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R30" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="S30" t="s">
+        <v>186</v>
+      </c>
+      <c r="T30" t="s">
+        <v>72</v>
+      </c>
+      <c r="U30" t="s">
+        <v>187</v>
+      </c>
+      <c r="V30" t="s">
+        <v>37</v>
+      </c>
+      <c r="W30" t="s">
+        <v>38</v>
+      </c>
+      <c r="X30" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="K31" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O31" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="Q31" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R31" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="S31" t="s">
+        <v>186</v>
+      </c>
+      <c r="T31" t="s">
+        <v>72</v>
+      </c>
+      <c r="U31" t="s">
+        <v>187</v>
+      </c>
+      <c r="V31" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31" t="s">
+        <v>38</v>
+      </c>
+      <c r="X31" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G32" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="J32" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M32" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O32" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="Q32" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R32" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="S32" t="s">
+        <v>186</v>
+      </c>
+      <c r="T32" t="s">
+        <v>72</v>
+      </c>
+      <c r="U32" t="s">
+        <v>187</v>
+      </c>
+      <c r="V32" t="s">
+        <v>37</v>
+      </c>
+      <c r="W32" t="s">
+        <v>38</v>
+      </c>
+      <c r="X32" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G33" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M33" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N33" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O33" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="Q33" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R33" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="S33" t="s">
+        <v>186</v>
+      </c>
+      <c r="T33" t="s">
+        <v>72</v>
+      </c>
+      <c r="U33" t="s">
+        <v>187</v>
+      </c>
+      <c r="V33" t="s">
+        <v>37</v>
+      </c>
+      <c r="W33" t="s">
+        <v>38</v>
+      </c>
+      <c r="X33" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="K34" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M34" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N34" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O34" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="Q34" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="S34" t="s">
+        <v>186</v>
+      </c>
+      <c r="T34" t="s">
+        <v>72</v>
+      </c>
+      <c r="U34" t="s">
+        <v>187</v>
+      </c>
+      <c r="V34" t="s">
+        <v>37</v>
+      </c>
+      <c r="W34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X34" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G35" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M35" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N35" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O35" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="Q35" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="S35" t="s">
+        <v>186</v>
+      </c>
+      <c r="T35" t="s">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s">
+        <v>187</v>
+      </c>
+      <c r="V35" t="s">
+        <v>37</v>
+      </c>
+      <c r="W35" t="s">
+        <v>38</v>
+      </c>
+      <c r="X35" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G36" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J36" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="K36" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M36" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N36" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O36" t="s">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="Q36" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R36" t="s">
-        <v>226</v>
+        <v>55</v>
+      </c>
+      <c r="S36" t="s">
+        <v>255</v>
+      </c>
+      <c r="T36" t="s">
+        <v>169</v>
+      </c>
+      <c r="U36" t="s">
+        <v>218</v>
+      </c>
+      <c r="V36" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36" t="s">
+        <v>38</v>
+      </c>
+      <c r="X36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J37" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="L37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M37" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O37" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="Q37" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R37" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="S37" t="s">
+        <v>259</v>
+      </c>
+      <c r="T37" t="s">
+        <v>59</v>
+      </c>
+      <c r="U37" t="s">
+        <v>208</v>
+      </c>
+      <c r="V37" t="s">
+        <v>37</v>
+      </c>
+      <c r="W37" t="s">
+        <v>38</v>
+      </c>
+      <c r="X37" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J38" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="K38" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="L38" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="Q38" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R38" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="S38" t="s">
+        <v>259</v>
+      </c>
+      <c r="T38" t="s">
+        <v>59</v>
+      </c>
+      <c r="U38" t="s">
+        <v>208</v>
+      </c>
+      <c r="V38" t="s">
+        <v>37</v>
+      </c>
+      <c r="W38" t="s">
+        <v>38</v>
+      </c>
+      <c r="X38" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" t="s">
+        <v>262</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" t="s">
         <v>232</v>
       </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s">
-        <v>203</v>
-      </c>
       <c r="H39" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J39" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="K39" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="L39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M39" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="P39" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="Q39" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R39" t="s">
-        <v>188</v>
+        <v>55</v>
+      </c>
+      <c r="S39" t="s">
+        <v>255</v>
+      </c>
+      <c r="T39" t="s">
+        <v>72</v>
+      </c>
+      <c r="U39" t="s">
+        <v>148</v>
+      </c>
+      <c r="V39" t="s">
+        <v>37</v>
+      </c>
+      <c r="W39" t="s">
+        <v>38</v>
+      </c>
+      <c r="X39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M40" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="Q40" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R40" t="s">
-        <v>243</v>
+        <v>270</v>
+      </c>
+      <c r="S40" t="s">
+        <v>271</v>
+      </c>
+      <c r="T40" t="s">
+        <v>169</v>
+      </c>
+      <c r="U40" t="s">
+        <v>272</v>
+      </c>
+      <c r="V40" t="s">
+        <v>37</v>
+      </c>
+      <c r="W40" t="s">
+        <v>38</v>
+      </c>
+      <c r="X40" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="E41" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I41" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="J41" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="K41" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="L41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="P41" t="s">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="Q41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R41" t="s">
-        <v>254</v>
+        <v>283</v>
+      </c>
+      <c r="S41" t="s">
+        <v>284</v>
+      </c>
+      <c r="T41" t="s">
+        <v>199</v>
+      </c>
+      <c r="U41" t="s">
+        <v>285</v>
+      </c>
+      <c r="V41" t="s">
+        <v>37</v>
+      </c>
+      <c r="W41" t="s">
+        <v>38</v>
+      </c>
+      <c r="X41" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C42" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="E42" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="H42" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I42" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="J42" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="K42" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="L42" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N42" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O42" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="P42" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="Q42" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R42" t="s">
-        <v>262</v>
+        <v>292</v>
+      </c>
+      <c r="S42" t="s">
+        <v>293</v>
+      </c>
+      <c r="T42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U42" t="s">
+        <v>294</v>
+      </c>
+      <c r="V42" t="s">
+        <v>37</v>
+      </c>
+      <c r="W42" t="s">
+        <v>38</v>
+      </c>
+      <c r="X42" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="E43" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="N43" t="s">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c r="O43" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="P43" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="Q43" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="R43" t="s">
-        <v>30</v>
+        <v>304</v>
+      </c>
+      <c r="S43" t="s">
+        <v>305</v>
+      </c>
+      <c r="T43" t="s">
+        <v>306</v>
+      </c>
+      <c r="U43" t="s">
+        <v>307</v>
+      </c>
+      <c r="V43" t="s">
+        <v>37</v>
+      </c>
+      <c r="W43" t="s">
+        <v>38</v>
+      </c>
+      <c r="X43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="H44" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I44" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="J44" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M44" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N44" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O44" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="P44" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="Q44" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R44" t="s">
-        <v>280</v>
+        <v>88</v>
+      </c>
+      <c r="S44" t="s">
+        <v>314</v>
+      </c>
+      <c r="T44" t="s">
+        <v>159</v>
+      </c>
+      <c r="U44" t="s">
+        <v>315</v>
+      </c>
+      <c r="V44" t="s">
+        <v>37</v>
+      </c>
+      <c r="W44" t="s">
+        <v>38</v>
+      </c>
+      <c r="X44" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="H45" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I45" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="J45" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M45" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O45" t="s">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="P45" t="s">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="Q45" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R45" t="s">
-        <v>288</v>
+        <v>149</v>
+      </c>
+      <c r="S45" t="s">
+        <v>322</v>
+      </c>
+      <c r="T45" t="s">
+        <v>86</v>
+      </c>
+      <c r="U45" t="s">
+        <v>323</v>
+      </c>
+      <c r="V45" t="s">
+        <v>37</v>
+      </c>
+      <c r="W45" t="s">
+        <v>38</v>
+      </c>
+      <c r="X45" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="H46" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="K46" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M46" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N46" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="O46" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="P46" t="s">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c r="Q46" t="s">
-        <v>297</v>
+        <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>30</v>
+        <v>86</v>
+      </c>
+      <c r="S46" t="s">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s">
+        <v>138</v>
+      </c>
+      <c r="U46" t="s">
+        <v>332</v>
+      </c>
+      <c r="V46" t="s">
+        <v>43</v>
+      </c>
+      <c r="W46" t="s">
+        <v>333</v>
+      </c>
+      <c r="X46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="E47" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="H47" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="K47" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="L47" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O47" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="P47" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="Q47" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R47" t="s">
-        <v>304</v>
+        <v>199</v>
+      </c>
+      <c r="S47" t="s">
+        <v>339</v>
+      </c>
+      <c r="T47" t="s">
+        <v>273</v>
+      </c>
+      <c r="U47" t="s">
+        <v>340</v>
+      </c>
+      <c r="V47" t="s">
+        <v>37</v>
+      </c>
+      <c r="W47" t="s">
+        <v>38</v>
+      </c>
+      <c r="X47" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="G48" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="H48" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="K48" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="N48" t="s">
-        <v>311</v>
+        <v>55</v>
       </c>
       <c r="O48" t="s">
-        <v>46</v>
+        <v>346</v>
       </c>
       <c r="P48" t="s">
-        <v>312</v>
+        <v>169</v>
       </c>
       <c r="Q48" t="s">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="R48" t="s">
-        <v>30</v>
+        <v>86</v>
+      </c>
+      <c r="S48" t="s">
+        <v>60</v>
+      </c>
+      <c r="T48" t="s">
+        <v>74</v>
+      </c>
+      <c r="U48" t="s">
+        <v>348</v>
+      </c>
+      <c r="V48" t="s">
+        <v>37</v>
+      </c>
+      <c r="W48" t="s">
+        <v>38</v>
+      </c>
+      <c r="X48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D49" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="F49" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="G49" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="H49" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="K49" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M49" t="s">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="N49" t="s">
-        <v>317</v>
+        <v>55</v>
       </c>
       <c r="O49" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="P49" t="s">
-        <v>319</v>
+        <v>55</v>
       </c>
       <c r="Q49" t="s">
-        <v>30</v>
+        <v>353</v>
       </c>
       <c r="R49" t="s">
-        <v>30</v>
+        <v>74</v>
+      </c>
+      <c r="S49" t="s">
+        <v>354</v>
+      </c>
+      <c r="T49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U49" t="s">
+        <v>355</v>
+      </c>
+      <c r="V49" t="s">
+        <v>37</v>
+      </c>
+      <c r="W49" t="s">
+        <v>38</v>
+      </c>
+      <c r="X49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="E50" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="H50" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="K50" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="L50" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M50" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O50" t="s">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="P50" t="s">
-        <v>325</v>
+        <v>37</v>
       </c>
       <c r="Q50" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R50" t="s">
-        <v>326</v>
+        <v>70</v>
+      </c>
+      <c r="S50" t="s">
+        <v>332</v>
+      </c>
+      <c r="T50" t="s">
+        <v>159</v>
+      </c>
+      <c r="U50" t="s">
+        <v>361</v>
+      </c>
+      <c r="V50" t="s">
+        <v>37</v>
+      </c>
+      <c r="W50" t="s">
+        <v>38</v>
+      </c>
+      <c r="X50" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="C51" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="E51" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="G51" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="H51" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="I51" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="J51" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="K51" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="M51" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="N51" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="O51" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="P51" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="Q51" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="R51" t="s">
-        <v>344</v>
+        <v>380</v>
+      </c>
+      <c r="S51" t="s">
+        <v>381</v>
+      </c>
+      <c r="T51" t="s">
+        <v>382</v>
+      </c>
+      <c r="U51" t="s">
+        <v>383</v>
+      </c>
+      <c r="V51" t="s">
+        <v>384</v>
+      </c>
+      <c r="W51" t="s">
+        <v>385</v>
+      </c>
+      <c r="X51" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="D52" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="E52" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="G52" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="H52" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="I52" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="J52" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="K52" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="N52" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="O52" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="P52" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="Q52" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="R52" t="s">
-        <v>362</v>
+        <v>403</v>
+      </c>
+      <c r="S52" t="s">
+        <v>404</v>
+      </c>
+      <c r="T52" t="s">
+        <v>405</v>
+      </c>
+      <c r="U52" t="s">
+        <v>406</v>
+      </c>
+      <c r="V52" t="s">
+        <v>399</v>
+      </c>
+      <c r="W52" t="s">
+        <v>407</v>
+      </c>
+      <c r="X52" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -195,28 +195,25 @@
     <t>1.424180</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>44.067797%</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>35.593220%</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20.338983%</t>
+    <t>117</t>
+  </si>
+  <si>
+    <t>49.787234%</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>34.893617%</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>15.319149%</t>
   </si>
   <si>
     <t>0104020007_op-20</t>
@@ -249,636 +246,747 @@
     <t>1.806452</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>44.444444%</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>22.222222%</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>66</t>
+  </si>
+  <si>
+    <t>51.968504%</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11.023622%</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>37.007874%</t>
+  </si>
+  <si>
+    <t>0104020009_OP-20</t>
+  </si>
+  <si>
+    <t>23.000000</t>
+  </si>
+  <si>
+    <t>130.000000</t>
+  </si>
+  <si>
+    <t>25.000000</t>
+  </si>
+  <si>
+    <t>30.000000</t>
+  </si>
+  <si>
+    <t>0.201613</t>
+  </si>
+  <si>
+    <t>3.000000</t>
+  </si>
+  <si>
+    <t>0.717742</t>
+  </si>
+  <si>
+    <t>4.911290</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>36.231884%</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>15.942029%</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>47.826087%</t>
+  </si>
+  <si>
+    <t>0104020009_OP-21</t>
+  </si>
+  <si>
+    <t>0903010030_op-21</t>
+  </si>
+  <si>
+    <t>56.000000</t>
+  </si>
+  <si>
+    <t>265.000000</t>
+  </si>
+  <si>
+    <t>60.000000</t>
+  </si>
+  <si>
+    <t>0.106557</t>
+  </si>
+  <si>
+    <t>5.000000</t>
+  </si>
+  <si>
+    <t>7.000000</t>
+  </si>
+  <si>
+    <t>0.700820</t>
+  </si>
+  <si>
+    <t>1.182377</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>31.768953%</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>31.407942%</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>36.823105%</t>
+  </si>
+  <si>
+    <t>0903020030_op-21</t>
+  </si>
+  <si>
+    <t>246.000000</t>
+  </si>
+  <si>
+    <t>339.000000</t>
+  </si>
+  <si>
+    <t>83.000000</t>
+  </si>
+  <si>
+    <t>0.091463</t>
+  </si>
+  <si>
+    <t>11.000000</t>
+  </si>
+  <si>
+    <t>0.654472</t>
+  </si>
+  <si>
+    <t>0.979675</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>29.460581%</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>46.473029%</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>24.066390%</t>
+  </si>
+  <si>
+    <t>0903030031_OP-21</t>
+  </si>
+  <si>
+    <t>51.000000</t>
+  </si>
+  <si>
+    <t>252.000000</t>
+  </si>
+  <si>
+    <t>53.000000</t>
+  </si>
+  <si>
+    <t>15.000000</t>
+  </si>
+  <si>
+    <t>0.120902</t>
+  </si>
+  <si>
+    <t>6.000000</t>
+  </si>
+  <si>
+    <t>0.706967</t>
+  </si>
+  <si>
+    <t>0.989754</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>40.789474%</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>40.350877%</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>18.859649%</t>
+  </si>
+  <si>
+    <t>0903030032_OP-20</t>
+  </si>
+  <si>
+    <t>52.000000</t>
+  </si>
+  <si>
+    <t>257.000000</t>
+  </si>
+  <si>
+    <t>55.000000</t>
+  </si>
+  <si>
+    <t>0.094262</t>
+  </si>
+  <si>
+    <t>0.704918</t>
+  </si>
+  <si>
+    <t>1.211066</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>32.525952%</t>
+  </si>
+  <si>
+    <t>34.256055%</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>33.217993%</t>
+  </si>
+  <si>
+    <t>0903030033_OP-21</t>
+  </si>
+  <si>
+    <t>242.000000</t>
+  </si>
+  <si>
+    <t>50.000000</t>
+  </si>
+  <si>
+    <t>250.000000</t>
+  </si>
+  <si>
+    <t>0.126033</t>
+  </si>
+  <si>
+    <t>0.745868</t>
+  </si>
+  <si>
+    <t>1.512397</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>36.900369%</t>
+  </si>
+  <si>
+    <t>34.317343%</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>28.782288%</t>
+  </si>
+  <si>
+    <t>0903030035_OP-21</t>
+  </si>
+  <si>
+    <t>255.000000</t>
+  </si>
+  <si>
+    <t>57.000000</t>
+  </si>
+  <si>
+    <t>263.000000</t>
+  </si>
+  <si>
+    <t>0.182353</t>
+  </si>
+  <si>
+    <t>0.766667</t>
+  </si>
+  <si>
+    <t>1.427451</t>
+  </si>
+  <si>
+    <t>32.517483%</t>
+  </si>
+  <si>
+    <t>34.615385%</t>
+  </si>
+  <si>
+    <t>32.867133%</t>
+  </si>
+  <si>
+    <t>0903040030_op-21</t>
+  </si>
+  <si>
+    <t>293.000000</t>
+  </si>
+  <si>
+    <t>0.143443</t>
+  </si>
+  <si>
+    <t>14.000000</t>
+  </si>
+  <si>
+    <t>0.696721</t>
+  </si>
+  <si>
+    <t>1.633197</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>43.265306%</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>31.020408%</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>25.714286%</t>
+  </si>
+  <si>
+    <t>0904010001_OP-20</t>
+  </si>
+  <si>
+    <t>134.000000</t>
+  </si>
+  <si>
+    <t>27.000000</t>
+  </si>
+  <si>
+    <t>12.000000</t>
+  </si>
+  <si>
+    <t>0.225806</t>
+  </si>
+  <si>
+    <t>0.604839</t>
+  </si>
+  <si>
+    <t>0.826613</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>47.244094%</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>25.196850%</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>27.559055%</t>
+  </si>
+  <si>
+    <t>0904010001_OP-21</t>
+  </si>
+  <si>
+    <t>0904010003_OP-20</t>
+  </si>
+  <si>
+    <t>0.379032</t>
+  </si>
+  <si>
+    <t>0.705645</t>
+  </si>
+  <si>
+    <t>1.068548</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>26.771654%</t>
+  </si>
+  <si>
+    <t>25.984252%</t>
+  </si>
+  <si>
+    <t>0904010003_OP-21</t>
+  </si>
+  <si>
+    <t>0904010004_OP-20</t>
+  </si>
+  <si>
+    <t>133.000000</t>
+  </si>
+  <si>
+    <t>0.354839</t>
+  </si>
+  <si>
+    <t>9.000000</t>
+  </si>
+  <si>
+    <t>0.693548</t>
+  </si>
+  <si>
+    <t>1.052419</t>
+  </si>
+  <si>
+    <t>50.420168%</t>
+  </si>
+  <si>
+    <t>26.890756%</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>22.689076%</t>
+  </si>
+  <si>
+    <t>0904010004_OP-21</t>
+  </si>
+  <si>
+    <t>0904010006_OP-20</t>
+  </si>
+  <si>
+    <t>0.362903</t>
+  </si>
+  <si>
+    <t>0.701613</t>
+  </si>
+  <si>
+    <t>0.927419</t>
+  </si>
+  <si>
+    <t>52.631579%</t>
+  </si>
+  <si>
+    <t>28.070175%</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>19.298246%</t>
+  </si>
+  <si>
+    <t>0904010010_OP-20</t>
+  </si>
+  <si>
+    <t>0.294355</t>
+  </si>
+  <si>
+    <t>0.737903</t>
+  </si>
+  <si>
+    <t>44.117647%</t>
+  </si>
+  <si>
+    <t>23.529412%</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>32.352941%</t>
+  </si>
+  <si>
+    <t>0904010010_OP-21</t>
+  </si>
+  <si>
+    <t>0904010011_OP-21</t>
+  </si>
+  <si>
+    <t>26.000000</t>
+  </si>
+  <si>
+    <t>28.000000</t>
+  </si>
+  <si>
+    <t>0.366935</t>
+  </si>
+  <si>
+    <t>0.709677</t>
+  </si>
+  <si>
+    <t>0.979839</t>
+  </si>
+  <si>
+    <t>0904010012_OP-21</t>
+  </si>
+  <si>
+    <t>22.000000</t>
+  </si>
+  <si>
+    <t>24.000000</t>
+  </si>
+  <si>
+    <t>0.282258</t>
+  </si>
+  <si>
+    <t>2.000000</t>
+  </si>
+  <si>
+    <t>0.689516</t>
+  </si>
+  <si>
+    <t>1.201613</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>52.136752%</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>26.495726%</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>21.367521%</t>
+  </si>
+  <si>
+    <t>0904020001_OP-20</t>
+  </si>
+  <si>
+    <t>0.092742</t>
+  </si>
+  <si>
+    <t>0.451613</t>
+  </si>
+  <si>
+    <t>0.552419</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>47.107438%</t>
+  </si>
+  <si>
+    <t>29.752066%</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>23.140496%</t>
+  </si>
+  <si>
+    <t>0904020001_OP-21</t>
+  </si>
+  <si>
+    <t>0904020002_OP-20</t>
+  </si>
+  <si>
+    <t>0.141129</t>
+  </si>
+  <si>
+    <t>0.633065</t>
+  </si>
+  <si>
+    <t>0.822581</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>40.000000%</t>
+  </si>
+  <si>
+    <t>26.666667%</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>33.333333%</t>
   </si>
   <si>
-    <t>0104020009_OP-20</t>
-  </si>
-  <si>
-    <t>23.000000</t>
-  </si>
-  <si>
-    <t>130.000000</t>
-  </si>
-  <si>
-    <t>25.000000</t>
-  </si>
-  <si>
-    <t>30.000000</t>
-  </si>
-  <si>
-    <t>0.201613</t>
-  </si>
-  <si>
-    <t>3.000000</t>
-  </si>
-  <si>
-    <t>0.717742</t>
-  </si>
-  <si>
-    <t>4.911290</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>27.777778%</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>25.000000%</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>47.222222%</t>
-  </si>
-  <si>
-    <t>0104020009_OP-21</t>
-  </si>
-  <si>
-    <t>0903010030_op-21</t>
-  </si>
-  <si>
-    <t>56.000000</t>
-  </si>
-  <si>
-    <t>265.000000</t>
-  </si>
-  <si>
-    <t>60.000000</t>
-  </si>
-  <si>
-    <t>0.106557</t>
-  </si>
-  <si>
-    <t>5.000000</t>
-  </si>
-  <si>
-    <t>7.000000</t>
-  </si>
-  <si>
-    <t>0.700820</t>
-  </si>
-  <si>
-    <t>1.182377</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>24.615385%</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>33.846154%</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>41.538462%</t>
-  </si>
-  <si>
-    <t>0903020030_op-21</t>
-  </si>
-  <si>
-    <t>246.000000</t>
-  </si>
-  <si>
-    <t>339.000000</t>
-  </si>
-  <si>
-    <t>83.000000</t>
-  </si>
-  <si>
-    <t>0.091463</t>
-  </si>
-  <si>
-    <t>11.000000</t>
-  </si>
-  <si>
-    <t>0.654472</t>
-  </si>
-  <si>
-    <t>0.979675</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>21.666667%</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>50.000000%</t>
+    <t>0904020002_OP-21</t>
+  </si>
+  <si>
+    <t>0904020003_OP-20</t>
+  </si>
+  <si>
+    <t>0.153226</t>
+  </si>
+  <si>
+    <t>0.532258</t>
+  </si>
+  <si>
+    <t>0.620968</t>
+  </si>
+  <si>
+    <t>43.511450%</t>
+  </si>
+  <si>
+    <t>27.480916%</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>29.007634%</t>
+  </si>
+  <si>
+    <t>0904020003_OP-21</t>
+  </si>
+  <si>
+    <t>0904020004_OP-20</t>
+  </si>
+  <si>
+    <t>0.149194</t>
+  </si>
+  <si>
+    <t>0.612903</t>
+  </si>
+  <si>
+    <t>0904020004_OP-21</t>
+  </si>
+  <si>
+    <t>0904020005_OP-20</t>
+  </si>
+  <si>
+    <t>0.177419</t>
+  </si>
+  <si>
+    <t>0.629032</t>
+  </si>
+  <si>
+    <t>0904020005_OP-21</t>
+  </si>
+  <si>
+    <t>0904020006_OP-20</t>
+  </si>
+  <si>
+    <t>0.556452</t>
+  </si>
+  <si>
+    <t>0.625000</t>
+  </si>
+  <si>
+    <t>0904020006_OP-21</t>
+  </si>
+  <si>
+    <t>0904040001_OP-20</t>
+  </si>
+  <si>
+    <t>21.000000</t>
+  </si>
+  <si>
+    <t>137.000000</t>
+  </si>
+  <si>
+    <t>0.346774</t>
+  </si>
+  <si>
+    <t>0.754032</t>
+  </si>
+  <si>
+    <t>0.858871</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>34.328358%</t>
+  </si>
+  <si>
+    <t>33.582090%</t>
+  </si>
+  <si>
+    <t>32.089552%</t>
+  </si>
+  <si>
+    <t>0904040002_OP-20</t>
+  </si>
+  <si>
+    <t>0.189516</t>
+  </si>
+  <si>
+    <t>0.649194</t>
+  </si>
+  <si>
+    <t>36.507937%</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>30.952381%</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>32.539683%</t>
+  </si>
+  <si>
+    <t>0904040002_OP-21</t>
+  </si>
+  <si>
+    <t>0904040003_OP-21</t>
+  </si>
+  <si>
+    <t>128.000000</t>
+  </si>
+  <si>
+    <t>0.491935</t>
+  </si>
+  <si>
+    <t>0.536290</t>
+  </si>
+  <si>
+    <t>38.333333%</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>28.333333%</t>
   </si>
   <si>
-    <t>0903030031_OP-21</t>
-  </si>
-  <si>
-    <t>51.000000</t>
-  </si>
-  <si>
-    <t>252.000000</t>
-  </si>
-  <si>
-    <t>53.000000</t>
-  </si>
-  <si>
-    <t>15.000000</t>
-  </si>
-  <si>
-    <t>0.120902</t>
-  </si>
-  <si>
-    <t>6.000000</t>
-  </si>
-  <si>
-    <t>0.706967</t>
-  </si>
-  <si>
-    <t>0.989754</t>
-  </si>
-  <si>
-    <t>34.000000%</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>38.000000%</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>28.000000%</t>
-  </si>
-  <si>
-    <t>0903030032_OP-20</t>
-  </si>
-  <si>
-    <t>52.000000</t>
-  </si>
-  <si>
-    <t>257.000000</t>
-  </si>
-  <si>
-    <t>55.000000</t>
-  </si>
-  <si>
-    <t>0.094262</t>
-  </si>
-  <si>
-    <t>0.704918</t>
-  </si>
-  <si>
-    <t>1.211066</t>
-  </si>
-  <si>
-    <t>26.562500%</t>
-  </si>
-  <si>
-    <t>32.812500%</t>
-  </si>
-  <si>
-    <t>40.625000%</t>
-  </si>
-  <si>
-    <t>0903030033_OP-21</t>
-  </si>
-  <si>
-    <t>242.000000</t>
-  </si>
-  <si>
-    <t>50.000000</t>
-  </si>
-  <si>
-    <t>250.000000</t>
-  </si>
-  <si>
-    <t>0.126033</t>
-  </si>
-  <si>
-    <t>0.745868</t>
-  </si>
-  <si>
-    <t>1.512397</t>
-  </si>
-  <si>
-    <t>30.357143%</t>
-  </si>
-  <si>
-    <t>33.928571%</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>35.714286%</t>
-  </si>
-  <si>
-    <t>0903030035_OP-21</t>
-  </si>
-  <si>
-    <t>255.000000</t>
-  </si>
-  <si>
-    <t>57.000000</t>
-  </si>
-  <si>
-    <t>263.000000</t>
-  </si>
-  <si>
-    <t>0.182353</t>
-  </si>
-  <si>
-    <t>0.766667</t>
-  </si>
-  <si>
-    <t>1.427451</t>
-  </si>
-  <si>
-    <t>24.637681%</t>
-  </si>
-  <si>
-    <t>39.130435%</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>36.231884%</t>
-  </si>
-  <si>
-    <t>0903040030_op-21</t>
-  </si>
-  <si>
-    <t>293.000000</t>
-  </si>
-  <si>
-    <t>0.143443</t>
-  </si>
-  <si>
-    <t>14.000000</t>
-  </si>
-  <si>
-    <t>0.696721</t>
-  </si>
-  <si>
-    <t>1.633197</t>
-  </si>
-  <si>
-    <t>44.000000%</t>
-  </si>
-  <si>
-    <t>26.000000%</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>30.000000%</t>
-  </si>
-  <si>
-    <t>0904010001_OP-20</t>
-  </si>
-  <si>
-    <t>134.000000</t>
-  </si>
-  <si>
-    <t>27.000000</t>
-  </si>
-  <si>
-    <t>12.000000</t>
-  </si>
-  <si>
-    <t>0.225806</t>
-  </si>
-  <si>
-    <t>0.604839</t>
-  </si>
-  <si>
-    <t>0.826613</t>
-  </si>
-  <si>
-    <t>41.379310%</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>24.137931%</t>
-  </si>
-  <si>
-    <t>34.482759%</t>
-  </si>
-  <si>
-    <t>0904010001_OP-21</t>
-  </si>
-  <si>
-    <t>0904010003_OP-20</t>
-  </si>
-  <si>
-    <t>0.379032</t>
-  </si>
-  <si>
-    <t>0.705645</t>
-  </si>
-  <si>
-    <t>1.068548</t>
-  </si>
-  <si>
-    <t>40.000000%</t>
-  </si>
-  <si>
-    <t>26.666667%</t>
-  </si>
-  <si>
-    <t>0904010003_OP-21</t>
-  </si>
-  <si>
-    <t>0904010004_OP-20</t>
-  </si>
-  <si>
-    <t>133.000000</t>
-  </si>
-  <si>
-    <t>0.354839</t>
-  </si>
-  <si>
-    <t>9.000000</t>
-  </si>
-  <si>
-    <t>0.693548</t>
-  </si>
-  <si>
-    <t>1.052419</t>
-  </si>
-  <si>
-    <t>42.857143%</t>
-  </si>
-  <si>
-    <t>32.142857%</t>
-  </si>
-  <si>
-    <t>0904010004_OP-21</t>
-  </si>
-  <si>
-    <t>0904010006_OP-20</t>
-  </si>
-  <si>
-    <t>0.362903</t>
-  </si>
-  <si>
-    <t>0.701613</t>
-  </si>
-  <si>
-    <t>0.927419</t>
-  </si>
-  <si>
-    <t>25.925926%</t>
-  </si>
-  <si>
-    <t>29.629630%</t>
-  </si>
-  <si>
-    <t>0904010010_OP-20</t>
-  </si>
-  <si>
-    <t>0.294355</t>
-  </si>
-  <si>
-    <t>0.737903</t>
-  </si>
-  <si>
-    <t>23.333333%</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>36.666667%</t>
-  </si>
-  <si>
-    <t>0904010010_OP-21</t>
-  </si>
-  <si>
-    <t>0904010011_OP-21</t>
-  </si>
-  <si>
-    <t>26.000000</t>
-  </si>
-  <si>
-    <t>28.000000</t>
-  </si>
-  <si>
-    <t>0.366935</t>
-  </si>
-  <si>
-    <t>0.709677</t>
-  </si>
-  <si>
-    <t>0.979839</t>
-  </si>
-  <si>
-    <t>28.571429%</t>
-  </si>
-  <si>
-    <t>0904010012_OP-21</t>
-  </si>
-  <si>
-    <t>22.000000</t>
-  </si>
-  <si>
-    <t>24.000000</t>
-  </si>
-  <si>
-    <t>0.282258</t>
-  </si>
-  <si>
-    <t>2.000000</t>
-  </si>
-  <si>
-    <t>0.689516</t>
-  </si>
-  <si>
-    <t>1.201613</t>
-  </si>
-  <si>
-    <t>43.478261%</t>
-  </si>
-  <si>
-    <t>26.086957%</t>
-  </si>
-  <si>
-    <t>30.434783%</t>
-  </si>
-  <si>
-    <t>0904020001_OP-20</t>
-  </si>
-  <si>
-    <t>0.092742</t>
-  </si>
-  <si>
-    <t>0.451613</t>
-  </si>
-  <si>
-    <t>0.552419</t>
-  </si>
-  <si>
-    <t>0904020001_OP-21</t>
-  </si>
-  <si>
-    <t>0904020002_OP-20</t>
-  </si>
-  <si>
-    <t>0.141129</t>
-  </si>
-  <si>
-    <t>0.633065</t>
-  </si>
-  <si>
-    <t>0.822581</t>
-  </si>
-  <si>
-    <t>37.931034%</t>
-  </si>
-  <si>
-    <t>31.034483%</t>
-  </si>
-  <si>
-    <t>0904020002_OP-21</t>
-  </si>
-  <si>
-    <t>0904020003_OP-20</t>
-  </si>
-  <si>
-    <t>0.153226</t>
-  </si>
-  <si>
-    <t>0.532258</t>
-  </si>
-  <si>
-    <t>0.620968</t>
-  </si>
-  <si>
-    <t>27.586207%</t>
-  </si>
-  <si>
-    <t>0904020003_OP-21</t>
-  </si>
-  <si>
-    <t>0904020004_OP-20</t>
-  </si>
-  <si>
-    <t>0.149194</t>
-  </si>
-  <si>
-    <t>0.612903</t>
-  </si>
-  <si>
-    <t>0904020004_OP-21</t>
-  </si>
-  <si>
-    <t>0904020005_OP-20</t>
-  </si>
-  <si>
-    <t>0.177419</t>
-  </si>
-  <si>
-    <t>0.629032</t>
-  </si>
-  <si>
-    <t>0904020005_OP-21</t>
-  </si>
-  <si>
-    <t>0904020006_OP-20</t>
-  </si>
-  <si>
-    <t>0.556452</t>
-  </si>
-  <si>
-    <t>0.625000</t>
-  </si>
-  <si>
-    <t>0904020006_OP-21</t>
-  </si>
-  <si>
-    <t>0904040001_OP-20</t>
-  </si>
-  <si>
-    <t>21.000000</t>
-  </si>
-  <si>
-    <t>137.000000</t>
-  </si>
-  <si>
-    <t>0.346774</t>
-  </si>
-  <si>
-    <t>0.754032</t>
-  </si>
-  <si>
-    <t>0.858871</t>
-  </si>
-  <si>
-    <t>34.782609%</t>
-  </si>
-  <si>
-    <t>0904040002_OP-20</t>
-  </si>
-  <si>
-    <t>0.189516</t>
-  </si>
-  <si>
-    <t>0.649194</t>
-  </si>
-  <si>
-    <t>38.095238%</t>
-  </si>
-  <si>
-    <t>0904040002_OP-21</t>
-  </si>
-  <si>
-    <t>0904040003_OP-21</t>
-  </si>
-  <si>
-    <t>128.000000</t>
-  </si>
-  <si>
-    <t>0.491935</t>
-  </si>
-  <si>
-    <t>0.536290</t>
-  </si>
-  <si>
     <t>1003010031_op-21</t>
   </si>
   <si>
@@ -894,19 +1002,16 @@
     <t>2.151639</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>62.121212%</t>
-  </si>
-  <si>
-    <t>10.606061%</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>27.272727%</t>
+    <t>180</t>
+  </si>
+  <si>
+    <t>67.415730%</t>
+  </si>
+  <si>
+    <t>10.112360%</t>
+  </si>
+  <si>
+    <t>22.471910%</t>
   </si>
   <si>
     <t>1005010034_OP-21</t>
@@ -933,16 +1038,22 @@
     <t>1.598802</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>65.753425%</t>
-  </si>
-  <si>
-    <t>15.068493%</t>
-  </si>
-  <si>
-    <t>19.178082%</t>
+    <t>232</t>
+  </si>
+  <si>
+    <t>70.090634%</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>15.105740%</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>14.803625%</t>
   </si>
   <si>
     <t>1005030035_OP-21</t>
@@ -960,16 +1071,16 @@
     <t>2.038922</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>62.820513%</t>
-  </si>
-  <si>
-    <t>15.384615%</t>
-  </si>
-  <si>
-    <t>21.794872%</t>
+    <t>244</t>
+  </si>
+  <si>
+    <t>71.137026%</t>
+  </si>
+  <si>
+    <t>11.953353%</t>
+  </si>
+  <si>
+    <t>16.909621%</t>
   </si>
   <si>
     <t>1503040000_op-21</t>
@@ -987,25 +1098,25 @@
     <t>3.973361</t>
   </si>
   <si>
-    <t>7.079646%</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>31.858407%</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>25.663717%</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>35.398230%</t>
+    <t>7.747748%</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>31.711712%</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>26.306306%</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>34.234234%</t>
   </si>
   <si>
     <t>2703030030_op-21</t>
@@ -1026,15 +1137,24 @@
     <t>2.681633</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>36.190476%</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>28.888889%</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>34.920635%</t>
   </si>
   <si>
-    <t>23.809524%</t>
-  </si>
-  <si>
-    <t>41.269841%</t>
-  </si>
-  <si>
     <t>2703040030_op-21</t>
   </si>
   <si>
@@ -1050,13 +1170,19 @@
     <t>2.075820</t>
   </si>
   <si>
-    <t>45.454545%</t>
-  </si>
-  <si>
-    <t>29.090909%</t>
-  </si>
-  <si>
-    <t>25.454545%</t>
+    <t>143</t>
+  </si>
+  <si>
+    <t>51.811594%</t>
+  </si>
+  <si>
+    <t>28.260870%</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>19.927536%</t>
   </si>
   <si>
     <t>2704030006_op-20</t>
@@ -1080,10 +1206,19 @@
     <t>3.936000</t>
   </si>
   <si>
-    <t>31.250000%</t>
-  </si>
-  <si>
-    <t>18.750000%</t>
+    <t>85</t>
+  </si>
+  <si>
+    <t>26.234568%</t>
+  </si>
+  <si>
+    <t>28.395062%</t>
+  </si>
+  <si>
+    <t>31.481481%</t>
+  </si>
+  <si>
+    <t>13.888889%</t>
   </si>
   <si>
     <t>2704030006_OP-21</t>
@@ -1101,10 +1236,16 @@
     <t>4.096000</t>
   </si>
   <si>
-    <t>23.404255%</t>
-  </si>
-  <si>
-    <t>38.297872%</t>
+    <t>26.315789%</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>33.014354%</t>
+  </si>
+  <si>
+    <t>40.669856%</t>
   </si>
   <si>
     <t>2704040001_OP-20</t>
@@ -1122,13 +1263,19 @@
     <t>10.270161</t>
   </si>
   <si>
-    <t>16.666667%</t>
-  </si>
-  <si>
-    <t>14.583333%</t>
-  </si>
-  <si>
-    <t>35.416667%</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>18.374558%</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>30.388693%</t>
+  </si>
+  <si>
+    <t>32.862191%</t>
   </si>
   <si>
     <t>2704040004_OP-20</t>
@@ -1143,13 +1290,16 @@
     <t>9.854839</t>
   </si>
   <si>
-    <t>15.094340%</t>
-  </si>
-  <si>
-    <t>32.075472%</t>
-  </si>
-  <si>
-    <t>37.735849%</t>
+    <t>12.589928%</t>
+  </si>
+  <si>
+    <t>19.784173%</t>
+  </si>
+  <si>
+    <t>31.654676%</t>
+  </si>
+  <si>
+    <t>35.971223%</t>
   </si>
   <si>
     <t>2704040005_OP-21</t>
@@ -1167,10 +1317,16 @@
     <t>4.036290</t>
   </si>
   <si>
-    <t>46.875000%</t>
-  </si>
-  <si>
-    <t>21.875000%</t>
+    <t>34.131737%</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>38.922156%</t>
+  </si>
+  <si>
+    <t>26.946108%</t>
   </si>
   <si>
     <t>Максимальные значения:</t>
@@ -1206,46 +1362,46 @@
     <t>10.270161 (2704040001_OP-20)</t>
   </si>
   <si>
-    <t>8.000000 (1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>7.079646 (1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>8.000000 (2704040001_OP-20)</t>
-  </si>
-  <si>
-    <t>16.666667 (2704040001_OP-20)</t>
-  </si>
-  <si>
-    <t>36.000000 (1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>31.858407 (1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>49.000000 (1005030035_OP-21)</t>
-  </si>
-  <si>
-    <t>65.753425 (1005010034_OP-21)</t>
-  </si>
-  <si>
-    <t>40.000000 (1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>50.000000 (0903020030_op-21)</t>
-  </si>
-  <si>
-    <t>12.000000 (2704030006_op-20)</t>
-  </si>
-  <si>
-    <t>18.750000 (2704030006_op-20)</t>
-  </si>
-  <si>
-    <t>27.000000 (0903010030_op-21)</t>
-  </si>
-  <si>
-    <t>47.222222 (0104020009_OP-20)</t>
+    <t>43.000000 (1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>7.747748 (1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>52.000000 (2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>18.374558 (2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>176.000000 (1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>31.711712 (1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>244.000000 (1005030035_OP-21)</t>
+  </si>
+  <si>
+    <t>71.137026 (1005030035_OP-21)</t>
+  </si>
+  <si>
+    <t>190.000000 (1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>46.473029 (0903020030_op-21)</t>
+  </si>
+  <si>
+    <t>45.000000 (2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>13.888889 (2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>110.000000 (2703030030_op-21)</t>
+  </si>
+  <si>
+    <t>47.826087 (0104020009_OP-20)</t>
   </si>
   <si>
     <t>Минимальные значения:</t>
@@ -1281,37 +1437,46 @@
     <t>0.536290 (у УП 0904040003_OP-21)</t>
   </si>
   <si>
-    <t>0.000000 (у УП 0103040030_op-21)</t>
-  </si>
-  <si>
-    <t>7.079646 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>15.094340 (у УП 2704040004_OP-20)</t>
-  </si>
-  <si>
-    <t>14.583333 (у УП 2704040001_OP-20)</t>
-  </si>
-  <si>
-    <t>8.000000 (у УП 0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>21.666667 (у УП 0903020030_op-21)</t>
-  </si>
-  <si>
-    <t>4.000000 (у УП 0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>10.606061 (у УП 1003010031_op-21)</t>
-  </si>
-  <si>
-    <t>18.750000 (у УП 2704030006_op-20)</t>
-  </si>
-  <si>
-    <t>0.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>19.178082 (у УП 1005010034_OP-21)</t>
+    <t>43.000000 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>7.747748 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>35.000000 (у УП 2704040004_OP-20)</t>
+  </si>
+  <si>
+    <t>12.589928 (у УП 2704040004_OP-20)</t>
+  </si>
+  <si>
+    <t>52.000000 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>18.374558 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>46.000000 (у УП 0904040001_OP-20)</t>
+  </si>
+  <si>
+    <t>26.306306 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>14.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>10.112360 (у УП 1003010031_op-21)</t>
+  </si>
+  <si>
+    <t>45.000000 (у УП 2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>13.888889 (у УП 2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>22.000000 (у УП 0904010006_OP-20)</t>
+  </si>
+  <si>
+    <t>14.803625 (у УП 1005010034_OP-21)</t>
   </si>
 </sst>
 </file>
@@ -1904,425 +2069,425 @@
         <v>37</v>
       </c>
       <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
       </c>
       <c r="H3" t="s">
         <v>33</v>
       </c>
       <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>55</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>56</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>57</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s">
         <v>58</v>
       </c>
-      <c r="V3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>59</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>70</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>71</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>72</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" t="s">
         <v>73</v>
       </c>
-      <c r="V4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>65</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>66</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>70</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>71</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>72</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" t="s">
         <v>73</v>
       </c>
-      <c r="V5" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>74</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
       </c>
       <c r="F6" t="s">
         <v>31</v>
       </c>
       <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
         <v>81</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>82</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
         <v>85</v>
       </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>86</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>87</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>88</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" t="s">
         <v>89</v>
       </c>
-      <c r="V6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>90</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
         <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
       <c r="G7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
         <v>96</v>
       </c>
-      <c r="H7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>98</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
         <v>99</v>
       </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>100</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>101</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>102</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" t="s">
         <v>103</v>
-      </c>
-      <c r="V7" t="s">
-        <v>37</v>
-      </c>
-      <c r="W7" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" t="s">
-        <v>74</v>
       </c>
       <c r="Y7" t="s">
         <v>104</v>
@@ -2354,7 +2519,7 @@
         <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
         <v>112</v>
@@ -2366,66 +2531,66 @@
         <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
         <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s">
         <v>37</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="S8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V8" t="s">
         <v>37</v>
       </c>
       <c r="W8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
         <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
         <v>33</v>
@@ -2434,75 +2599,75 @@
         <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s">
         <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
         <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" t="s">
         <v>37</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="S9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="T9" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="V9" t="s">
         <v>37</v>
       </c>
       <c r="W9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Y9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
         <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -2511,66 +2676,66 @@
         <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s">
         <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
         <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" t="s">
         <v>37</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="S10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="T10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="V10" t="s">
         <v>37</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Y10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -2579,7 +2744,7 @@
         <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
         <v>31</v>
@@ -2588,57 +2753,57 @@
         <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" t="s">
         <v>37</v>
       </c>
       <c r="Q11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="S11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="T11" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="V11" t="s">
         <v>37</v>
       </c>
       <c r="W11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X11" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -2647,1710 +2812,1710 @@
         <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P12" t="s">
         <v>37</v>
       </c>
       <c r="Q12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R12" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="S12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="T12" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="U12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="V12" t="s">
         <v>37</v>
       </c>
       <c r="W12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Y12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s">
         <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" t="s">
         <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P13" t="s">
         <v>37</v>
       </c>
       <c r="Q13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R13" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="S13" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="T13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U13" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="V13" t="s">
         <v>37</v>
       </c>
       <c r="W13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X13" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="Y13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" t="s">
         <v>172</v>
       </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" t="s">
-        <v>167</v>
-      </c>
       <c r="L14" t="s">
         <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
         <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" t="s">
         <v>37</v>
       </c>
       <c r="Q14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R14" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="S14" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="T14" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="V14" t="s">
         <v>37</v>
       </c>
       <c r="W14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s">
         <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15" t="s">
         <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" t="s">
         <v>37</v>
       </c>
       <c r="Q15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R15" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="S15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="U15" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="V15" t="s">
         <v>37</v>
       </c>
       <c r="W15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H16" t="s">
         <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
         <v>37</v>
       </c>
       <c r="M16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" t="s">
         <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P16" t="s">
         <v>37</v>
       </c>
       <c r="Q16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R16" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="S16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="U16" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="V16" t="s">
         <v>37</v>
       </c>
       <c r="W16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H17" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
         <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N17" t="s">
         <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P17" t="s">
         <v>37</v>
       </c>
       <c r="Q17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R17" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="S17" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="T17" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U17" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="V17" t="s">
         <v>37</v>
       </c>
       <c r="W17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X17" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" t="s">
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P18" t="s">
         <v>37</v>
       </c>
       <c r="Q18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R18" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="S18" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="T18" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U18" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="V18" t="s">
         <v>37</v>
       </c>
       <c r="W18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X18" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
         <v>189</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>181</v>
-      </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H19" t="s">
         <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s">
         <v>37</v>
       </c>
       <c r="M19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" t="s">
         <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P19" t="s">
         <v>37</v>
       </c>
       <c r="Q19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R19" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="T19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U19" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="V19" t="s">
         <v>37</v>
       </c>
       <c r="W19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H20" t="s">
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
         <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" t="s">
         <v>37</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P20" t="s">
         <v>37</v>
       </c>
       <c r="Q20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R20" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="S20" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="T20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U20" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="V20" t="s">
         <v>37</v>
       </c>
       <c r="W20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X20" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H21" t="s">
         <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s">
         <v>37</v>
       </c>
       <c r="M21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N21" t="s">
         <v>37</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P21" t="s">
         <v>37</v>
       </c>
       <c r="Q21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R21" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="S21" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="T21" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U21" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="V21" t="s">
         <v>37</v>
       </c>
       <c r="W21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X21" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S22" t="s">
+        <v>203</v>
+      </c>
+      <c r="T22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U22" t="s">
+        <v>204</v>
+      </c>
+      <c r="V22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y22" t="s">
         <v>206</v>
-      </c>
-      <c r="K22" t="s">
-        <v>207</v>
-      </c>
-      <c r="L22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22" t="s">
-        <v>186</v>
-      </c>
-      <c r="T22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U22" t="s">
-        <v>208</v>
-      </c>
-      <c r="V22" t="s">
-        <v>37</v>
-      </c>
-      <c r="W22" t="s">
-        <v>38</v>
-      </c>
-      <c r="X22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
         <v>37</v>
       </c>
       <c r="M23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N23" t="s">
         <v>37</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" t="s">
         <v>37</v>
       </c>
       <c r="Q23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R23" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="S23" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="U23" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="V23" t="s">
         <v>37</v>
       </c>
       <c r="W23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="H24" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I24" t="s">
         <v>31</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s">
         <v>37</v>
       </c>
       <c r="M24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24" t="s">
         <v>37</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" t="s">
         <v>37</v>
       </c>
       <c r="Q24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R24" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="S24" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="T24" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U24" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="V24" t="s">
         <v>37</v>
       </c>
       <c r="W24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X24" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="H25" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I25" t="s">
         <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s">
         <v>37</v>
       </c>
       <c r="M25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N25" t="s">
         <v>37</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" t="s">
         <v>37</v>
       </c>
       <c r="Q25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R25" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="S25" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="T25" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U25" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="V25" t="s">
         <v>37</v>
       </c>
       <c r="W25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X25" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
         <v>37</v>
       </c>
       <c r="M26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26" t="s">
         <v>37</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P26" t="s">
         <v>37</v>
       </c>
       <c r="Q26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R26" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="S26" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="T26" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U26" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="V26" t="s">
         <v>37</v>
       </c>
       <c r="W26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X26" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G27" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
         <v>37</v>
       </c>
       <c r="M27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N27" t="s">
         <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P27" t="s">
         <v>37</v>
       </c>
       <c r="Q27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R27" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="S27" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="T27" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U27" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="V27" t="s">
         <v>37</v>
       </c>
       <c r="W27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X27" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="Y27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G28" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s">
         <v>37</v>
       </c>
       <c r="M28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28" t="s">
         <v>37</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P28" t="s">
         <v>37</v>
       </c>
       <c r="Q28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R28" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="S28" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="T28" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U28" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="V28" t="s">
         <v>37</v>
       </c>
       <c r="W28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X28" t="s">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="Y28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G29" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I29" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s">
         <v>37</v>
       </c>
       <c r="M29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N29" t="s">
         <v>37</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P29" t="s">
         <v>37</v>
       </c>
       <c r="Q29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R29" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="S29" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="T29" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U29" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="V29" t="s">
         <v>37</v>
       </c>
       <c r="W29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X29" t="s">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="H30" t="s">
         <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s">
+        <v>238</v>
+      </c>
+      <c r="S30" t="s">
         <v>239</v>
       </c>
-      <c r="L30" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" t="s">
-        <v>38</v>
-      </c>
-      <c r="N30" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>38</v>
-      </c>
-      <c r="R30" t="s">
-        <v>43</v>
-      </c>
-      <c r="S30" t="s">
-        <v>186</v>
-      </c>
       <c r="T30" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U30" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="V30" t="s">
         <v>37</v>
       </c>
       <c r="W30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X30" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="Y30" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="H31" t="s">
         <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s">
+        <v>238</v>
+      </c>
+      <c r="S31" t="s">
         <v>239</v>
       </c>
-      <c r="L31" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" t="s">
-        <v>38</v>
-      </c>
-      <c r="P31" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R31" t="s">
-        <v>43</v>
-      </c>
-      <c r="S31" t="s">
-        <v>186</v>
-      </c>
       <c r="T31" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U31" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="V31" t="s">
         <v>37</v>
       </c>
       <c r="W31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X31" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="Y31" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G32" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="H32" t="s">
         <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s">
         <v>37</v>
       </c>
       <c r="M32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N32" t="s">
         <v>37</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P32" t="s">
         <v>37</v>
       </c>
       <c r="Q32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R32" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="S32" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="T32" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U32" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="V32" t="s">
         <v>37</v>
       </c>
       <c r="W32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X32" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="Y32" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G33" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="H33" t="s">
         <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s">
         <v>37</v>
       </c>
       <c r="M33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N33" t="s">
         <v>37</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P33" t="s">
         <v>37</v>
       </c>
       <c r="Q33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R33" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="S33" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="T33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U33" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="V33" t="s">
         <v>37</v>
       </c>
       <c r="W33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X33" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="Y33" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F34" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G34" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="H34" t="s">
         <v>33</v>
@@ -4359,75 +4524,75 @@
         <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s">
         <v>37</v>
       </c>
       <c r="M34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N34" t="s">
         <v>37</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P34" t="s">
         <v>37</v>
       </c>
       <c r="Q34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R34" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="S34" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="T34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U34" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="V34" t="s">
         <v>37</v>
       </c>
       <c r="W34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X34" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="Y34" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G35" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="H35" t="s">
         <v>33</v>
@@ -4436,75 +4601,75 @@
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s">
         <v>37</v>
       </c>
       <c r="M35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N35" t="s">
         <v>37</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P35" t="s">
         <v>37</v>
       </c>
       <c r="Q35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R35" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="S35" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="T35" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U35" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="V35" t="s">
         <v>37</v>
       </c>
       <c r="W35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X35" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="Y35" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G36" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="H36" t="s">
         <v>33</v>
@@ -4513,229 +4678,229 @@
         <v>111</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s">
         <v>37</v>
       </c>
       <c r="M36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N36" t="s">
         <v>37</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P36" t="s">
         <v>37</v>
       </c>
       <c r="Q36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="S36" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="T36" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="U36" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="V36" t="s">
         <v>37</v>
       </c>
       <c r="W36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X36" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="Y36" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="H37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I37" t="s">
         <v>111</v>
       </c>
       <c r="J37" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K37" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s">
         <v>37</v>
       </c>
       <c r="M37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N37" t="s">
         <v>37</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P37" t="s">
         <v>37</v>
       </c>
       <c r="Q37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="S37" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="U37" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="V37" t="s">
         <v>37</v>
       </c>
       <c r="W37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X37" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="Y37" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F38" t="s">
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="H38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I38" t="s">
         <v>111</v>
       </c>
       <c r="J38" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K38" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s">
         <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N38" t="s">
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P38" t="s">
         <v>37</v>
       </c>
       <c r="Q38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R38" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="S38" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="U38" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="V38" t="s">
         <v>37</v>
       </c>
       <c r="W38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X38" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="Y38" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D39" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="H39" t="s">
         <v>33</v>
@@ -4744,57 +4909,57 @@
         <v>111</v>
       </c>
       <c r="J39" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K39" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s">
         <v>37</v>
       </c>
       <c r="M39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N39" t="s">
         <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P39" t="s">
         <v>37</v>
       </c>
       <c r="Q39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R39" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="S39" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="T39" t="s">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="U39" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="V39" t="s">
         <v>37</v>
       </c>
       <c r="W39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X39" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="Y39" t="s">
-        <v>217</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -4803,383 +4968,383 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="F40" t="s">
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="H40" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s">
         <v>37</v>
       </c>
       <c r="M40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N40" t="s">
         <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P40" t="s">
         <v>37</v>
       </c>
       <c r="Q40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R40" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="S40" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="T40" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="U40" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="V40" t="s">
         <v>37</v>
       </c>
       <c r="W40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X40" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="Y40" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="E41" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H41" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J41" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s">
         <v>37</v>
       </c>
       <c r="M41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N41" t="s">
         <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P41" t="s">
         <v>37</v>
       </c>
       <c r="Q41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R41" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="S41" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="T41" t="s">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="U41" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="V41" t="s">
         <v>37</v>
       </c>
       <c r="W41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X41" t="s">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="Y41" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C42" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="D42" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="E42" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H42" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I42" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J42" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" t="s">
+        <v>37</v>
+      </c>
+      <c r="P42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>37</v>
+      </c>
+      <c r="R42" t="s">
+        <v>329</v>
+      </c>
+      <c r="S42" t="s">
+        <v>330</v>
+      </c>
+      <c r="T42" t="s">
         <v>291</v>
       </c>
-      <c r="L42" t="s">
-        <v>37</v>
-      </c>
-      <c r="M42" t="s">
-        <v>38</v>
-      </c>
-      <c r="N42" t="s">
-        <v>37</v>
-      </c>
-      <c r="O42" t="s">
-        <v>38</v>
-      </c>
-      <c r="P42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>38</v>
-      </c>
-      <c r="R42" t="s">
-        <v>292</v>
-      </c>
-      <c r="S42" t="s">
-        <v>293</v>
-      </c>
-      <c r="T42" t="s">
-        <v>43</v>
-      </c>
       <c r="U42" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="V42" t="s">
         <v>37</v>
       </c>
       <c r="W42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X42" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="Y42" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="E43" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="H43" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="M43" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s">
         <v>37</v>
       </c>
       <c r="O43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P43" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="Q43" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="R43" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="S43" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="T43" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="U43" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="V43" t="s">
         <v>37</v>
       </c>
       <c r="W43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X43" t="s">
         <v>37</v>
       </c>
       <c r="Y43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="C44" t="s">
         <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="H44" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I44" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J44" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s">
         <v>37</v>
       </c>
       <c r="M44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N44" t="s">
         <v>37</v>
       </c>
       <c r="O44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P44" t="s">
         <v>37</v>
       </c>
       <c r="Q44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R44" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="S44" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="T44" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="U44" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="V44" t="s">
         <v>37</v>
       </c>
       <c r="W44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X44" t="s">
-        <v>39</v>
+        <v>355</v>
       </c>
       <c r="Y44" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -5188,609 +5353,609 @@
         <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G45" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="H45" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I45" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J45" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s">
         <v>37</v>
       </c>
       <c r="M45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N45" t="s">
         <v>37</v>
       </c>
       <c r="O45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P45" t="s">
         <v>37</v>
       </c>
       <c r="Q45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R45" t="s">
-        <v>149</v>
+        <v>362</v>
       </c>
       <c r="S45" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="T45" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="U45" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="V45" t="s">
         <v>37</v>
       </c>
       <c r="W45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X45" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="Y45" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="E46" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="F46" t="s">
         <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="H46" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="K46" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s">
         <v>37</v>
       </c>
       <c r="M46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N46" t="s">
         <v>37</v>
       </c>
       <c r="O46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P46" t="s">
-        <v>86</v>
+        <v>374</v>
       </c>
       <c r="Q46" t="s">
-        <v>73</v>
+        <v>375</v>
       </c>
       <c r="R46" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="S46" t="s">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="T46" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="U46" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="V46" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="W46" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="X46" t="s">
         <v>37</v>
       </c>
       <c r="Y46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="H47" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="K47" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s">
         <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N47" t="s">
         <v>37</v>
       </c>
       <c r="O47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P47" t="s">
         <v>37</v>
       </c>
       <c r="Q47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R47" t="s">
-        <v>199</v>
+        <v>365</v>
       </c>
       <c r="S47" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="T47" t="s">
-        <v>273</v>
+        <v>385</v>
       </c>
       <c r="U47" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="V47" t="s">
         <v>37</v>
       </c>
       <c r="W47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X47" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
       <c r="Y47" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G48" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="H48" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="K48" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="L48" t="s">
         <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N48" t="s">
-        <v>55</v>
+        <v>393</v>
       </c>
       <c r="O48" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>393</v>
       </c>
       <c r="Q48" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="R48" t="s">
-        <v>86</v>
+        <v>395</v>
       </c>
       <c r="S48" t="s">
-        <v>60</v>
+        <v>396</v>
       </c>
       <c r="T48" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="U48" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="V48" t="s">
         <v>37</v>
       </c>
       <c r="W48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X48" t="s">
         <v>37</v>
       </c>
       <c r="Y48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="E49" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G49" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="H49" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="K49" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="L49" t="s">
         <v>37</v>
       </c>
       <c r="M49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N49" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="O49" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="P49" t="s">
-        <v>55</v>
+        <v>365</v>
       </c>
       <c r="Q49" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="R49" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="S49" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="T49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U49" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="V49" t="s">
         <v>37</v>
       </c>
       <c r="W49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X49" t="s">
         <v>37</v>
       </c>
       <c r="Y49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="E50" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="F50" t="s">
         <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="H50" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="K50" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s">
         <v>37</v>
       </c>
       <c r="M50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N50" t="s">
         <v>37</v>
       </c>
       <c r="O50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P50" t="s">
         <v>37</v>
       </c>
       <c r="Q50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R50" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="S50" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="T50" t="s">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="U50" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="V50" t="s">
         <v>37</v>
       </c>
       <c r="W50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X50" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="Y50" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="C51" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="D51" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="E51" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="F51" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="G51" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="H51" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="I51" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="J51" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="K51" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="M51" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="N51" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="O51" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="P51" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="Q51" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="R51" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="S51" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="T51" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="U51" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="V51" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="W51" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="X51" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="Y51" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="B52" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="C52" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="D52" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="E52" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="F52" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="G52" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="H52" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="I52" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="J52" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="K52" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="M52" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="N52" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="O52" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="P52" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="Q52" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="R52" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="S52" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="T52" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="U52" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="V52" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="W52" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="X52" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="Y52" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -14,10 +14,55 @@
   </bookViews>
   <sheets>
     <sheet name="Total Data" sheetId="2" r:id="rId5"/>
-    <sheet name="0903030032_OP-20" sheetId="3" r:id="rId6"/>
-    <sheet name="0903030033_OP-21" sheetId="4" r:id="rId7"/>
-    <sheet name="1005010034_OP-21" sheetId="5" r:id="rId8"/>
-    <sheet name="1503040000_op-21" sheetId="6" r:id="rId9"/>
+    <sheet name="0103040030_op-21" sheetId="3" r:id="rId6"/>
+    <sheet name="0104020007_op-20" sheetId="4" r:id="rId7"/>
+    <sheet name="0104020009_OP-20" sheetId="5" r:id="rId8"/>
+    <sheet name="0104020009_OP-21" sheetId="6" r:id="rId9"/>
+    <sheet name="0903010030_op-21" sheetId="7" r:id="rId10"/>
+    <sheet name="0903020030_op-21" sheetId="8" r:id="rId11"/>
+    <sheet name="0903030031_OP-21" sheetId="9" r:id="rId12"/>
+    <sheet name="0903030032_OP-20" sheetId="10" r:id="rId13"/>
+    <sheet name="0903030033_OP-21" sheetId="11" r:id="rId14"/>
+    <sheet name="0903030035_OP-21" sheetId="12" r:id="rId15"/>
+    <sheet name="0903040030_op-21" sheetId="13" r:id="rId16"/>
+    <sheet name="0904010001_OP-20" sheetId="14" r:id="rId17"/>
+    <sheet name="0904010001_OP-21" sheetId="15" r:id="rId18"/>
+    <sheet name="0904010003_OP-20" sheetId="16" r:id="rId19"/>
+    <sheet name="0904010003_OP-21" sheetId="17" r:id="rId20"/>
+    <sheet name="0904010004_OP-20" sheetId="18" r:id="rId21"/>
+    <sheet name="0904010004_OP-21" sheetId="19" r:id="rId22"/>
+    <sheet name="0904010006_OP-20" sheetId="20" r:id="rId23"/>
+    <sheet name="0904010010_OP-20" sheetId="21" r:id="rId24"/>
+    <sheet name="0904010010_OP-21" sheetId="22" r:id="rId25"/>
+    <sheet name="0904010011_OP-21" sheetId="23" r:id="rId26"/>
+    <sheet name="0904010012_OP-21" sheetId="24" r:id="rId27"/>
+    <sheet name="0904020001_OP-20" sheetId="25" r:id="rId28"/>
+    <sheet name="0904020001_OP-21" sheetId="26" r:id="rId29"/>
+    <sheet name="0904020002_OP-20" sheetId="27" r:id="rId30"/>
+    <sheet name="0904020002_OP-21" sheetId="28" r:id="rId31"/>
+    <sheet name="0904020003_OP-20" sheetId="29" r:id="rId32"/>
+    <sheet name="0904020003_OP-21" sheetId="30" r:id="rId33"/>
+    <sheet name="0904020004_OP-20" sheetId="31" r:id="rId34"/>
+    <sheet name="0904020004_OP-21" sheetId="32" r:id="rId35"/>
+    <sheet name="0904020005_OP-20" sheetId="33" r:id="rId36"/>
+    <sheet name="0904020005_OP-21" sheetId="34" r:id="rId37"/>
+    <sheet name="0904020006_OP-20" sheetId="35" r:id="rId38"/>
+    <sheet name="0904020006_OP-21" sheetId="36" r:id="rId39"/>
+    <sheet name="0904040001_OP-20" sheetId="37" r:id="rId40"/>
+    <sheet name="0904040002_OP-20" sheetId="38" r:id="rId41"/>
+    <sheet name="0904040002_OP-21" sheetId="39" r:id="rId42"/>
+    <sheet name="0904040003_OP-21" sheetId="40" r:id="rId43"/>
+    <sheet name="1003010031_op-21" sheetId="41" r:id="rId44"/>
+    <sheet name="1005010034_OP-21" sheetId="42" r:id="rId45"/>
+    <sheet name="1005030035_OP-21" sheetId="43" r:id="rId46"/>
+    <sheet name="1503040000_op-21" sheetId="44" r:id="rId47"/>
+    <sheet name="2703030030_op-21" sheetId="45" r:id="rId48"/>
+    <sheet name="2703040030_op-21" sheetId="46" r:id="rId49"/>
+    <sheet name="2704030006_op-20" sheetId="47" r:id="rId50"/>
+    <sheet name="2704030006_OP-21" sheetId="48" r:id="rId51"/>
+    <sheet name="2704040001_OP-20" sheetId="49" r:id="rId52"/>
+    <sheet name="2704040004_OP-20" sheetId="50" r:id="rId53"/>
+    <sheet name="2704040005_OP-21" sheetId="51" r:id="rId54"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -75,30 +120,333 @@
     <t>Максимальное оставное дерево</t>
   </si>
   <si>
-    <t>ЗЕ у компетенцииOPK</t>
+    <t>ЗЕ у компетенции DOPK</t>
+  </si>
+  <si>
+    <t>DOPK</t>
+  </si>
+  <si>
+    <t>ЗЕ у компетенции DPK</t>
+  </si>
+  <si>
+    <t>DPK</t>
+  </si>
+  <si>
+    <t>ЗЕ у компетенции OK</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ЗЕ у компетенции OPK</t>
   </si>
   <si>
     <t>OPK</t>
   </si>
   <si>
-    <t>ЗЕ у компетенцииPK</t>
+    <t>ЗЕ у компетенции PK</t>
   </si>
   <si>
     <t>PK</t>
   </si>
   <si>
-    <t>ЗЕ у компетенцииUK</t>
+    <t xml:space="preserve">ЗЕ у компетенции PK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK </t>
+  </si>
+  <si>
+    <t>ЗЕ у компетенции SPK</t>
+  </si>
+  <si>
+    <t>SPK</t>
+  </si>
+  <si>
+    <t>ЗЕ у компетенции UK</t>
   </si>
   <si>
     <t>UK</t>
   </si>
   <si>
+    <t>0103040030_op-21</t>
+  </si>
+  <si>
+    <t>244.000000</t>
+  </si>
+  <si>
+    <t>59.000000</t>
+  </si>
+  <si>
+    <t>261.000000</t>
+  </si>
+  <si>
+    <t>63.000000</t>
+  </si>
+  <si>
+    <t>10.000000</t>
+  </si>
+  <si>
+    <t>0.065574</t>
+  </si>
+  <si>
+    <t>4.000000</t>
+  </si>
+  <si>
+    <t>8.000000</t>
+  </si>
+  <si>
+    <t>0.721311</t>
+  </si>
+  <si>
+    <t>1.424180</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>432.000000</t>
+  </si>
+  <si>
+    <t>41.379310%</t>
+  </si>
+  <si>
+    <t>393.000000</t>
+  </si>
+  <si>
+    <t>37.643678%</t>
+  </si>
+  <si>
+    <t>219.000000</t>
+  </si>
+  <si>
+    <t>20.977011%</t>
+  </si>
+  <si>
+    <t>0104020007_op-20</t>
+  </si>
+  <si>
+    <t>124.000000</t>
+  </si>
+  <si>
+    <t>17.000000</t>
+  </si>
+  <si>
+    <t>136.000000</t>
+  </si>
+  <si>
+    <t>20.000000</t>
+  </si>
+  <si>
+    <t>18.000000</t>
+  </si>
+  <si>
+    <t>0.241935</t>
+  </si>
+  <si>
+    <t>1.000000</t>
+  </si>
+  <si>
+    <t>0.830645</t>
+  </si>
+  <si>
+    <t>1.806452</t>
+  </si>
+  <si>
+    <t>174.000000</t>
+  </si>
+  <si>
+    <t>51.785714%</t>
+  </si>
+  <si>
+    <t>29.000000</t>
+  </si>
+  <si>
+    <t>8.630952%</t>
+  </si>
+  <si>
+    <t>133.000000</t>
+  </si>
+  <si>
+    <t>39.583333%</t>
+  </si>
+  <si>
+    <t>0104020009_OP-20</t>
+  </si>
+  <si>
+    <t>23.000000</t>
+  </si>
+  <si>
+    <t>130.000000</t>
+  </si>
+  <si>
+    <t>25.000000</t>
+  </si>
+  <si>
+    <t>30.000000</t>
+  </si>
+  <si>
+    <t>0.201613</t>
+  </si>
+  <si>
+    <t>3.000000</t>
+  </si>
+  <si>
+    <t>0.717742</t>
+  </si>
+  <si>
+    <t>4.911290</t>
+  </si>
+  <si>
+    <t>513.000000</t>
+  </si>
+  <si>
+    <t>34.779661%</t>
+  </si>
+  <si>
+    <t>128.000000</t>
+  </si>
+  <si>
+    <t>8.677966%</t>
+  </si>
+  <si>
+    <t>834.000000</t>
+  </si>
+  <si>
+    <t>56.542373%</t>
+  </si>
+  <si>
+    <t>0104020009_OP-21</t>
+  </si>
+  <si>
+    <t>0903010030_op-21</t>
+  </si>
+  <si>
+    <t>56.000000</t>
+  </si>
+  <si>
+    <t>265.000000</t>
+  </si>
+  <si>
+    <t>60.000000</t>
+  </si>
+  <si>
+    <t>0.106557</t>
+  </si>
+  <si>
+    <t>5.000000</t>
+  </si>
+  <si>
+    <t>7.000000</t>
+  </si>
+  <si>
+    <t>0.700820</t>
+  </si>
+  <si>
+    <t>1.182377</t>
+  </si>
+  <si>
+    <t>384.000000</t>
+  </si>
+  <si>
+    <t>36.329234%</t>
+  </si>
+  <si>
+    <t>321.000000</t>
+  </si>
+  <si>
+    <t>30.368969%</t>
+  </si>
+  <si>
+    <t>352.000000</t>
+  </si>
+  <si>
+    <t>33.301798%</t>
+  </si>
+  <si>
+    <t>0903020030_op-21</t>
+  </si>
+  <si>
+    <t>246.000000</t>
+  </si>
+  <si>
+    <t>339.000000</t>
+  </si>
+  <si>
+    <t>83.000000</t>
+  </si>
+  <si>
+    <t>0.091463</t>
+  </si>
+  <si>
+    <t>11.000000</t>
+  </si>
+  <si>
+    <t>0.654472</t>
+  </si>
+  <si>
+    <t>0.979675</t>
+  </si>
+  <si>
+    <t>26.855895%</t>
+  </si>
+  <si>
+    <t>465.000000</t>
+  </si>
+  <si>
+    <t>50.764192%</t>
+  </si>
+  <si>
+    <t>205.000000</t>
+  </si>
+  <si>
+    <t>22.379913%</t>
+  </si>
+  <si>
+    <t>0903030031_OP-21</t>
+  </si>
+  <si>
+    <t>51.000000</t>
+  </si>
+  <si>
+    <t>252.000000</t>
+  </si>
+  <si>
+    <t>53.000000</t>
+  </si>
+  <si>
+    <t>15.000000</t>
+  </si>
+  <si>
+    <t>0.120902</t>
+  </si>
+  <si>
+    <t>6.000000</t>
+  </si>
+  <si>
+    <t>0.706967</t>
+  </si>
+  <si>
+    <t>0.989754</t>
+  </si>
+  <si>
+    <t>399.000000</t>
+  </si>
+  <si>
+    <t>38.775510%</t>
+  </si>
+  <si>
+    <t>456.000000</t>
+  </si>
+  <si>
+    <t>44.314869%</t>
+  </si>
+  <si>
+    <t>16.909621%</t>
+  </si>
+  <si>
     <t>0903030032_OP-20</t>
   </si>
   <si>
-    <t>244.000000</t>
-  </si>
-  <si>
     <t>52.000000</t>
   </si>
   <si>
@@ -108,15 +456,9 @@
     <t>55.000000</t>
   </si>
   <si>
-    <t>15.000000</t>
-  </si>
-  <si>
     <t>0.094262</t>
   </si>
   <si>
-    <t>4.000000</t>
-  </si>
-  <si>
     <t>0.704918</t>
   </si>
   <si>
@@ -129,9 +471,6 @@
     <t>37.264151%</t>
   </si>
   <si>
-    <t>456.000000</t>
-  </si>
-  <si>
     <t>35.849057%</t>
   </si>
   <si>
@@ -180,6 +519,585 @@
     <t>26.076555%</t>
   </si>
   <si>
+    <t>0903030035_OP-21</t>
+  </si>
+  <si>
+    <t>255.000000</t>
+  </si>
+  <si>
+    <t>57.000000</t>
+  </si>
+  <si>
+    <t>263.000000</t>
+  </si>
+  <si>
+    <t>0.182353</t>
+  </si>
+  <si>
+    <t>0.766667</t>
+  </si>
+  <si>
+    <t>1.427451</t>
+  </si>
+  <si>
+    <t>29.887640%</t>
+  </si>
+  <si>
+    <t>558.000000</t>
+  </si>
+  <si>
+    <t>41.797753%</t>
+  </si>
+  <si>
+    <t>378.000000</t>
+  </si>
+  <si>
+    <t>28.314607%</t>
+  </si>
+  <si>
+    <t>0903040030_op-21</t>
+  </si>
+  <si>
+    <t>293.000000</t>
+  </si>
+  <si>
+    <t>0.143443</t>
+  </si>
+  <si>
+    <t>14.000000</t>
+  </si>
+  <si>
+    <t>0.696721</t>
+  </si>
+  <si>
+    <t>1.633197</t>
+  </si>
+  <si>
+    <t>369.000000</t>
+  </si>
+  <si>
+    <t>21.013667%</t>
+  </si>
+  <si>
+    <t>1157.000000</t>
+  </si>
+  <si>
+    <t>65.888383%</t>
+  </si>
+  <si>
+    <t>230.000000</t>
+  </si>
+  <si>
+    <t>13.097950%</t>
+  </si>
+  <si>
+    <t>0904010001_OP-20</t>
+  </si>
+  <si>
+    <t>134.000000</t>
+  </si>
+  <si>
+    <t>27.000000</t>
+  </si>
+  <si>
+    <t>12.000000</t>
+  </si>
+  <si>
+    <t>0.225806</t>
+  </si>
+  <si>
+    <t>0.604839</t>
+  </si>
+  <si>
+    <t>0.826613</t>
+  </si>
+  <si>
+    <t>285.000000</t>
+  </si>
+  <si>
+    <t>52.197802%</t>
+  </si>
+  <si>
+    <t>120.000000</t>
+  </si>
+  <si>
+    <t>21.978022%</t>
+  </si>
+  <si>
+    <t>141.000000</t>
+  </si>
+  <si>
+    <t>25.824176%</t>
+  </si>
+  <si>
+    <t>0904010001_OP-21</t>
+  </si>
+  <si>
+    <t>0904010003_OP-20</t>
+  </si>
+  <si>
+    <t>0.379032</t>
+  </si>
+  <si>
+    <t>0.705645</t>
+  </si>
+  <si>
+    <t>1.068548</t>
+  </si>
+  <si>
+    <t>104.000000</t>
+  </si>
+  <si>
+    <t>53.061224%</t>
+  </si>
+  <si>
+    <t>44.000000</t>
+  </si>
+  <si>
+    <t>22.448980%</t>
+  </si>
+  <si>
+    <t>48.000000</t>
+  </si>
+  <si>
+    <t>24.489796%</t>
+  </si>
+  <si>
+    <t>0904010003_OP-21</t>
+  </si>
+  <si>
+    <t>0904010004_OP-20</t>
+  </si>
+  <si>
+    <t>0.354839</t>
+  </si>
+  <si>
+    <t>9.000000</t>
+  </si>
+  <si>
+    <t>0.693548</t>
+  </si>
+  <si>
+    <t>1.052419</t>
+  </si>
+  <si>
+    <t>48.148148%</t>
+  </si>
+  <si>
+    <t>73.000000</t>
+  </si>
+  <si>
+    <t>33.796296%</t>
+  </si>
+  <si>
+    <t>39.000000</t>
+  </si>
+  <si>
+    <t>18.055556%</t>
+  </si>
+  <si>
+    <t>0904010004_OP-21</t>
+  </si>
+  <si>
+    <t>0904010006_OP-20</t>
+  </si>
+  <si>
+    <t>0.362903</t>
+  </si>
+  <si>
+    <t>0.701613</t>
+  </si>
+  <si>
+    <t>0.927419</t>
+  </si>
+  <si>
+    <t>312.000000</t>
+  </si>
+  <si>
+    <t>51.485149%</t>
+  </si>
+  <si>
+    <t>192.000000</t>
+  </si>
+  <si>
+    <t>31.683168%</t>
+  </si>
+  <si>
+    <t>102.000000</t>
+  </si>
+  <si>
+    <t>16.831683%</t>
+  </si>
+  <si>
+    <t>0904010010_OP-20</t>
+  </si>
+  <si>
+    <t>0.294355</t>
+  </si>
+  <si>
+    <t>0.737903</t>
+  </si>
+  <si>
+    <t>95.000000</t>
+  </si>
+  <si>
+    <t>46.798030%</t>
+  </si>
+  <si>
+    <t>25.615764%</t>
+  </si>
+  <si>
+    <t>27.586207%</t>
+  </si>
+  <si>
+    <t>0904010010_OP-21</t>
+  </si>
+  <si>
+    <t>0904010011_OP-21</t>
+  </si>
+  <si>
+    <t>26.000000</t>
+  </si>
+  <si>
+    <t>28.000000</t>
+  </si>
+  <si>
+    <t>0.366935</t>
+  </si>
+  <si>
+    <t>0.709677</t>
+  </si>
+  <si>
+    <t>0.979839</t>
+  </si>
+  <si>
+    <t>50.731707%</t>
+  </si>
+  <si>
+    <t>67.000000</t>
+  </si>
+  <si>
+    <t>32.682927%</t>
+  </si>
+  <si>
+    <t>34.000000</t>
+  </si>
+  <si>
+    <t>16.585366%</t>
+  </si>
+  <si>
+    <t>0904010012_OP-21</t>
+  </si>
+  <si>
+    <t>22.000000</t>
+  </si>
+  <si>
+    <t>24.000000</t>
+  </si>
+  <si>
+    <t>0.282258</t>
+  </si>
+  <si>
+    <t>2.000000</t>
+  </si>
+  <si>
+    <t>0.689516</t>
+  </si>
+  <si>
+    <t>1.201613</t>
+  </si>
+  <si>
+    <t>381.000000</t>
+  </si>
+  <si>
+    <t>53.361345%</t>
+  </si>
+  <si>
+    <t>222.000000</t>
+  </si>
+  <si>
+    <t>31.092437%</t>
+  </si>
+  <si>
+    <t>111.000000</t>
+  </si>
+  <si>
+    <t>15.546218%</t>
+  </si>
+  <si>
+    <t>0904020001_OP-20</t>
+  </si>
+  <si>
+    <t>0.092742</t>
+  </si>
+  <si>
+    <t>0.451613</t>
+  </si>
+  <si>
+    <t>0.552419</t>
+  </si>
+  <si>
+    <t>65.000000</t>
+  </si>
+  <si>
+    <t>47.101449%</t>
+  </si>
+  <si>
+    <t>36.000000</t>
+  </si>
+  <si>
+    <t>26.086957%</t>
+  </si>
+  <si>
+    <t>37.000000</t>
+  </si>
+  <si>
+    <t>26.811594%</t>
+  </si>
+  <si>
+    <t>0904020001_OP-21</t>
+  </si>
+  <si>
+    <t>0904020002_OP-20</t>
+  </si>
+  <si>
+    <t>0.141129</t>
+  </si>
+  <si>
+    <t>0.633065</t>
+  </si>
+  <si>
+    <t>0.822581</t>
+  </si>
+  <si>
+    <t>70.000000</t>
+  </si>
+  <si>
+    <t>38.674033%</t>
+  </si>
+  <si>
+    <t>54.000000</t>
+  </si>
+  <si>
+    <t>29.834254%</t>
+  </si>
+  <si>
+    <t>31.491713%</t>
+  </si>
+  <si>
+    <t>0904020002_OP-21</t>
+  </si>
+  <si>
+    <t>0904020003_OP-20</t>
+  </si>
+  <si>
+    <t>0.153226</t>
+  </si>
+  <si>
+    <t>0.532258</t>
+  </si>
+  <si>
+    <t>0.620968</t>
+  </si>
+  <si>
+    <t>43.918919%</t>
+  </si>
+  <si>
+    <t>24.324324%</t>
+  </si>
+  <si>
+    <t>47.000000</t>
+  </si>
+  <si>
+    <t>31.756757%</t>
+  </si>
+  <si>
+    <t>0904020003_OP-21</t>
+  </si>
+  <si>
+    <t>0904020004_OP-20</t>
+  </si>
+  <si>
+    <t>0.149194</t>
+  </si>
+  <si>
+    <t>0.612903</t>
+  </si>
+  <si>
+    <t>43.333333%</t>
+  </si>
+  <si>
+    <t>32.000000%</t>
+  </si>
+  <si>
+    <t>24.666667%</t>
+  </si>
+  <si>
+    <t>0904020004_OP-21</t>
+  </si>
+  <si>
+    <t>0904020005_OP-20</t>
+  </si>
+  <si>
+    <t>0.177419</t>
+  </si>
+  <si>
+    <t>0.629032</t>
+  </si>
+  <si>
+    <t>46.000000</t>
+  </si>
+  <si>
+    <t>31.081081%</t>
+  </si>
+  <si>
+    <t>25.000000%</t>
+  </si>
+  <si>
+    <t>0904020005_OP-21</t>
+  </si>
+  <si>
+    <t>0904020006_OP-20</t>
+  </si>
+  <si>
+    <t>0.556452</t>
+  </si>
+  <si>
+    <t>0.625000</t>
+  </si>
+  <si>
+    <t>44.520548%</t>
+  </si>
+  <si>
+    <t>30.136986%</t>
+  </si>
+  <si>
+    <t>25.342466%</t>
+  </si>
+  <si>
+    <t>0904020006_OP-21</t>
+  </si>
+  <si>
+    <t>0904040001_OP-20</t>
+  </si>
+  <si>
+    <t>21.000000</t>
+  </si>
+  <si>
+    <t>137.000000</t>
+  </si>
+  <si>
+    <t>0.346774</t>
+  </si>
+  <si>
+    <t>0.754032</t>
+  </si>
+  <si>
+    <t>0.858871</t>
+  </si>
+  <si>
+    <t>66.000000</t>
+  </si>
+  <si>
+    <t>28.820961%</t>
+  </si>
+  <si>
+    <t>84.000000</t>
+  </si>
+  <si>
+    <t>36.681223%</t>
+  </si>
+  <si>
+    <t>79.000000</t>
+  </si>
+  <si>
+    <t>34.497817%</t>
+  </si>
+  <si>
+    <t>0904040002_OP-20</t>
+  </si>
+  <si>
+    <t>0.189516</t>
+  </si>
+  <si>
+    <t>0.649194</t>
+  </si>
+  <si>
+    <t>33.846154%</t>
+  </si>
+  <si>
+    <t>69.000000</t>
+  </si>
+  <si>
+    <t>35.384615%</t>
+  </si>
+  <si>
+    <t>30.769231%</t>
+  </si>
+  <si>
+    <t>0904040002_OP-21</t>
+  </si>
+  <si>
+    <t>0904040003_OP-21</t>
+  </si>
+  <si>
+    <t>0.491935</t>
+  </si>
+  <si>
+    <t>0.536290</t>
+  </si>
+  <si>
+    <t>198.000000</t>
+  </si>
+  <si>
+    <t>31.378764%</t>
+  </si>
+  <si>
+    <t>304.000000</t>
+  </si>
+  <si>
+    <t>48.177496%</t>
+  </si>
+  <si>
+    <t>129.000000</t>
+  </si>
+  <si>
+    <t>20.443740%</t>
+  </si>
+  <si>
+    <t>1003010031_op-21</t>
+  </si>
+  <si>
+    <t>61.000000</t>
+  </si>
+  <si>
+    <t>0.075820</t>
+  </si>
+  <si>
+    <t>0.811475</t>
+  </si>
+  <si>
+    <t>2.151639</t>
+  </si>
+  <si>
+    <t>530.000000</t>
+  </si>
+  <si>
+    <t>46.046916%</t>
+  </si>
+  <si>
+    <t>272.000000</t>
+  </si>
+  <si>
+    <t>23.631625%</t>
+  </si>
+  <si>
+    <t>349.000000</t>
+  </si>
+  <si>
+    <t>30.321460%</t>
+  </si>
+  <si>
     <t>1005010034_OP-21</t>
   </si>
   <si>
@@ -192,18 +1110,9 @@
     <t>340.000000</t>
   </si>
   <si>
-    <t>73.000000</t>
-  </si>
-  <si>
-    <t>11.000000</t>
-  </si>
-  <si>
     <t>0.071856</t>
   </si>
   <si>
-    <t>2.000000</t>
-  </si>
-  <si>
     <t>0.905689</t>
   </si>
   <si>
@@ -228,6 +1137,36 @@
     <t>24.170965%</t>
   </si>
   <si>
+    <t>1005030035_OP-21</t>
+  </si>
+  <si>
+    <t>72.000000</t>
+  </si>
+  <si>
+    <t>74.000000</t>
+  </si>
+  <si>
+    <t>0.901198</t>
+  </si>
+  <si>
+    <t>2.038922</t>
+  </si>
+  <si>
+    <t>710.000000</t>
+  </si>
+  <si>
+    <t>49.168975%</t>
+  </si>
+  <si>
+    <t>23.545706%</t>
+  </si>
+  <si>
+    <t>394.000000</t>
+  </si>
+  <si>
+    <t>27.285319%</t>
+  </si>
+  <si>
     <t>1503040000_op-21</t>
   </si>
   <si>
@@ -237,19 +1176,271 @@
     <t>58.000000</t>
   </si>
   <si>
-    <t>0.075820</t>
-  </si>
-  <si>
-    <t>1.000000</t>
-  </si>
-  <si>
     <t>0.766393</t>
   </si>
   <si>
     <t>3.973361</t>
   </si>
   <si>
-    <t>-</t>
+    <t>43.000000</t>
+  </si>
+  <si>
+    <t>4.274354%</t>
+  </si>
+  <si>
+    <t>243.000000</t>
+  </si>
+  <si>
+    <t>24.155070%</t>
+  </si>
+  <si>
+    <t>267.000000</t>
+  </si>
+  <si>
+    <t>26.540755%</t>
+  </si>
+  <si>
+    <t>453.000000</t>
+  </si>
+  <si>
+    <t>45.029821%</t>
+  </si>
+  <si>
+    <t>2703030030_op-21</t>
+  </si>
+  <si>
+    <t>245.000000</t>
+  </si>
+  <si>
+    <t>0.114286</t>
+  </si>
+  <si>
+    <t>0.895918</t>
+  </si>
+  <si>
+    <t>2.681633</t>
+  </si>
+  <si>
+    <t>526.000000</t>
+  </si>
+  <si>
+    <t>27.367326%</t>
+  </si>
+  <si>
+    <t>790.000000</t>
+  </si>
+  <si>
+    <t>41.103018%</t>
+  </si>
+  <si>
+    <t>606.000000</t>
+  </si>
+  <si>
+    <t>31.529657%</t>
+  </si>
+  <si>
+    <t>2703040030_op-21</t>
+  </si>
+  <si>
+    <t>259.000000</t>
+  </si>
+  <si>
+    <t>0.135246</t>
+  </si>
+  <si>
+    <t>0.918033</t>
+  </si>
+  <si>
+    <t>2.075820</t>
+  </si>
+  <si>
+    <t>300.000000</t>
+  </si>
+  <si>
+    <t>49.833887%</t>
+  </si>
+  <si>
+    <t>140.000000</t>
+  </si>
+  <si>
+    <t>23.255814%</t>
+  </si>
+  <si>
+    <t>162.000000</t>
+  </si>
+  <si>
+    <t>26.910299%</t>
+  </si>
+  <si>
+    <t>2704030006_op-20</t>
+  </si>
+  <si>
+    <t>125.000000</t>
+  </si>
+  <si>
+    <t>138.000000</t>
+  </si>
+  <si>
+    <t>0.136000</t>
+  </si>
+  <si>
+    <t>0.660000</t>
+  </si>
+  <si>
+    <t>3.936000</t>
+  </si>
+  <si>
+    <t>24.606299%</t>
+  </si>
+  <si>
+    <t>182.000000</t>
+  </si>
+  <si>
+    <t>35.826772%</t>
+  </si>
+  <si>
+    <t>156.000000</t>
+  </si>
+  <si>
+    <t>30.708661%</t>
+  </si>
+  <si>
+    <t>45.000000</t>
+  </si>
+  <si>
+    <t>8.858268%</t>
+  </si>
+  <si>
+    <t>2704030006_OP-21</t>
+  </si>
+  <si>
+    <t>131.000000</t>
+  </si>
+  <si>
+    <t>0.108000</t>
+  </si>
+  <si>
+    <t>0.616000</t>
+  </si>
+  <si>
+    <t>4.096000</t>
+  </si>
+  <si>
+    <t>371.000000</t>
+  </si>
+  <si>
+    <t>28.084784%</t>
+  </si>
+  <si>
+    <t>651.000000</t>
+  </si>
+  <si>
+    <t>49.280848%</t>
+  </si>
+  <si>
+    <t>299.000000</t>
+  </si>
+  <si>
+    <t>22.634368%</t>
+  </si>
+  <si>
+    <t>2704040001_OP-20</t>
+  </si>
+  <si>
+    <t>149.000000</t>
+  </si>
+  <si>
+    <t>0.165323</t>
+  </si>
+  <si>
+    <t>0.548387</t>
+  </si>
+  <si>
+    <t>10.270161</t>
+  </si>
+  <si>
+    <t>6.473214%</t>
+  </si>
+  <si>
+    <t>97.000000</t>
+  </si>
+  <si>
+    <t>10.825893%</t>
+  </si>
+  <si>
+    <t>239.000000</t>
+  </si>
+  <si>
+    <t>26.674107%</t>
+  </si>
+  <si>
+    <t>502.000000</t>
+  </si>
+  <si>
+    <t>56.026786%</t>
+  </si>
+  <si>
+    <t>2704040004_OP-20</t>
+  </si>
+  <si>
+    <t>146.000000</t>
+  </si>
+  <si>
+    <t>0.306452</t>
+  </si>
+  <si>
+    <t>9.854839</t>
+  </si>
+  <si>
+    <t>6.105991%</t>
+  </si>
+  <si>
+    <t>127.000000</t>
+  </si>
+  <si>
+    <t>14.631336%</t>
+  </si>
+  <si>
+    <t>253.000000</t>
+  </si>
+  <si>
+    <t>29.147465%</t>
+  </si>
+  <si>
+    <t>435.000000</t>
+  </si>
+  <si>
+    <t>50.115207%</t>
+  </si>
+  <si>
+    <t>2704040005_OP-21</t>
+  </si>
+  <si>
+    <t>142.000000</t>
+  </si>
+  <si>
+    <t>0.193548</t>
+  </si>
+  <si>
+    <t>0.745968</t>
+  </si>
+  <si>
+    <t>4.036290</t>
+  </si>
+  <si>
+    <t>44.014733%</t>
+  </si>
+  <si>
+    <t>25.230203%</t>
+  </si>
+  <si>
+    <t>1.841621%</t>
+  </si>
+  <si>
+    <t>157.000000</t>
+  </si>
+  <si>
+    <t>28.913444%</t>
   </si>
   <si>
     <t>Максимальные значения:</t>
@@ -258,97 +1449,142 @@
     <t>334.000000 (у УП 1005010034_OP-21)</t>
   </si>
   <si>
-    <t>71.000000 (у УП 1005010034_OP-21)</t>
+    <t>72.000000 (у УП 1005030035_OP-21)</t>
   </si>
   <si>
     <t>340.000000 (у УП 1005010034_OP-21)</t>
   </si>
   <si>
-    <t>73.000000 (у УП 1005010034_OP-21)</t>
-  </si>
-  <si>
-    <t>15.000000 (у УП 0903030032_OP-20)</t>
-  </si>
-  <si>
-    <t>0.126033 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>4.000000 (у УП 0903030032_OP-20)</t>
-  </si>
-  <si>
-    <t>0.905689 (у УП 1005010034_OP-21)</t>
-  </si>
-  <si>
-    <t>3.973361 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>676.000000 (у УП 1005010034_OP-21)</t>
-  </si>
-  <si>
-    <t>49.815770 (у УП 1005010034_OP-21)</t>
-  </si>
-  <si>
-    <t>456.000000 (у УП 0903030032_OP-20)</t>
-  </si>
-  <si>
-    <t>36.124402 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>342.000000 (у УП 0903030032_OP-20)</t>
-  </si>
-  <si>
-    <t>26.886792 (у УП 0903030032_OP-20)</t>
+    <t>83.000000 (у УП 0903020030_op-21)</t>
+  </si>
+  <si>
+    <t>30.000000 (у УП 0104020009_OP-20)</t>
+  </si>
+  <si>
+    <t>0.379032 (у УП 0904010003_OP-20)</t>
+  </si>
+  <si>
+    <t>10.000000 (у УП 0903030035_OP-21)</t>
+  </si>
+  <si>
+    <t>14.000000 (у УП 0903040030_op-21)</t>
+  </si>
+  <si>
+    <t>0.918033 (у УП 2703040030_op-21)</t>
+  </si>
+  <si>
+    <t>10.270161 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>43.000000 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>4.274354 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>58.000000 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>6.473214 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>243.000000 (у УП 1503040000_op-21)</t>
+  </si>
+  <si>
+    <t>24.606299 (у УП 2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>710.000000 (у УП 1005030035_OP-21)</t>
+  </si>
+  <si>
+    <t>53.361345 (у УП 0904010012_OP-21)</t>
+  </si>
+  <si>
+    <t>1157.000000 (у УП 0903040030_op-21)</t>
+  </si>
+  <si>
+    <t>65.888383 (у УП 0903040030_op-21)</t>
+  </si>
+  <si>
+    <t>10.000000 (у УП 2704040005_OP-21)</t>
+  </si>
+  <si>
+    <t>1.841621 (у УП 2704040005_OP-21)</t>
+  </si>
+  <si>
+    <t>45.000000 (у УП 2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>8.858268 (у УП 2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>834.000000 (у УП 0104020009_OP-20)</t>
+  </si>
+  <si>
+    <t>56.542373 (у УП 0104020009_OP-20)</t>
   </si>
   <si>
     <t>Минимальные значения:</t>
   </si>
   <si>
-    <t>242.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>50.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>250.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>52.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>11.000000 (у УП 1005010034_OP-21)</t>
-  </si>
-  <si>
-    <t>0.071856 (у УП 1005010034_OP-21)</t>
-  </si>
-  <si>
-    <t>2.000000 (у УП 1005010034_OP-21)</t>
-  </si>
-  <si>
-    <t>1.000000 (у УП 1503040000_op-21)</t>
-  </si>
-  <si>
-    <t>0.704918 (у УП 0903030032_OP-20)</t>
-  </si>
-  <si>
-    <t>1.211066 (у УП 0903030032_OP-20)</t>
-  </si>
-  <si>
-    <t>158.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>37.264151 (у УП 0903030032_OP-20)</t>
-  </si>
-  <si>
-    <t>151.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>26.013265 (у УП 1005010034_OP-21)</t>
-  </si>
-  <si>
-    <t>109.000000 (у УП 0903030033_OP-21)</t>
-  </si>
-  <si>
-    <t>24.170965 (у УП 1005010034_OP-21)</t>
+    <t>124.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>17.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>128.000000 (у УП 0904040003_OP-21)</t>
+  </si>
+  <si>
+    <t>20.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>9.000000 (у УП 0904010012_OP-21)</t>
+  </si>
+  <si>
+    <t>0.065574 (у УП 0103040030_op-21)</t>
+  </si>
+  <si>
+    <t>2.000000 (у УП 0904020001_OP-20)</t>
+  </si>
+  <si>
+    <t>1.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>0.451613 (у УП 0904020001_OP-20)</t>
+  </si>
+  <si>
+    <t>0.536290 (у УП 0904040003_OP-21)</t>
+  </si>
+  <si>
+    <t>53.000000 (у УП 2704040004_OP-20)</t>
+  </si>
+  <si>
+    <t>6.105991 (у УП 2704040004_OP-20)</t>
+  </si>
+  <si>
+    <t>97.000000 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>10.825893 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>65.000000 (у УП 0904020001_OP-20)</t>
+  </si>
+  <si>
+    <t>21.013667 (у УП 0903040030_op-21)</t>
+  </si>
+  <si>
+    <t>29.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>8.630952 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>34.000000 (у УП 0904010011_OP-21)</t>
+  </si>
+  <si>
+    <t>13.097950 (у УП 0903040030_op-21)</t>
   </si>
 </sst>
 </file>
@@ -698,6 +1934,126 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -758,175 +2114,295 @@
       <c r="Q1" t="s">
         <v>17</v>
       </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
         <v>53</v>
       </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T4" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
@@ -935,146 +2411,3971 @@
         <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" t="s">
         <v>94</v>
       </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="S7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" t="s">
+        <v>115</v>
+      </c>
+      <c r="S8" t="s">
+        <v>116</v>
+      </c>
+      <c r="T8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T9" t="s">
+        <v>117</v>
+      </c>
+      <c r="U9" t="s">
+        <v>129</v>
+      </c>
+      <c r="V9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" t="s">
+        <v>140</v>
+      </c>
+      <c r="T10" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
+        <v>115</v>
+      </c>
+      <c r="S11" t="s">
+        <v>152</v>
+      </c>
+      <c r="T11" t="s">
+        <v>153</v>
+      </c>
+      <c r="U11" t="s">
+        <v>154</v>
+      </c>
+      <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>163</v>
+      </c>
+      <c r="S12" t="s">
+        <v>164</v>
+      </c>
+      <c r="T12" t="s">
+        <v>165</v>
+      </c>
+      <c r="U12" t="s">
+        <v>166</v>
+      </c>
+      <c r="V12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" t="s">
+        <v>176</v>
+      </c>
+      <c r="S13" t="s">
+        <v>177</v>
+      </c>
+      <c r="T13" t="s">
+        <v>178</v>
+      </c>
+      <c r="U13" t="s">
+        <v>179</v>
+      </c>
+      <c r="V13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" t="s">
+        <v>176</v>
+      </c>
+      <c r="S14" t="s">
+        <v>177</v>
+      </c>
+      <c r="T14" t="s">
+        <v>178</v>
+      </c>
+      <c r="U14" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" t="s">
+        <v>188</v>
+      </c>
+      <c r="T15" t="s">
+        <v>189</v>
+      </c>
+      <c r="U15" t="s">
+        <v>190</v>
+      </c>
+      <c r="V15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
+        <v>187</v>
+      </c>
+      <c r="S16" t="s">
+        <v>188</v>
+      </c>
+      <c r="T16" t="s">
+        <v>189</v>
+      </c>
+      <c r="U16" t="s">
+        <v>190</v>
+      </c>
+      <c r="V16" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" t="s">
+        <v>199</v>
+      </c>
+      <c r="T17" t="s">
+        <v>200</v>
+      </c>
+      <c r="U17" t="s">
+        <v>201</v>
+      </c>
+      <c r="V17" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>197</v>
+      </c>
+      <c r="K18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" t="s">
+        <v>187</v>
+      </c>
+      <c r="S18" t="s">
+        <v>199</v>
+      </c>
+      <c r="T18" t="s">
+        <v>200</v>
+      </c>
+      <c r="U18" t="s">
+        <v>201</v>
+      </c>
+      <c r="V18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" t="s">
+        <v>209</v>
+      </c>
+      <c r="S19" t="s">
+        <v>210</v>
+      </c>
+      <c r="T19" t="s">
+        <v>211</v>
+      </c>
+      <c r="U19" t="s">
+        <v>212</v>
+      </c>
+      <c r="V19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" t="s">
+        <v>217</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" t="s">
+        <v>218</v>
+      </c>
+      <c r="S20" t="s">
+        <v>219</v>
+      </c>
+      <c r="T20" t="s">
+        <v>121</v>
+      </c>
+      <c r="U20" t="s">
+        <v>220</v>
+      </c>
+      <c r="V20" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" t="s">
+        <v>218</v>
+      </c>
+      <c r="S21" t="s">
+        <v>219</v>
+      </c>
+      <c r="T21" t="s">
+        <v>121</v>
+      </c>
+      <c r="U21" t="s">
+        <v>220</v>
+      </c>
+      <c r="V21" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" t="s">
+        <v>187</v>
+      </c>
+      <c r="S22" t="s">
+        <v>229</v>
+      </c>
+      <c r="T22" t="s">
+        <v>230</v>
+      </c>
+      <c r="U22" t="s">
+        <v>231</v>
+      </c>
+      <c r="V22" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" t="s">
+        <v>238</v>
+      </c>
+      <c r="J23" t="s">
+        <v>239</v>
+      </c>
+      <c r="K23" t="s">
+        <v>240</v>
+      </c>
+      <c r="L23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" t="s">
+        <v>241</v>
+      </c>
+      <c r="S23" t="s">
+        <v>242</v>
+      </c>
+      <c r="T23" t="s">
+        <v>243</v>
+      </c>
+      <c r="U23" t="s">
+        <v>244</v>
+      </c>
+      <c r="V23" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>248</v>
+      </c>
+      <c r="H24" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" t="s">
+        <v>251</v>
+      </c>
+      <c r="S24" t="s">
+        <v>252</v>
+      </c>
+      <c r="T24" t="s">
+        <v>253</v>
+      </c>
+      <c r="U24" t="s">
+        <v>254</v>
+      </c>
+      <c r="V24" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" t="s">
+        <v>251</v>
+      </c>
+      <c r="S25" t="s">
+        <v>252</v>
+      </c>
+      <c r="T25" t="s">
+        <v>253</v>
+      </c>
+      <c r="U25" t="s">
+        <v>254</v>
+      </c>
+      <c r="V25" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" t="s">
+        <v>262</v>
+      </c>
+      <c r="S26" t="s">
+        <v>263</v>
+      </c>
+      <c r="T26" t="s">
+        <v>264</v>
+      </c>
+      <c r="U26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" t="s">
+        <v>262</v>
+      </c>
+      <c r="S27" t="s">
+        <v>263</v>
+      </c>
+      <c r="T27" t="s">
+        <v>264</v>
+      </c>
+      <c r="U27" t="s">
+        <v>265</v>
+      </c>
+      <c r="V27" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" t="s">
+        <v>251</v>
+      </c>
+      <c r="S28" t="s">
+        <v>272</v>
+      </c>
+      <c r="T28" t="s">
+        <v>253</v>
+      </c>
+      <c r="U28" t="s">
+        <v>273</v>
+      </c>
+      <c r="V28" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" t="s">
+        <v>251</v>
+      </c>
+      <c r="S29" t="s">
+        <v>272</v>
+      </c>
+      <c r="T29" t="s">
+        <v>253</v>
+      </c>
+      <c r="U29" t="s">
+        <v>273</v>
+      </c>
+      <c r="V29" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" t="s">
+        <v>39</v>
+      </c>
+      <c r="X29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" t="s">
+        <v>278</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>279</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" t="s">
+        <v>251</v>
+      </c>
+      <c r="S30" t="s">
+        <v>280</v>
+      </c>
+      <c r="T30" t="s">
+        <v>191</v>
+      </c>
+      <c r="U30" t="s">
+        <v>281</v>
+      </c>
+      <c r="V30" t="s">
+        <v>39</v>
+      </c>
+      <c r="W30" t="s">
+        <v>39</v>
+      </c>
+      <c r="X30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" t="s">
+        <v>251</v>
+      </c>
+      <c r="S31" t="s">
+        <v>280</v>
+      </c>
+      <c r="T31" t="s">
+        <v>191</v>
+      </c>
+      <c r="U31" t="s">
+        <v>281</v>
+      </c>
+      <c r="V31" t="s">
+        <v>39</v>
+      </c>
+      <c r="W31" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" t="s">
+        <v>251</v>
+      </c>
+      <c r="S32" t="s">
+        <v>272</v>
+      </c>
+      <c r="T32" t="s">
+        <v>287</v>
+      </c>
+      <c r="U32" t="s">
+        <v>288</v>
+      </c>
+      <c r="V32" t="s">
+        <v>39</v>
+      </c>
+      <c r="W32" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" t="s">
+        <v>285</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>286</v>
+      </c>
+      <c r="L33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" t="s">
+        <v>251</v>
+      </c>
+      <c r="S33" t="s">
+        <v>272</v>
+      </c>
+      <c r="T33" t="s">
+        <v>287</v>
+      </c>
+      <c r="U33" t="s">
+        <v>288</v>
+      </c>
+      <c r="V33" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" t="s">
+        <v>293</v>
+      </c>
+      <c r="L34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" t="s">
+        <v>251</v>
+      </c>
+      <c r="S34" t="s">
+        <v>294</v>
+      </c>
+      <c r="T34" t="s">
+        <v>189</v>
+      </c>
+      <c r="U34" t="s">
+        <v>295</v>
+      </c>
+      <c r="V34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" t="s">
+        <v>251</v>
+      </c>
+      <c r="S35" t="s">
+        <v>294</v>
+      </c>
+      <c r="T35" t="s">
+        <v>189</v>
+      </c>
+      <c r="U35" t="s">
+        <v>295</v>
+      </c>
+      <c r="V35" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" t="s">
+        <v>39</v>
+      </c>
+      <c r="X35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" t="s">
+        <v>301</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R36" t="s">
+        <v>304</v>
+      </c>
+      <c r="S36" t="s">
+        <v>305</v>
+      </c>
+      <c r="T36" t="s">
+        <v>306</v>
+      </c>
+      <c r="U36" t="s">
+        <v>307</v>
+      </c>
+      <c r="V36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>311</v>
+      </c>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" t="s">
+        <v>174</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" t="s">
+        <v>304</v>
+      </c>
+      <c r="S37" t="s">
+        <v>313</v>
+      </c>
+      <c r="T37" t="s">
+        <v>314</v>
+      </c>
+      <c r="U37" t="s">
+        <v>315</v>
+      </c>
+      <c r="V37" t="s">
+        <v>39</v>
+      </c>
+      <c r="W37" t="s">
+        <v>39</v>
+      </c>
+      <c r="X37" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>300</v>
+      </c>
+      <c r="E38" t="s">
+        <v>235</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>311</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" t="s">
+        <v>174</v>
+      </c>
+      <c r="K38" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" t="s">
+        <v>304</v>
+      </c>
+      <c r="S38" t="s">
+        <v>313</v>
+      </c>
+      <c r="T38" t="s">
+        <v>314</v>
+      </c>
+      <c r="U38" t="s">
+        <v>315</v>
+      </c>
+      <c r="V38" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>318</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
         <v>98</v>
       </c>
-      <c r="M7" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>103</v>
+      <c r="G39" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>39</v>
+      </c>
+      <c r="R39" t="s">
+        <v>321</v>
+      </c>
+      <c r="S39" t="s">
+        <v>322</v>
+      </c>
+      <c r="T39" t="s">
+        <v>323</v>
+      </c>
+      <c r="U39" t="s">
+        <v>324</v>
+      </c>
+      <c r="V39" t="s">
+        <v>39</v>
+      </c>
+      <c r="W39" t="s">
+        <v>39</v>
+      </c>
+      <c r="X39" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s">
+        <v>329</v>
+      </c>
+      <c r="H40" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R40" t="s">
+        <v>332</v>
+      </c>
+      <c r="S40" t="s">
+        <v>333</v>
+      </c>
+      <c r="T40" t="s">
+        <v>334</v>
+      </c>
+      <c r="U40" t="s">
+        <v>335</v>
+      </c>
+      <c r="V40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W40" t="s">
+        <v>39</v>
+      </c>
+      <c r="X40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" t="s">
+        <v>340</v>
+      </c>
+      <c r="D41" t="s">
+        <v>341</v>
+      </c>
+      <c r="E41" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" t="s">
+        <v>342</v>
+      </c>
+      <c r="H41" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41" t="s">
+        <v>345</v>
+      </c>
+      <c r="S41" t="s">
+        <v>346</v>
+      </c>
+      <c r="T41" t="s">
+        <v>347</v>
+      </c>
+      <c r="U41" t="s">
+        <v>348</v>
+      </c>
+      <c r="V41" t="s">
+        <v>39</v>
+      </c>
+      <c r="W41" t="s">
+        <v>39</v>
+      </c>
+      <c r="X41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" t="s">
+        <v>339</v>
+      </c>
+      <c r="C42" t="s">
+        <v>352</v>
+      </c>
+      <c r="D42" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42" t="s">
+        <v>353</v>
+      </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" t="s">
+        <v>342</v>
+      </c>
+      <c r="H42" t="s">
+        <v>238</v>
+      </c>
+      <c r="I42" t="s">
+        <v>238</v>
+      </c>
+      <c r="J42" t="s">
+        <v>354</v>
+      </c>
+      <c r="K42" t="s">
+        <v>355</v>
+      </c>
+      <c r="L42" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" t="s">
+        <v>39</v>
+      </c>
+      <c r="N42" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>39</v>
+      </c>
+      <c r="R42" t="s">
+        <v>356</v>
+      </c>
+      <c r="S42" t="s">
+        <v>357</v>
+      </c>
+      <c r="T42" t="s">
+        <v>341</v>
+      </c>
+      <c r="U42" t="s">
+        <v>358</v>
+      </c>
+      <c r="V42" t="s">
+        <v>39</v>
+      </c>
+      <c r="W42" t="s">
+        <v>39</v>
+      </c>
+      <c r="X42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E43" t="s">
+        <v>363</v>
+      </c>
+      <c r="F43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" t="s">
+        <v>329</v>
+      </c>
+      <c r="H43" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" t="s">
+        <v>365</v>
+      </c>
+      <c r="L43" t="s">
+        <v>366</v>
+      </c>
+      <c r="M43" t="s">
+        <v>367</v>
+      </c>
+      <c r="N43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P43" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>369</v>
+      </c>
+      <c r="R43" t="s">
+        <v>370</v>
+      </c>
+      <c r="S43" t="s">
+        <v>371</v>
+      </c>
+      <c r="T43" t="s">
+        <v>372</v>
+      </c>
+      <c r="U43" t="s">
+        <v>373</v>
+      </c>
+      <c r="V43" t="s">
+        <v>39</v>
+      </c>
+      <c r="W43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>374</v>
+      </c>
+      <c r="B44" t="s">
+        <v>375</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" t="s">
+        <v>376</v>
+      </c>
+      <c r="H44" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" t="s">
+        <v>238</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" t="s">
+        <v>378</v>
+      </c>
+      <c r="L44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P44" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>39</v>
+      </c>
+      <c r="R44" t="s">
+        <v>379</v>
+      </c>
+      <c r="S44" t="s">
+        <v>380</v>
+      </c>
+      <c r="T44" t="s">
+        <v>381</v>
+      </c>
+      <c r="U44" t="s">
+        <v>382</v>
+      </c>
+      <c r="V44" t="s">
+        <v>39</v>
+      </c>
+      <c r="W44" t="s">
+        <v>39</v>
+      </c>
+      <c r="X44" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>385</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" t="s">
+        <v>387</v>
+      </c>
+      <c r="H45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45" t="s">
+        <v>238</v>
+      </c>
+      <c r="J45" t="s">
+        <v>388</v>
+      </c>
+      <c r="K45" t="s">
+        <v>389</v>
+      </c>
+      <c r="L45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R45" t="s">
+        <v>390</v>
+      </c>
+      <c r="S45" t="s">
+        <v>391</v>
+      </c>
+      <c r="T45" t="s">
+        <v>392</v>
+      </c>
+      <c r="U45" t="s">
+        <v>393</v>
+      </c>
+      <c r="V45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>396</v>
+      </c>
+      <c r="B46" t="s">
+        <v>397</v>
+      </c>
+      <c r="C46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" t="s">
+        <v>398</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" t="s">
+        <v>399</v>
+      </c>
+      <c r="H46" t="s">
+        <v>238</v>
+      </c>
+      <c r="I46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" t="s">
+        <v>400</v>
+      </c>
+      <c r="K46" t="s">
+        <v>401</v>
+      </c>
+      <c r="L46" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O46" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>402</v>
+      </c>
+      <c r="R46" t="s">
+        <v>403</v>
+      </c>
+      <c r="S46" t="s">
+        <v>404</v>
+      </c>
+      <c r="T46" t="s">
+        <v>405</v>
+      </c>
+      <c r="U46" t="s">
+        <v>406</v>
+      </c>
+      <c r="V46" t="s">
+        <v>39</v>
+      </c>
+      <c r="W46" t="s">
+        <v>39</v>
+      </c>
+      <c r="X46" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>409</v>
+      </c>
+      <c r="B47" t="s">
+        <v>397</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>410</v>
+      </c>
+      <c r="E47" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>411</v>
+      </c>
+      <c r="H47" t="s">
+        <v>238</v>
+      </c>
+      <c r="I47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" t="s">
+        <v>412</v>
+      </c>
+      <c r="K47" t="s">
+        <v>413</v>
+      </c>
+      <c r="L47" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N47" t="s">
+        <v>39</v>
+      </c>
+      <c r="O47" t="s">
+        <v>39</v>
+      </c>
+      <c r="P47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" t="s">
+        <v>414</v>
+      </c>
+      <c r="S47" t="s">
+        <v>415</v>
+      </c>
+      <c r="T47" t="s">
+        <v>416</v>
+      </c>
+      <c r="U47" t="s">
+        <v>417</v>
+      </c>
+      <c r="V47" t="s">
+        <v>39</v>
+      </c>
+      <c r="W47" t="s">
+        <v>39</v>
+      </c>
+      <c r="X47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>420</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>421</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" t="s">
+        <v>422</v>
+      </c>
+      <c r="H48" t="s">
+        <v>238</v>
+      </c>
+      <c r="I48" t="s">
+        <v>53</v>
+      </c>
+      <c r="J48" t="s">
+        <v>423</v>
+      </c>
+      <c r="K48" t="s">
+        <v>424</v>
+      </c>
+      <c r="L48" t="s">
+        <v>39</v>
+      </c>
+      <c r="M48" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" t="s">
+        <v>363</v>
+      </c>
+      <c r="O48" t="s">
+        <v>425</v>
+      </c>
+      <c r="P48" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>427</v>
+      </c>
+      <c r="R48" t="s">
+        <v>428</v>
+      </c>
+      <c r="S48" t="s">
+        <v>429</v>
+      </c>
+      <c r="T48" t="s">
+        <v>430</v>
+      </c>
+      <c r="U48" t="s">
+        <v>431</v>
+      </c>
+      <c r="V48" t="s">
+        <v>39</v>
+      </c>
+      <c r="W48" t="s">
+        <v>39</v>
+      </c>
+      <c r="X48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>432</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" t="s">
+        <v>433</v>
+      </c>
+      <c r="E49" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" t="s">
+        <v>236</v>
+      </c>
+      <c r="G49" t="s">
+        <v>434</v>
+      </c>
+      <c r="H49" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J49" t="s">
+        <v>217</v>
+      </c>
+      <c r="K49" t="s">
+        <v>435</v>
+      </c>
+      <c r="L49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" t="s">
+        <v>109</v>
+      </c>
+      <c r="O49" t="s">
+        <v>436</v>
+      </c>
+      <c r="P49" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>438</v>
+      </c>
+      <c r="R49" t="s">
+        <v>439</v>
+      </c>
+      <c r="S49" t="s">
+        <v>440</v>
+      </c>
+      <c r="T49" t="s">
+        <v>441</v>
+      </c>
+      <c r="U49" t="s">
+        <v>442</v>
+      </c>
+      <c r="V49" t="s">
+        <v>39</v>
+      </c>
+      <c r="W49" t="s">
+        <v>39</v>
+      </c>
+      <c r="X49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>443</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>444</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>445</v>
+      </c>
+      <c r="H50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" t="s">
+        <v>446</v>
+      </c>
+      <c r="K50" t="s">
+        <v>447</v>
+      </c>
+      <c r="L50" t="s">
+        <v>39</v>
+      </c>
+      <c r="M50" t="s">
+        <v>39</v>
+      </c>
+      <c r="N50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O50" t="s">
+        <v>39</v>
+      </c>
+      <c r="P50" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s">
+        <v>428</v>
+      </c>
+      <c r="S50" t="s">
+        <v>448</v>
+      </c>
+      <c r="T50" t="s">
+        <v>300</v>
+      </c>
+      <c r="U50" t="s">
+        <v>449</v>
+      </c>
+      <c r="V50" t="s">
+        <v>33</v>
+      </c>
+      <c r="W50" t="s">
+        <v>450</v>
+      </c>
+      <c r="X50" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>453</v>
+      </c>
+      <c r="B51" t="s">
+        <v>454</v>
+      </c>
+      <c r="C51" t="s">
+        <v>455</v>
+      </c>
+      <c r="D51" t="s">
+        <v>456</v>
+      </c>
+      <c r="E51" t="s">
+        <v>457</v>
+      </c>
+      <c r="F51" t="s">
+        <v>458</v>
+      </c>
+      <c r="G51" t="s">
+        <v>459</v>
+      </c>
+      <c r="H51" t="s">
+        <v>460</v>
+      </c>
+      <c r="I51" t="s">
+        <v>461</v>
+      </c>
+      <c r="J51" t="s">
+        <v>462</v>
+      </c>
+      <c r="K51" t="s">
+        <v>463</v>
+      </c>
+      <c r="L51" t="s">
+        <v>464</v>
+      </c>
+      <c r="M51" t="s">
+        <v>465</v>
+      </c>
+      <c r="N51" t="s">
+        <v>466</v>
+      </c>
+      <c r="O51" t="s">
+        <v>467</v>
+      </c>
+      <c r="P51" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>469</v>
+      </c>
+      <c r="R51" t="s">
+        <v>470</v>
+      </c>
+      <c r="S51" t="s">
+        <v>471</v>
+      </c>
+      <c r="T51" t="s">
+        <v>472</v>
+      </c>
+      <c r="U51" t="s">
+        <v>473</v>
+      </c>
+      <c r="V51" t="s">
+        <v>474</v>
+      </c>
+      <c r="W51" t="s">
+        <v>475</v>
+      </c>
+      <c r="X51" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>480</v>
+      </c>
+      <c r="B52" t="s">
+        <v>481</v>
+      </c>
+      <c r="C52" t="s">
+        <v>482</v>
+      </c>
+      <c r="D52" t="s">
+        <v>483</v>
+      </c>
+      <c r="E52" t="s">
+        <v>484</v>
+      </c>
+      <c r="F52" t="s">
+        <v>485</v>
+      </c>
+      <c r="G52" t="s">
+        <v>486</v>
+      </c>
+      <c r="H52" t="s">
+        <v>487</v>
+      </c>
+      <c r="I52" t="s">
+        <v>488</v>
+      </c>
+      <c r="J52" t="s">
+        <v>489</v>
+      </c>
+      <c r="K52" t="s">
+        <v>490</v>
+      </c>
+      <c r="L52" t="s">
+        <v>464</v>
+      </c>
+      <c r="M52" t="s">
+        <v>465</v>
+      </c>
+      <c r="N52" t="s">
+        <v>491</v>
+      </c>
+      <c r="O52" t="s">
+        <v>492</v>
+      </c>
+      <c r="P52" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>494</v>
+      </c>
+      <c r="R52" t="s">
+        <v>495</v>
+      </c>
+      <c r="S52" t="s">
+        <v>496</v>
+      </c>
+      <c r="T52" t="s">
+        <v>497</v>
+      </c>
+      <c r="U52" t="s">
+        <v>498</v>
+      </c>
+      <c r="V52" t="s">
+        <v>474</v>
+      </c>
+      <c r="W52" t="s">
+        <v>475</v>
+      </c>
+      <c r="X52" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +6383,247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1106,7 +6647,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1128,4 +6813,40 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/grad/TotalData.xlsx
+++ b/result/grad/TotalData.xlsx
@@ -150,12 +150,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t xml:space="preserve">ЗЕ у компетенции PK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK </t>
-  </si>
-  <si>
     <t>ЗЕ у компетенции SPK</t>
   </si>
   <si>
@@ -204,24 +198,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>432.000000</t>
-  </si>
-  <si>
-    <t>41.379310%</t>
-  </si>
-  <si>
-    <t>393.000000</t>
-  </si>
-  <si>
-    <t>37.643678%</t>
-  </si>
-  <si>
-    <t>219.000000</t>
-  </si>
-  <si>
-    <t>20.977011%</t>
-  </si>
-  <si>
     <t>0104020007_op-20</t>
   </si>
   <si>
@@ -297,774 +273,543 @@
     <t>4.911290</t>
   </si>
   <si>
-    <t>513.000000</t>
-  </si>
-  <si>
-    <t>34.779661%</t>
+    <t>0104020009_OP-21</t>
+  </si>
+  <si>
+    <t>0903010030_op-21</t>
+  </si>
+  <si>
+    <t>56.000000</t>
+  </si>
+  <si>
+    <t>265.000000</t>
+  </si>
+  <si>
+    <t>60.000000</t>
+  </si>
+  <si>
+    <t>0.106557</t>
+  </si>
+  <si>
+    <t>5.000000</t>
+  </si>
+  <si>
+    <t>7.000000</t>
+  </si>
+  <si>
+    <t>0.700820</t>
+  </si>
+  <si>
+    <t>1.182377</t>
+  </si>
+  <si>
+    <t>0903020030_op-21</t>
+  </si>
+  <si>
+    <t>246.000000</t>
+  </si>
+  <si>
+    <t>339.000000</t>
+  </si>
+  <si>
+    <t>83.000000</t>
+  </si>
+  <si>
+    <t>0.091463</t>
+  </si>
+  <si>
+    <t>11.000000</t>
+  </si>
+  <si>
+    <t>0.654472</t>
+  </si>
+  <si>
+    <t>0.979675</t>
+  </si>
+  <si>
+    <t>0903030031_OP-21</t>
+  </si>
+  <si>
+    <t>51.000000</t>
+  </si>
+  <si>
+    <t>252.000000</t>
+  </si>
+  <si>
+    <t>53.000000</t>
+  </si>
+  <si>
+    <t>15.000000</t>
+  </si>
+  <si>
+    <t>0.120902</t>
+  </si>
+  <si>
+    <t>6.000000</t>
+  </si>
+  <si>
+    <t>0.706967</t>
+  </si>
+  <si>
+    <t>0.989754</t>
+  </si>
+  <si>
+    <t>0903030032_OP-20</t>
+  </si>
+  <si>
+    <t>52.000000</t>
+  </si>
+  <si>
+    <t>257.000000</t>
+  </si>
+  <si>
+    <t>55.000000</t>
+  </si>
+  <si>
+    <t>0.094262</t>
+  </si>
+  <si>
+    <t>0.704918</t>
+  </si>
+  <si>
+    <t>1.211066</t>
+  </si>
+  <si>
+    <t>0903030033_OP-21</t>
+  </si>
+  <si>
+    <t>242.000000</t>
+  </si>
+  <si>
+    <t>50.000000</t>
+  </si>
+  <si>
+    <t>250.000000</t>
+  </si>
+  <si>
+    <t>0.126033</t>
+  </si>
+  <si>
+    <t>0.745868</t>
+  </si>
+  <si>
+    <t>1.512397</t>
+  </si>
+  <si>
+    <t>0903030035_OP-21</t>
+  </si>
+  <si>
+    <t>255.000000</t>
+  </si>
+  <si>
+    <t>57.000000</t>
+  </si>
+  <si>
+    <t>263.000000</t>
+  </si>
+  <si>
+    <t>0.182353</t>
+  </si>
+  <si>
+    <t>0.766667</t>
+  </si>
+  <si>
+    <t>1.427451</t>
+  </si>
+  <si>
+    <t>0903040030_op-21</t>
+  </si>
+  <si>
+    <t>293.000000</t>
+  </si>
+  <si>
+    <t>0.143443</t>
+  </si>
+  <si>
+    <t>14.000000</t>
+  </si>
+  <si>
+    <t>0.696721</t>
+  </si>
+  <si>
+    <t>1.633197</t>
+  </si>
+  <si>
+    <t>0904010001_OP-20</t>
+  </si>
+  <si>
+    <t>134.000000</t>
+  </si>
+  <si>
+    <t>27.000000</t>
+  </si>
+  <si>
+    <t>12.000000</t>
+  </si>
+  <si>
+    <t>0.225806</t>
+  </si>
+  <si>
+    <t>0.604839</t>
+  </si>
+  <si>
+    <t>0.826613</t>
+  </si>
+  <si>
+    <t>0904010001_OP-21</t>
+  </si>
+  <si>
+    <t>0904010003_OP-20</t>
+  </si>
+  <si>
+    <t>0.379032</t>
+  </si>
+  <si>
+    <t>0.705645</t>
+  </si>
+  <si>
+    <t>1.068548</t>
+  </si>
+  <si>
+    <t>104.000000</t>
+  </si>
+  <si>
+    <t>53.061224%</t>
+  </si>
+  <si>
+    <t>44.000000</t>
+  </si>
+  <si>
+    <t>22.448980%</t>
+  </si>
+  <si>
+    <t>48.000000</t>
+  </si>
+  <si>
+    <t>24.489796%</t>
+  </si>
+  <si>
+    <t>0904010003_OP-21</t>
+  </si>
+  <si>
+    <t>0904010004_OP-20</t>
+  </si>
+  <si>
+    <t>0.354839</t>
+  </si>
+  <si>
+    <t>9.000000</t>
+  </si>
+  <si>
+    <t>0.693548</t>
+  </si>
+  <si>
+    <t>1.052419</t>
+  </si>
+  <si>
+    <t>48.148148%</t>
+  </si>
+  <si>
+    <t>73.000000</t>
+  </si>
+  <si>
+    <t>33.796296%</t>
+  </si>
+  <si>
+    <t>39.000000</t>
+  </si>
+  <si>
+    <t>18.055556%</t>
+  </si>
+  <si>
+    <t>0904010004_OP-21</t>
+  </si>
+  <si>
+    <t>0904010006_OP-20</t>
+  </si>
+  <si>
+    <t>0.362903</t>
+  </si>
+  <si>
+    <t>0.701613</t>
+  </si>
+  <si>
+    <t>0.927419</t>
+  </si>
+  <si>
+    <t>0904010010_OP-20</t>
+  </si>
+  <si>
+    <t>0.294355</t>
+  </si>
+  <si>
+    <t>0.737903</t>
+  </si>
+  <si>
+    <t>95.000000</t>
+  </si>
+  <si>
+    <t>46.798030%</t>
+  </si>
+  <si>
+    <t>25.615764%</t>
+  </si>
+  <si>
+    <t>27.586207%</t>
+  </si>
+  <si>
+    <t>0904010010_OP-21</t>
+  </si>
+  <si>
+    <t>0904010011_OP-21</t>
+  </si>
+  <si>
+    <t>26.000000</t>
+  </si>
+  <si>
+    <t>28.000000</t>
+  </si>
+  <si>
+    <t>0.366935</t>
+  </si>
+  <si>
+    <t>0.709677</t>
+  </si>
+  <si>
+    <t>0.979839</t>
+  </si>
+  <si>
+    <t>50.731707%</t>
+  </si>
+  <si>
+    <t>67.000000</t>
+  </si>
+  <si>
+    <t>32.682927%</t>
+  </si>
+  <si>
+    <t>34.000000</t>
+  </si>
+  <si>
+    <t>16.585366%</t>
+  </si>
+  <si>
+    <t>0904010012_OP-21</t>
+  </si>
+  <si>
+    <t>22.000000</t>
+  </si>
+  <si>
+    <t>24.000000</t>
+  </si>
+  <si>
+    <t>0.282258</t>
+  </si>
+  <si>
+    <t>2.000000</t>
+  </si>
+  <si>
+    <t>0.689516</t>
+  </si>
+  <si>
+    <t>1.201613</t>
+  </si>
+  <si>
+    <t>0904020001_OP-20</t>
+  </si>
+  <si>
+    <t>0.092742</t>
+  </si>
+  <si>
+    <t>0.451613</t>
+  </si>
+  <si>
+    <t>0.552419</t>
+  </si>
+  <si>
+    <t>65.000000</t>
+  </si>
+  <si>
+    <t>47.101449%</t>
+  </si>
+  <si>
+    <t>36.000000</t>
+  </si>
+  <si>
+    <t>26.086957%</t>
+  </si>
+  <si>
+    <t>37.000000</t>
+  </si>
+  <si>
+    <t>26.811594%</t>
+  </si>
+  <si>
+    <t>0904020001_OP-21</t>
+  </si>
+  <si>
+    <t>0904020002_OP-20</t>
+  </si>
+  <si>
+    <t>0.141129</t>
+  </si>
+  <si>
+    <t>0.633065</t>
+  </si>
+  <si>
+    <t>0.822581</t>
+  </si>
+  <si>
+    <t>70.000000</t>
+  </si>
+  <si>
+    <t>38.674033%</t>
+  </si>
+  <si>
+    <t>54.000000</t>
+  </si>
+  <si>
+    <t>29.834254%</t>
+  </si>
+  <si>
+    <t>31.491713%</t>
+  </si>
+  <si>
+    <t>0904020002_OP-21</t>
+  </si>
+  <si>
+    <t>0904020003_OP-20</t>
+  </si>
+  <si>
+    <t>0.153226</t>
+  </si>
+  <si>
+    <t>0.532258</t>
+  </si>
+  <si>
+    <t>0.620968</t>
+  </si>
+  <si>
+    <t>43.918919%</t>
+  </si>
+  <si>
+    <t>24.324324%</t>
+  </si>
+  <si>
+    <t>47.000000</t>
+  </si>
+  <si>
+    <t>31.756757%</t>
+  </si>
+  <si>
+    <t>0904020003_OP-21</t>
+  </si>
+  <si>
+    <t>0904020004_OP-20</t>
+  </si>
+  <si>
+    <t>0.149194</t>
+  </si>
+  <si>
+    <t>0.612903</t>
+  </si>
+  <si>
+    <t>43.333333%</t>
+  </si>
+  <si>
+    <t>32.000000%</t>
+  </si>
+  <si>
+    <t>24.666667%</t>
+  </si>
+  <si>
+    <t>0904020004_OP-21</t>
+  </si>
+  <si>
+    <t>0904020005_OP-20</t>
+  </si>
+  <si>
+    <t>0.177419</t>
+  </si>
+  <si>
+    <t>0.629032</t>
+  </si>
+  <si>
+    <t>46.000000</t>
+  </si>
+  <si>
+    <t>31.081081%</t>
+  </si>
+  <si>
+    <t>25.000000%</t>
+  </si>
+  <si>
+    <t>0904020005_OP-21</t>
+  </si>
+  <si>
+    <t>0904020006_OP-20</t>
+  </si>
+  <si>
+    <t>0.556452</t>
+  </si>
+  <si>
+    <t>0.625000</t>
+  </si>
+  <si>
+    <t>44.520548%</t>
+  </si>
+  <si>
+    <t>30.136986%</t>
+  </si>
+  <si>
+    <t>25.342466%</t>
+  </si>
+  <si>
+    <t>0904020006_OP-21</t>
+  </si>
+  <si>
+    <t>0904040001_OP-20</t>
+  </si>
+  <si>
+    <t>21.000000</t>
+  </si>
+  <si>
+    <t>137.000000</t>
+  </si>
+  <si>
+    <t>0.346774</t>
+  </si>
+  <si>
+    <t>0.754032</t>
+  </si>
+  <si>
+    <t>0.858871</t>
+  </si>
+  <si>
+    <t>0904040002_OP-20</t>
+  </si>
+  <si>
+    <t>0.189516</t>
+  </si>
+  <si>
+    <t>0.649194</t>
+  </si>
+  <si>
+    <t>0904040002_OP-21</t>
+  </si>
+  <si>
+    <t>0904040003_OP-21</t>
   </si>
   <si>
     <t>128.000000</t>
   </si>
   <si>
-    <t>8.677966%</t>
-  </si>
-  <si>
-    <t>834.000000</t>
-  </si>
-  <si>
-    <t>56.542373%</t>
-  </si>
-  <si>
-    <t>0104020009_OP-21</t>
-  </si>
-  <si>
-    <t>0903010030_op-21</t>
-  </si>
-  <si>
-    <t>56.000000</t>
-  </si>
-  <si>
-    <t>265.000000</t>
-  </si>
-  <si>
-    <t>60.000000</t>
-  </si>
-  <si>
-    <t>0.106557</t>
-  </si>
-  <si>
-    <t>5.000000</t>
-  </si>
-  <si>
-    <t>7.000000</t>
-  </si>
-  <si>
-    <t>0.700820</t>
-  </si>
-  <si>
-    <t>1.182377</t>
-  </si>
-  <si>
-    <t>384.000000</t>
-  </si>
-  <si>
-    <t>36.329234%</t>
-  </si>
-  <si>
-    <t>321.000000</t>
-  </si>
-  <si>
-    <t>30.368969%</t>
-  </si>
-  <si>
-    <t>352.000000</t>
-  </si>
-  <si>
-    <t>33.301798%</t>
-  </si>
-  <si>
-    <t>0903020030_op-21</t>
-  </si>
-  <si>
-    <t>246.000000</t>
-  </si>
-  <si>
-    <t>339.000000</t>
-  </si>
-  <si>
-    <t>83.000000</t>
-  </si>
-  <si>
-    <t>0.091463</t>
-  </si>
-  <si>
-    <t>11.000000</t>
-  </si>
-  <si>
-    <t>0.654472</t>
-  </si>
-  <si>
-    <t>0.979675</t>
-  </si>
-  <si>
-    <t>26.855895%</t>
-  </si>
-  <si>
-    <t>465.000000</t>
-  </si>
-  <si>
-    <t>50.764192%</t>
-  </si>
-  <si>
-    <t>205.000000</t>
-  </si>
-  <si>
-    <t>22.379913%</t>
-  </si>
-  <si>
-    <t>0903030031_OP-21</t>
-  </si>
-  <si>
-    <t>51.000000</t>
-  </si>
-  <si>
-    <t>252.000000</t>
-  </si>
-  <si>
-    <t>53.000000</t>
-  </si>
-  <si>
-    <t>15.000000</t>
-  </si>
-  <si>
-    <t>0.120902</t>
-  </si>
-  <si>
-    <t>6.000000</t>
-  </si>
-  <si>
-    <t>0.706967</t>
-  </si>
-  <si>
-    <t>0.989754</t>
-  </si>
-  <si>
-    <t>399.000000</t>
-  </si>
-  <si>
-    <t>38.775510%</t>
-  </si>
-  <si>
-    <t>456.000000</t>
-  </si>
-  <si>
-    <t>44.314869%</t>
-  </si>
-  <si>
-    <t>16.909621%</t>
-  </si>
-  <si>
-    <t>0903030032_OP-20</t>
-  </si>
-  <si>
-    <t>52.000000</t>
-  </si>
-  <si>
-    <t>257.000000</t>
-  </si>
-  <si>
-    <t>55.000000</t>
-  </si>
-  <si>
-    <t>0.094262</t>
-  </si>
-  <si>
-    <t>0.704918</t>
-  </si>
-  <si>
-    <t>1.211066</t>
-  </si>
-  <si>
-    <t>474.000000</t>
-  </si>
-  <si>
-    <t>37.264151%</t>
-  </si>
-  <si>
-    <t>35.849057%</t>
-  </si>
-  <si>
-    <t>342.000000</t>
-  </si>
-  <si>
-    <t>26.886792%</t>
-  </si>
-  <si>
-    <t>0903030033_OP-21</t>
-  </si>
-  <si>
-    <t>242.000000</t>
-  </si>
-  <si>
-    <t>50.000000</t>
-  </si>
-  <si>
-    <t>250.000000</t>
-  </si>
-  <si>
-    <t>0.126033</t>
-  </si>
-  <si>
-    <t>0.745868</t>
-  </si>
-  <si>
-    <t>1.512397</t>
-  </si>
-  <si>
-    <t>158.000000</t>
-  </si>
-  <si>
-    <t>37.799043%</t>
-  </si>
-  <si>
-    <t>151.000000</t>
-  </si>
-  <si>
-    <t>36.124402%</t>
-  </si>
-  <si>
-    <t>109.000000</t>
-  </si>
-  <si>
-    <t>26.076555%</t>
-  </si>
-  <si>
-    <t>0903030035_OP-21</t>
-  </si>
-  <si>
-    <t>255.000000</t>
-  </si>
-  <si>
-    <t>57.000000</t>
-  </si>
-  <si>
-    <t>263.000000</t>
-  </si>
-  <si>
-    <t>0.182353</t>
-  </si>
-  <si>
-    <t>0.766667</t>
-  </si>
-  <si>
-    <t>1.427451</t>
-  </si>
-  <si>
-    <t>29.887640%</t>
-  </si>
-  <si>
-    <t>558.000000</t>
-  </si>
-  <si>
-    <t>41.797753%</t>
-  </si>
-  <si>
-    <t>378.000000</t>
-  </si>
-  <si>
-    <t>28.314607%</t>
-  </si>
-  <si>
-    <t>0903040030_op-21</t>
-  </si>
-  <si>
-    <t>293.000000</t>
-  </si>
-  <si>
-    <t>0.143443</t>
-  </si>
-  <si>
-    <t>14.000000</t>
-  </si>
-  <si>
-    <t>0.696721</t>
-  </si>
-  <si>
-    <t>1.633197</t>
-  </si>
-  <si>
-    <t>369.000000</t>
-  </si>
-  <si>
-    <t>21.013667%</t>
-  </si>
-  <si>
-    <t>1157.000000</t>
-  </si>
-  <si>
-    <t>65.888383%</t>
-  </si>
-  <si>
-    <t>230.000000</t>
-  </si>
-  <si>
-    <t>13.097950%</t>
-  </si>
-  <si>
-    <t>0904010001_OP-20</t>
-  </si>
-  <si>
-    <t>134.000000</t>
-  </si>
-  <si>
-    <t>27.000000</t>
-  </si>
-  <si>
-    <t>12.000000</t>
-  </si>
-  <si>
-    <t>0.225806</t>
-  </si>
-  <si>
-    <t>0.604839</t>
-  </si>
-  <si>
-    <t>0.826613</t>
-  </si>
-  <si>
-    <t>285.000000</t>
-  </si>
-  <si>
-    <t>52.197802%</t>
-  </si>
-  <si>
-    <t>120.000000</t>
-  </si>
-  <si>
-    <t>21.978022%</t>
-  </si>
-  <si>
-    <t>141.000000</t>
-  </si>
-  <si>
-    <t>25.824176%</t>
-  </si>
-  <si>
-    <t>0904010001_OP-21</t>
-  </si>
-  <si>
-    <t>0904010003_OP-20</t>
-  </si>
-  <si>
-    <t>0.379032</t>
-  </si>
-  <si>
-    <t>0.705645</t>
-  </si>
-  <si>
-    <t>1.068548</t>
-  </si>
-  <si>
-    <t>104.000000</t>
-  </si>
-  <si>
-    <t>53.061224%</t>
-  </si>
-  <si>
-    <t>44.000000</t>
-  </si>
-  <si>
-    <t>22.448980%</t>
-  </si>
-  <si>
-    <t>48.000000</t>
-  </si>
-  <si>
-    <t>24.489796%</t>
-  </si>
-  <si>
-    <t>0904010003_OP-21</t>
-  </si>
-  <si>
-    <t>0904010004_OP-20</t>
-  </si>
-  <si>
-    <t>0.354839</t>
-  </si>
-  <si>
-    <t>9.000000</t>
-  </si>
-  <si>
-    <t>0.693548</t>
-  </si>
-  <si>
-    <t>1.052419</t>
-  </si>
-  <si>
-    <t>48.148148%</t>
-  </si>
-  <si>
-    <t>73.000000</t>
-  </si>
-  <si>
-    <t>33.796296%</t>
-  </si>
-  <si>
-    <t>39.000000</t>
-  </si>
-  <si>
-    <t>18.055556%</t>
-  </si>
-  <si>
-    <t>0904010004_OP-21</t>
-  </si>
-  <si>
-    <t>0904010006_OP-20</t>
-  </si>
-  <si>
-    <t>0.362903</t>
-  </si>
-  <si>
-    <t>0.701613</t>
-  </si>
-  <si>
-    <t>0.927419</t>
-  </si>
-  <si>
-    <t>312.000000</t>
-  </si>
-  <si>
-    <t>51.485149%</t>
-  </si>
-  <si>
-    <t>192.000000</t>
-  </si>
-  <si>
-    <t>31.683168%</t>
-  </si>
-  <si>
-    <t>102.000000</t>
-  </si>
-  <si>
-    <t>16.831683%</t>
-  </si>
-  <si>
-    <t>0904010010_OP-20</t>
-  </si>
-  <si>
-    <t>0.294355</t>
-  </si>
-  <si>
-    <t>0.737903</t>
-  </si>
-  <si>
-    <t>95.000000</t>
-  </si>
-  <si>
-    <t>46.798030%</t>
-  </si>
-  <si>
-    <t>25.615764%</t>
-  </si>
-  <si>
-    <t>27.586207%</t>
-  </si>
-  <si>
-    <t>0904010010_OP-21</t>
-  </si>
-  <si>
-    <t>0904010011_OP-21</t>
-  </si>
-  <si>
-    <t>26.000000</t>
-  </si>
-  <si>
-    <t>28.000000</t>
-  </si>
-  <si>
-    <t>0.366935</t>
-  </si>
-  <si>
-    <t>0.709677</t>
-  </si>
-  <si>
-    <t>0.979839</t>
-  </si>
-  <si>
-    <t>50.731707%</t>
-  </si>
-  <si>
-    <t>67.000000</t>
-  </si>
-  <si>
-    <t>32.682927%</t>
-  </si>
-  <si>
-    <t>34.000000</t>
-  </si>
-  <si>
-    <t>16.585366%</t>
-  </si>
-  <si>
-    <t>0904010012_OP-21</t>
-  </si>
-  <si>
-    <t>22.000000</t>
-  </si>
-  <si>
-    <t>24.000000</t>
-  </si>
-  <si>
-    <t>0.282258</t>
-  </si>
-  <si>
-    <t>2.000000</t>
-  </si>
-  <si>
-    <t>0.689516</t>
-  </si>
-  <si>
-    <t>1.201613</t>
-  </si>
-  <si>
-    <t>381.000000</t>
-  </si>
-  <si>
-    <t>53.361345%</t>
-  </si>
-  <si>
-    <t>222.000000</t>
-  </si>
-  <si>
-    <t>31.092437%</t>
-  </si>
-  <si>
-    <t>111.000000</t>
-  </si>
-  <si>
-    <t>15.546218%</t>
-  </si>
-  <si>
-    <t>0904020001_OP-20</t>
-  </si>
-  <si>
-    <t>0.092742</t>
-  </si>
-  <si>
-    <t>0.451613</t>
-  </si>
-  <si>
-    <t>0.552419</t>
-  </si>
-  <si>
-    <t>65.000000</t>
-  </si>
-  <si>
-    <t>47.101449%</t>
-  </si>
-  <si>
-    <t>36.000000</t>
-  </si>
-  <si>
-    <t>26.086957%</t>
-  </si>
-  <si>
-    <t>37.000000</t>
-  </si>
-  <si>
-    <t>26.811594%</t>
-  </si>
-  <si>
-    <t>0904020001_OP-21</t>
-  </si>
-  <si>
-    <t>0904020002_OP-20</t>
-  </si>
-  <si>
-    <t>0.141129</t>
-  </si>
-  <si>
-    <t>0.633065</t>
-  </si>
-  <si>
-    <t>0.822581</t>
-  </si>
-  <si>
-    <t>70.000000</t>
-  </si>
-  <si>
-    <t>38.674033%</t>
-  </si>
-  <si>
-    <t>54.000000</t>
-  </si>
-  <si>
-    <t>29.834254%</t>
-  </si>
-  <si>
-    <t>31.491713%</t>
-  </si>
-  <si>
-    <t>0904020002_OP-21</t>
-  </si>
-  <si>
-    <t>0904020003_OP-20</t>
-  </si>
-  <si>
-    <t>0.153226</t>
-  </si>
-  <si>
-    <t>0.532258</t>
-  </si>
-  <si>
-    <t>0.620968</t>
-  </si>
-  <si>
-    <t>43.918919%</t>
-  </si>
-  <si>
-    <t>24.324324%</t>
-  </si>
-  <si>
-    <t>47.000000</t>
-  </si>
-  <si>
-    <t>31.756757%</t>
-  </si>
-  <si>
-    <t>0904020003_OP-21</t>
-  </si>
-  <si>
-    <t>0904020004_OP-20</t>
-  </si>
-  <si>
-    <t>0.149194</t>
-  </si>
-  <si>
-    <t>0.612903</t>
-  </si>
-  <si>
-    <t>43.333333%</t>
-  </si>
-  <si>
-    <t>32.000000%</t>
-  </si>
-  <si>
-    <t>24.666667%</t>
-  </si>
-  <si>
-    <t>0904020004_OP-21</t>
-  </si>
-  <si>
-    <t>0904020005_OP-20</t>
-  </si>
-  <si>
-    <t>0.177419</t>
-  </si>
-  <si>
-    <t>0.629032</t>
-  </si>
-  <si>
-    <t>46.000000</t>
-  </si>
-  <si>
-    <t>31.081081%</t>
-  </si>
-  <si>
-    <t>25.000000%</t>
-  </si>
-  <si>
-    <t>0904020005_OP-21</t>
-  </si>
-  <si>
-    <t>0904020006_OP-20</t>
-  </si>
-  <si>
-    <t>0.556452</t>
-  </si>
-  <si>
-    <t>0.625000</t>
-  </si>
-  <si>
-    <t>44.520548%</t>
-  </si>
-  <si>
-    <t>30.136986%</t>
-  </si>
-  <si>
-    <t>25.342466%</t>
-  </si>
-  <si>
-    <t>0904020006_OP-21</t>
-  </si>
-  <si>
-    <t>0904040001_OP-20</t>
-  </si>
-  <si>
-    <t>21.000000</t>
-  </si>
-  <si>
-    <t>137.000000</t>
-  </si>
-  <si>
-    <t>0.346774</t>
-  </si>
-  <si>
-    <t>0.754032</t>
-  </si>
-  <si>
-    <t>0.858871</t>
-  </si>
-  <si>
-    <t>66.000000</t>
-  </si>
-  <si>
-    <t>28.820961%</t>
-  </si>
-  <si>
-    <t>84.000000</t>
-  </si>
-  <si>
-    <t>36.681223%</t>
-  </si>
-  <si>
-    <t>79.000000</t>
-  </si>
-  <si>
-    <t>34.497817%</t>
-  </si>
-  <si>
-    <t>0904040002_OP-20</t>
-  </si>
-  <si>
-    <t>0.189516</t>
-  </si>
-  <si>
-    <t>0.649194</t>
-  </si>
-  <si>
-    <t>33.846154%</t>
-  </si>
-  <si>
-    <t>69.000000</t>
-  </si>
-  <si>
-    <t>35.384615%</t>
-  </si>
-  <si>
-    <t>30.769231%</t>
-  </si>
-  <si>
-    <t>0904040002_OP-21</t>
-  </si>
-  <si>
-    <t>0904040003_OP-21</t>
-  </si>
-  <si>
     <t>0.491935</t>
   </si>
   <si>
     <t>0.536290</t>
   </si>
   <si>
-    <t>198.000000</t>
-  </si>
-  <si>
-    <t>31.378764%</t>
-  </si>
-  <si>
-    <t>304.000000</t>
-  </si>
-  <si>
-    <t>48.177496%</t>
-  </si>
-  <si>
-    <t>129.000000</t>
-  </si>
-  <si>
-    <t>20.443740%</t>
-  </si>
-  <si>
     <t>1003010031_op-21</t>
   </si>
   <si>
@@ -1080,24 +825,6 @@
     <t>2.151639</t>
   </si>
   <si>
-    <t>530.000000</t>
-  </si>
-  <si>
-    <t>46.046916%</t>
-  </si>
-  <si>
-    <t>272.000000</t>
-  </si>
-  <si>
-    <t>23.631625%</t>
-  </si>
-  <si>
-    <t>349.000000</t>
-  </si>
-  <si>
-    <t>30.321460%</t>
-  </si>
-  <si>
     <t>1005010034_OP-21</t>
   </si>
   <si>
@@ -1119,24 +846,6 @@
     <t>1.598802</t>
   </si>
   <si>
-    <t>676.000000</t>
-  </si>
-  <si>
-    <t>49.815770%</t>
-  </si>
-  <si>
-    <t>353.000000</t>
-  </si>
-  <si>
-    <t>26.013265%</t>
-  </si>
-  <si>
-    <t>328.000000</t>
-  </si>
-  <si>
-    <t>24.170965%</t>
-  </si>
-  <si>
     <t>1005030035_OP-21</t>
   </si>
   <si>
@@ -1152,21 +861,6 @@
     <t>2.038922</t>
   </si>
   <si>
-    <t>710.000000</t>
-  </si>
-  <si>
-    <t>49.168975%</t>
-  </si>
-  <si>
-    <t>23.545706%</t>
-  </si>
-  <si>
-    <t>394.000000</t>
-  </si>
-  <si>
-    <t>27.285319%</t>
-  </si>
-  <si>
     <t>1503040000_op-21</t>
   </si>
   <si>
@@ -1221,24 +915,6 @@
     <t>2.681633</t>
   </si>
   <si>
-    <t>526.000000</t>
-  </si>
-  <si>
-    <t>27.367326%</t>
-  </si>
-  <si>
-    <t>790.000000</t>
-  </si>
-  <si>
-    <t>41.103018%</t>
-  </si>
-  <si>
-    <t>606.000000</t>
-  </si>
-  <si>
-    <t>31.529657%</t>
-  </si>
-  <si>
     <t>2703040030_op-21</t>
   </si>
   <si>
@@ -1326,24 +1002,6 @@
     <t>4.096000</t>
   </si>
   <si>
-    <t>371.000000</t>
-  </si>
-  <si>
-    <t>28.084784%</t>
-  </si>
-  <si>
-    <t>651.000000</t>
-  </si>
-  <si>
-    <t>49.280848%</t>
-  </si>
-  <si>
-    <t>299.000000</t>
-  </si>
-  <si>
-    <t>22.634368%</t>
-  </si>
-  <si>
     <t>2704040001_OP-20</t>
   </si>
   <si>
@@ -1428,21 +1086,9 @@
     <t>4.036290</t>
   </si>
   <si>
-    <t>44.014733%</t>
-  </si>
-  <si>
-    <t>25.230203%</t>
-  </si>
-  <si>
     <t>1.841621%</t>
   </si>
   <si>
-    <t>157.000000</t>
-  </si>
-  <si>
-    <t>28.913444%</t>
-  </si>
-  <si>
     <t>Максимальные значения:</t>
   </si>
   <si>
@@ -1494,16 +1140,79 @@
     <t>24.606299 (у УП 2704030006_op-20)</t>
   </si>
   <si>
-    <t>710.000000 (у УП 1005030035_OP-21)</t>
-  </si>
-  <si>
-    <t>53.361345 (у УП 0904010012_OP-21)</t>
-  </si>
-  <si>
-    <t>1157.000000 (у УП 0903040030_op-21)</t>
-  </si>
-  <si>
-    <t>65.888383 (у УП 0903040030_op-21)</t>
+    <t>300.000000 (у УП 2703040030_op-21)</t>
+  </si>
+  <si>
+    <t>53.061224 (у УП 0904010003_OP-20)</t>
+  </si>
+  <si>
+    <t>502.000000 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>56.026786 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>45.000000 (у УП 2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>8.858268 (у УП 2704030006_op-20)</t>
+  </si>
+  <si>
+    <t>162.000000 (у УП 2703040030_op-21)</t>
+  </si>
+  <si>
+    <t>39.583333 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>Минимальные значения:</t>
+  </si>
+  <si>
+    <t>124.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>17.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>128.000000 (у УП 0904040003_OP-21)</t>
+  </si>
+  <si>
+    <t>20.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>9.000000 (у УП 0904010012_OP-21)</t>
+  </si>
+  <si>
+    <t>0.065574 (у УП 0103040030_op-21)</t>
+  </si>
+  <si>
+    <t>2.000000 (у УП 0904020001_OP-20)</t>
+  </si>
+  <si>
+    <t>1.000000 (у УП 0104020007_op-20)</t>
+  </si>
+  <si>
+    <t>0.451613 (у УП 0904020001_OP-20)</t>
+  </si>
+  <si>
+    <t>0.536290 (у УП 0904040003_OP-21)</t>
+  </si>
+  <si>
+    <t>53.000000 (у УП 2704040004_OP-20)</t>
+  </si>
+  <si>
+    <t>6.105991 (у УП 2704040004_OP-20)</t>
+  </si>
+  <si>
+    <t>97.000000 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>10.825893 (у УП 2704040001_OP-20)</t>
+  </si>
+  <si>
+    <t>65.000000 (у УП 0904020001_OP-20)</t>
+  </si>
+  <si>
+    <t>26.540755 (у УП 1503040000_op-21)</t>
   </si>
   <si>
     <t>10.000000 (у УП 2704040005_OP-21)</t>
@@ -1512,79 +1221,10 @@
     <t>1.841621 (у УП 2704040005_OP-21)</t>
   </si>
   <si>
-    <t>45.000000 (у УП 2704030006_op-20)</t>
-  </si>
-  <si>
-    <t>8.858268 (у УП 2704030006_op-20)</t>
-  </si>
-  <si>
-    <t>834.000000 (у УП 0104020009_OP-20)</t>
-  </si>
-  <si>
-    <t>56.542373 (у УП 0104020009_OP-20)</t>
-  </si>
-  <si>
-    <t>Минимальные значения:</t>
-  </si>
-  <si>
-    <t>124.000000 (у УП 0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>17.000000 (у УП 0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>128.000000 (у УП 0904040003_OP-21)</t>
-  </si>
-  <si>
-    <t>20.000000 (у УП 0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>9.000000 (у УП 0904010012_OP-21)</t>
-  </si>
-  <si>
-    <t>0.065574 (у УП 0103040030_op-21)</t>
-  </si>
-  <si>
-    <t>2.000000 (у УП 0904020001_OP-20)</t>
-  </si>
-  <si>
-    <t>1.000000 (у УП 0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>0.451613 (у УП 0904020001_OP-20)</t>
-  </si>
-  <si>
-    <t>0.536290 (у УП 0904040003_OP-21)</t>
-  </si>
-  <si>
-    <t>53.000000 (у УП 2704040004_OP-20)</t>
-  </si>
-  <si>
-    <t>6.105991 (у УП 2704040004_OP-20)</t>
-  </si>
-  <si>
-    <t>97.000000 (у УП 2704040001_OP-20)</t>
-  </si>
-  <si>
-    <t>10.825893 (у УП 2704040001_OP-20)</t>
-  </si>
-  <si>
-    <t>65.000000 (у УП 0904020001_OP-20)</t>
-  </si>
-  <si>
-    <t>21.013667 (у УП 0903040030_op-21)</t>
-  </si>
-  <si>
-    <t>29.000000 (у УП 0104020007_op-20)</t>
-  </si>
-  <si>
-    <t>8.630952 (у УП 0104020007_op-20)</t>
-  </si>
-  <si>
     <t>34.000000 (у УП 0904010011_OP-21)</t>
   </si>
   <si>
-    <t>13.097950 (у УП 0903040030_op-21)</t>
+    <t>16.585366 (у УП 0904010011_OP-21)</t>
   </si>
 </sst>
 </file>
@@ -2138,4244 +1778,3932 @@
       <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
+      <c r="S3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
+      <c r="T3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
+      <c r="U3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" t="s">
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="Y3" t="s">
         <v>53</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R4" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R7" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="U7" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="V7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R9" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="U9" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="V9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="V10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
         <v>110</v>
       </c>
-      <c r="G11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" t="s">
-        <v>151</v>
-      </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="S11" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="T11" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R12" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="U12" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R13" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="S13" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="V13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R14" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="S14" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="U14" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="V14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R15" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="S15" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="T15" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="U15" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="V15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X15" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="Y15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R16" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="S16" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="T16" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="U16" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="V16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X16" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="Y16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s">
         <v>60</v>
       </c>
-      <c r="E17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" t="s">
-        <v>195</v>
-      </c>
-      <c r="H17" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17" t="s">
-        <v>68</v>
-      </c>
       <c r="J17" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R17" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="S17" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="T17" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="U17" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="V17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X17" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="Y17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" t="s">
-        <v>196</v>
-      </c>
-      <c r="I18" t="s">
-        <v>68</v>
-      </c>
       <c r="J18" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R18" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="S18" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="T18" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="U18" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="V18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X18" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="Y18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
         <v>60</v>
       </c>
-      <c r="E19" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" t="s">
-        <v>68</v>
-      </c>
       <c r="J19" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R19" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="S19" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="U19" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="V19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S20" t="s">
+        <v>155</v>
+      </c>
+      <c r="T20" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" t="s">
+        <v>156</v>
+      </c>
+      <c r="V20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" t="s">
         <v>65</v>
       </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>39</v>
-      </c>
-      <c r="R20" t="s">
-        <v>218</v>
-      </c>
-      <c r="S20" t="s">
-        <v>219</v>
-      </c>
-      <c r="T20" t="s">
-        <v>121</v>
-      </c>
-      <c r="U20" t="s">
-        <v>220</v>
-      </c>
-      <c r="V20" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" t="s">
-        <v>39</v>
-      </c>
-      <c r="X20" t="s">
-        <v>39</v>
-      </c>
       <c r="Y20" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" t="s">
+        <v>154</v>
+      </c>
+      <c r="S21" t="s">
+        <v>155</v>
+      </c>
+      <c r="T21" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" t="s">
-        <v>217</v>
-      </c>
-      <c r="K21" t="s">
-        <v>186</v>
-      </c>
-      <c r="L21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" t="s">
-        <v>218</v>
-      </c>
-      <c r="S21" t="s">
-        <v>219</v>
-      </c>
-      <c r="T21" t="s">
-        <v>121</v>
-      </c>
-      <c r="U21" t="s">
-        <v>220</v>
-      </c>
-      <c r="V21" t="s">
-        <v>39</v>
-      </c>
-      <c r="W21" t="s">
-        <v>39</v>
-      </c>
-      <c r="X21" t="s">
-        <v>39</v>
-      </c>
       <c r="Y21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
         <v>60</v>
       </c>
-      <c r="E22" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" t="s">
-        <v>68</v>
-      </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R22" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="S22" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="T22" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="U22" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="V22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X22" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="Y22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="K23" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R23" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="S23" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="U23" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="V23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>246</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R24" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="S24" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="T24" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="U24" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="V24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X24" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="Y24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="K25" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R25" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="S25" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="T25" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="U25" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="V25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X25" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="Y25" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" t="s">
+        <v>192</v>
+      </c>
+      <c r="S26" t="s">
+        <v>193</v>
+      </c>
+      <c r="T26" t="s">
+        <v>194</v>
+      </c>
+      <c r="U26" t="s">
+        <v>195</v>
+      </c>
+      <c r="V26" t="s">
+        <v>37</v>
+      </c>
+      <c r="W26" t="s">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y26" t="s">
         <v>196</v>
-      </c>
-      <c r="G26" t="s">
-        <v>259</v>
-      </c>
-      <c r="H26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" t="s">
-        <v>260</v>
-      </c>
-      <c r="K26" t="s">
-        <v>261</v>
-      </c>
-      <c r="L26" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>39</v>
-      </c>
-      <c r="R26" t="s">
-        <v>262</v>
-      </c>
-      <c r="S26" t="s">
-        <v>263</v>
-      </c>
-      <c r="T26" t="s">
-        <v>264</v>
-      </c>
-      <c r="U26" t="s">
-        <v>265</v>
-      </c>
-      <c r="V26" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" t="s">
-        <v>39</v>
-      </c>
-      <c r="X26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" t="s">
+        <v>192</v>
+      </c>
+      <c r="S27" t="s">
+        <v>193</v>
+      </c>
+      <c r="T27" t="s">
+        <v>194</v>
+      </c>
+      <c r="U27" t="s">
+        <v>195</v>
+      </c>
+      <c r="V27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y27" t="s">
         <v>196</v>
-      </c>
-      <c r="G27" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" t="s">
-        <v>260</v>
-      </c>
-      <c r="K27" t="s">
-        <v>261</v>
-      </c>
-      <c r="L27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>39</v>
-      </c>
-      <c r="R27" t="s">
-        <v>262</v>
-      </c>
-      <c r="S27" t="s">
-        <v>263</v>
-      </c>
-      <c r="T27" t="s">
-        <v>264</v>
-      </c>
-      <c r="U27" t="s">
-        <v>265</v>
-      </c>
-      <c r="V27" t="s">
-        <v>39</v>
-      </c>
-      <c r="W27" t="s">
-        <v>39</v>
-      </c>
-      <c r="X27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R28" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="S28" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="T28" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="U28" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="V28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X28" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="Y28" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G29" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R29" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="S29" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="T29" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="U29" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="V29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X29" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="Y29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J30" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R30" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="S30" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="T30" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="U30" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="V30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X30" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="Y30" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R31" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="S31" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="T31" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="U31" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="V31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X31" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="Y31" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R32" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="S32" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="T32" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="U32" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="V32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X32" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="Y32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J33" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K33" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R33" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="S33" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="T33" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="U33" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="V33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X33" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="Y33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s">
+        <v>181</v>
+      </c>
+      <c r="S34" t="s">
         <v>224</v>
       </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="T34" t="s">
+        <v>131</v>
+      </c>
+      <c r="U34" t="s">
         <v>225</v>
       </c>
-      <c r="F34" t="s">
-        <v>196</v>
-      </c>
-      <c r="G34" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" t="s">
-        <v>292</v>
-      </c>
-      <c r="K34" t="s">
-        <v>293</v>
-      </c>
-      <c r="L34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R34" t="s">
-        <v>251</v>
-      </c>
-      <c r="S34" t="s">
-        <v>294</v>
-      </c>
-      <c r="T34" t="s">
-        <v>189</v>
-      </c>
-      <c r="U34" t="s">
-        <v>295</v>
-      </c>
       <c r="V34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X34" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>296</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" t="s">
+        <v>223</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>37</v>
+      </c>
+      <c r="R35" t="s">
+        <v>181</v>
+      </c>
+      <c r="S35" t="s">
         <v>224</v>
       </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="T35" t="s">
+        <v>131</v>
+      </c>
+      <c r="U35" t="s">
         <v>225</v>
       </c>
-      <c r="F35" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35" t="s">
-        <v>285</v>
-      </c>
-      <c r="H35" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" t="s">
-        <v>292</v>
-      </c>
-      <c r="K35" t="s">
-        <v>293</v>
-      </c>
-      <c r="L35" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" t="s">
-        <v>39</v>
-      </c>
-      <c r="O35" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>39</v>
-      </c>
-      <c r="R35" t="s">
-        <v>251</v>
-      </c>
-      <c r="S35" t="s">
-        <v>294</v>
-      </c>
-      <c r="T35" t="s">
-        <v>189</v>
-      </c>
-      <c r="U35" t="s">
-        <v>295</v>
-      </c>
       <c r="V35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X35" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="Y35" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>296</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="K36" t="s">
-        <v>303</v>
+        <v>233</v>
       </c>
       <c r="L36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R36" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="S36" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="T36" t="s">
-        <v>306</v>
+        <v>37</v>
       </c>
       <c r="U36" t="s">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="V36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>309</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
         <v>235</v>
       </c>
-      <c r="F37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" t="s">
-        <v>311</v>
-      </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="L37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R37" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="S37" t="s">
-        <v>313</v>
+        <v>37</v>
       </c>
       <c r="T37" t="s">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="U37" t="s">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="V37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y37" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>316</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
         <v>235</v>
       </c>
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>311</v>
-      </c>
       <c r="H38" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I38" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="K38" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R38" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>313</v>
+        <v>37</v>
       </c>
       <c r="T38" t="s">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="U38" t="s">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y38" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>316</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="H39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="K39" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="L39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R39" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="S39" t="s">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="T39" t="s">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="U39" t="s">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="V39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>326</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="H40" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="K40" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="L40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R40" t="s">
-        <v>332</v>
+        <v>37</v>
       </c>
       <c r="S40" t="s">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="T40" t="s">
-        <v>334</v>
+        <v>37</v>
       </c>
       <c r="U40" t="s">
-        <v>335</v>
+        <v>37</v>
       </c>
       <c r="V40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>337</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>338</v>
+        <v>247</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="C41" t="s">
-        <v>340</v>
+        <v>249</v>
       </c>
       <c r="D41" t="s">
-        <v>341</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s">
-        <v>342</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I41" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="J41" t="s">
-        <v>343</v>
+        <v>252</v>
       </c>
       <c r="K41" t="s">
-        <v>344</v>
+        <v>253</v>
       </c>
       <c r="L41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R41" t="s">
-        <v>345</v>
+        <v>37</v>
       </c>
       <c r="S41" t="s">
-        <v>346</v>
+        <v>37</v>
       </c>
       <c r="T41" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="U41" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="V41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>350</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>351</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="C42" t="s">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>341</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
-        <v>342</v>
+        <v>251</v>
       </c>
       <c r="H42" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I42" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="J42" t="s">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="K42" t="s">
-        <v>355</v>
+        <v>258</v>
       </c>
       <c r="L42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R42" t="s">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="S42" t="s">
-        <v>357</v>
+        <v>37</v>
       </c>
       <c r="T42" t="s">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="U42" t="s">
-        <v>358</v>
+        <v>37</v>
       </c>
       <c r="V42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y42" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>360</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>361</v>
+        <v>259</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>362</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="H43" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>364</v>
+        <v>262</v>
       </c>
       <c r="K43" t="s">
-        <v>365</v>
+        <v>263</v>
       </c>
       <c r="L43" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="M43" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="N43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P43" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="Q43" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="R43" t="s">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="S43" t="s">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="T43" t="s">
-        <v>372</v>
+        <v>270</v>
       </c>
       <c r="U43" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="V43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="H44" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I44" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="J44" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="K44" t="s">
-        <v>378</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R44" t="s">
-        <v>379</v>
+        <v>37</v>
       </c>
       <c r="S44" t="s">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="T44" t="s">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="U44" t="s">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="V44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>384</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>385</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
       <c r="E45" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s">
-        <v>387</v>
+        <v>279</v>
       </c>
       <c r="H45" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I45" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="J45" t="s">
-        <v>388</v>
+        <v>280</v>
       </c>
       <c r="K45" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
       <c r="L45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R45" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="S45" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
       <c r="T45" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="U45" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
       <c r="V45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X45" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="Y45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>394</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="C46" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="H46" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="K46" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="L46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P46" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="Q46" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="R46" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="S46" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="T46" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
       <c r="U46" t="s">
-        <v>406</v>
+        <v>298</v>
       </c>
       <c r="V46" t="s">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="W46" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="X46" t="s">
-        <v>407</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>409</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>410</v>
+        <v>302</v>
       </c>
       <c r="E47" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
       <c r="H47" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>412</v>
+        <v>304</v>
       </c>
       <c r="K47" t="s">
-        <v>413</v>
+        <v>305</v>
       </c>
       <c r="L47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R47" t="s">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="S47" t="s">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="T47" t="s">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="U47" t="s">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="V47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y47" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>419</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>421</v>
+        <v>307</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="G48" t="s">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="H48" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>423</v>
+        <v>309</v>
       </c>
       <c r="K48" t="s">
-        <v>424</v>
+        <v>310</v>
       </c>
       <c r="L48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N48" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="O48" t="s">
-        <v>425</v>
+        <v>311</v>
       </c>
       <c r="P48" t="s">
-        <v>426</v>
+        <v>312</v>
       </c>
       <c r="Q48" t="s">
-        <v>427</v>
+        <v>313</v>
       </c>
       <c r="R48" t="s">
-        <v>428</v>
+        <v>314</v>
       </c>
       <c r="S48" t="s">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="T48" t="s">
-        <v>430</v>
+        <v>316</v>
       </c>
       <c r="U48" t="s">
-        <v>431</v>
+        <v>317</v>
       </c>
       <c r="V48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y48" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>432</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>433</v>
+        <v>319</v>
       </c>
       <c r="E49" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="F49" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="G49" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="H49" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s">
-        <v>435</v>
+        <v>321</v>
       </c>
       <c r="L49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N49" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="O49" t="s">
-        <v>436</v>
+        <v>322</v>
       </c>
       <c r="P49" t="s">
-        <v>437</v>
+        <v>323</v>
       </c>
       <c r="Q49" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="R49" t="s">
-        <v>439</v>
+        <v>325</v>
       </c>
       <c r="S49" t="s">
-        <v>440</v>
+        <v>326</v>
       </c>
       <c r="T49" t="s">
-        <v>441</v>
+        <v>327</v>
       </c>
       <c r="U49" t="s">
-        <v>442</v>
+        <v>328</v>
       </c>
       <c r="V49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y49" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>444</v>
+        <v>330</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>445</v>
+        <v>331</v>
       </c>
       <c r="H50" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>446</v>
+        <v>332</v>
       </c>
       <c r="K50" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R50" t="s">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="S50" t="s">
-        <v>448</v>
+        <v>37</v>
       </c>
       <c r="T50" t="s">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="U50" t="s">
-        <v>449</v>
+        <v>334</v>
       </c>
       <c r="V50" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="W50" t="s">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="X50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y50" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>452</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>453</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s">
-        <v>454</v>
+        <v>336</v>
       </c>
       <c r="C51" t="s">
-        <v>455</v>
+        <v>337</v>
       </c>
       <c r="D51" t="s">
-        <v>456</v>
+        <v>338</v>
       </c>
       <c r="E51" t="s">
-        <v>457</v>
+        <v>339</v>
       </c>
       <c r="F51" t="s">
-        <v>458</v>
+        <v>340</v>
       </c>
       <c r="G51" t="s">
-        <v>459</v>
+        <v>341</v>
       </c>
       <c r="H51" t="s">
-        <v>460</v>
+        <v>342</v>
       </c>
       <c r="I51" t="s">
-        <v>461</v>
+        <v>343</v>
       </c>
       <c r="J51" t="s">
-        <v>462</v>
+        <v>344</v>
       </c>
       <c r="K51" t="s">
-        <v>463</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s">
-        <v>464</v>
+        <v>346</v>
       </c>
       <c r="M51" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
       <c r="N51" t="s">
-        <v>466</v>
+        <v>348</v>
       </c>
       <c r="O51" t="s">
-        <v>467</v>
+        <v>349</v>
       </c>
       <c r="P51" t="s">
-        <v>468</v>
+        <v>350</v>
       </c>
       <c r="Q51" t="s">
-        <v>469</v>
+        <v>351</v>
       </c>
       <c r="R51" t="s">
-        <v>470</v>
+        <v>352</v>
       </c>
       <c r="S51" t="s">
-        <v>471</v>
+        <v>353</v>
       </c>
       <c r="T51" t="s">
-        <v>472</v>
+        <v>354</v>
       </c>
       <c r="U51" t="s">
-        <v>473</v>
+        <v>355</v>
       </c>
       <c r="V51" t="s">
-        <v>474</v>
+        <v>356</v>
       </c>
       <c r="W51" t="s">
-        <v>475</v>
+        <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>476</v>
+        <v>358</v>
       </c>
       <c r="Y51" t="s">
-        <v>477</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s">
-        <v>481</v>
+        <v>361</v>
       </c>
       <c r="C52" t="s">
-        <v>482</v>
+        <v>362</v>
       </c>
       <c r="D52" t="s">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="E52" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="F52" t="s">
-        <v>485</v>
+        <v>365</v>
       </c>
       <c r="G52" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="H52" t="s">
-        <v>487</v>
+        <v>367</v>
       </c>
       <c r="I52" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="J52" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="K52" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="L52" t="s">
-        <v>464</v>
+        <v>346</v>
       </c>
       <c r="M52" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
       <c r="N52" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="O52" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="P52" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="Q52" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="R52" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="S52" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="T52" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="U52" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="V52" t="s">
-        <v>474</v>
+        <v>356</v>
       </c>
       <c r="W52" t="s">
-        <v>475</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
-        <v>476</v>
+        <v>379</v>
       </c>
       <c r="Y52" t="s">
-        <v>477</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>500</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
